--- a/01_kidsweb/home/kids2/tmp/inv/aggregate.xlsx
+++ b/01_kidsweb/home/kids2/tmp/inv/aggregate.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\esash\Desktop\solcom\git\KIDS2\01_kidsweb\home\kids2\tmp\inv\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\solcom\Desktop\Git\KIDS\01_kidsweb\home\kids2\tmp\inv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DFE782D-B300-4F55-9C94-23F430694DB5}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFE8E15E-6954-436F-A019-B35B5E61684D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="720" yWindow="1605" windowWidth="23835" windowHeight="13140" tabRatio="813" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="813" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="請求額集計表" sheetId="31" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">請求額集計表!$A$6:$J$381</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">請求額集計表!$D$1:$K$381</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -1099,6 +1099,21 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="181" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" shrinkToFit="1"/>
     </xf>
@@ -1115,13 +1130,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1132,14 +1140,6 @@
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="180" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1682,50 +1682,50 @@
   <dimension ref="A1:K383"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D379" sqref="D379"/>
+      <pane ySplit="6" topLeftCell="A201" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O207" sqref="O207"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.2" outlineLevelRow="1" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.625" customWidth="1"/>
-    <col min="2" max="2" width="3.5" style="29" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="3.75" style="4" customWidth="1" outlineLevel="1"/>
-    <col min="4" max="4" width="23.625" customWidth="1"/>
-    <col min="5" max="5" width="22.625" style="11" customWidth="1"/>
-    <col min="6" max="6" width="3.625" style="11" customWidth="1"/>
-    <col min="7" max="7" width="21.75" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="15.625" style="22" customWidth="1"/>
+    <col min="1" max="1" width="4.6640625" customWidth="1"/>
+    <col min="2" max="2" width="3.44140625" style="29" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="3.77734375" style="4" customWidth="1" outlineLevel="1"/>
+    <col min="4" max="4" width="23.6640625" customWidth="1"/>
+    <col min="5" max="5" width="22.6640625" style="11" customWidth="1"/>
+    <col min="6" max="6" width="3.6640625" style="11" customWidth="1"/>
+    <col min="7" max="7" width="21.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="13.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="14.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="15.6640625" style="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D1" s="153">
+    <row r="1" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D1" s="158">
         <v>43738</v>
       </c>
-      <c r="E1" s="153"/>
-      <c r="F1" s="153"/>
-      <c r="G1" s="153"/>
-      <c r="H1" s="153"/>
-      <c r="I1" s="153"/>
-      <c r="J1" s="153"/>
-      <c r="K1" s="153"/>
-    </row>
-    <row r="2" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D2" s="157">
+      <c r="E1" s="158"/>
+      <c r="F1" s="158"/>
+      <c r="G1" s="158"/>
+      <c r="H1" s="158"/>
+      <c r="I1" s="158"/>
+      <c r="J1" s="158"/>
+      <c r="K1" s="158"/>
+    </row>
+    <row r="2" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D2" s="152">
         <f>$D1+15</f>
         <v>43753</v>
       </c>
-      <c r="E2" s="158"/>
-      <c r="F2" s="158"/>
-      <c r="G2" s="158"/>
-      <c r="H2" s="158"/>
-      <c r="I2" s="158"/>
-      <c r="J2" s="158"/>
-    </row>
-    <row r="3" spans="1:11" s="77" customFormat="1" ht="12.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="E2" s="153"/>
+      <c r="F2" s="153"/>
+      <c r="G2" s="153"/>
+      <c r="H2" s="153"/>
+      <c r="I2" s="153"/>
+      <c r="J2" s="153"/>
+    </row>
+    <row r="3" spans="1:11" s="77" customFormat="1" ht="12.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A3" s="77" t="s">
         <v>8</v>
       </c>
@@ -1760,7 +1760,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="4" spans="1:11" s="77" customFormat="1" ht="12.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:11" s="77" customFormat="1" ht="12.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A4" s="77">
         <v>1</v>
       </c>
@@ -1795,13 +1795,13 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:11" s="77" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:11" s="77" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="140"/>
       <c r="C5" s="79"/>
-      <c r="D5" s="156" t="s">
+      <c r="D5" s="154" t="s">
         <v>24</v>
       </c>
-      <c r="E5" s="156"/>
+      <c r="E5" s="154"/>
       <c r="G5" s="79" t="s">
         <v>0</v>
       </c>
@@ -1816,7 +1816,7 @@
       </c>
       <c r="K5" s="76"/>
     </row>
-    <row r="6" spans="1:11" s="77" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:11" s="77" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="140"/>
       <c r="C6" s="79"/>
       <c r="D6" s="143" t="s">
@@ -1838,7 +1838,7 @@
       </c>
       <c r="K6" s="142"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="102">
         <v>1</v>
       </c>
@@ -1861,7 +1861,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="102">
         <v>2</v>
       </c>
@@ -1884,7 +1884,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="102">
         <v>3</v>
       </c>
@@ -1907,7 +1907,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="102">
         <v>4</v>
       </c>
@@ -1930,7 +1930,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="102">
         <v>5</v>
       </c>
@@ -1953,7 +1953,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="102">
         <v>6</v>
       </c>
@@ -1976,7 +1976,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="102">
         <v>7</v>
       </c>
@@ -1999,7 +1999,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="102">
         <v>8</v>
       </c>
@@ -2022,7 +2022,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="102">
         <v>9</v>
       </c>
@@ -2045,7 +2045,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="102">
         <v>10</v>
       </c>
@@ -2068,7 +2068,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="102">
         <v>11</v>
       </c>
@@ -2091,7 +2091,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="102">
         <v>12</v>
       </c>
@@ -2114,7 +2114,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="102">
         <v>13</v>
       </c>
@@ -2137,7 +2137,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="102">
         <v>14</v>
       </c>
@@ -2160,7 +2160,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="102">
         <v>15</v>
       </c>
@@ -2183,7 +2183,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="102">
         <v>16</v>
       </c>
@@ -2206,7 +2206,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="102">
         <v>17</v>
       </c>
@@ -2229,7 +2229,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="102">
         <v>18</v>
       </c>
@@ -2252,7 +2252,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="102">
         <v>19</v>
       </c>
@@ -2275,7 +2275,7 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="102">
         <v>20</v>
       </c>
@@ -2298,7 +2298,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="102">
         <v>21</v>
       </c>
@@ -2321,7 +2321,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="102">
         <v>22</v>
       </c>
@@ -2344,7 +2344,7 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="102">
         <v>23</v>
       </c>
@@ -2367,7 +2367,7 @@
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="102">
         <v>24</v>
       </c>
@@ -2390,7 +2390,7 @@
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="102">
         <v>25</v>
       </c>
@@ -2413,7 +2413,7 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="102">
         <v>26</v>
       </c>
@@ -2436,7 +2436,7 @@
         <v/>
       </c>
     </row>
-    <row r="33" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="102">
         <v>27</v>
       </c>
@@ -2459,7 +2459,7 @@
         <v/>
       </c>
     </row>
-    <row r="34" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="102">
         <v>28</v>
       </c>
@@ -2482,7 +2482,7 @@
         <v/>
       </c>
     </row>
-    <row r="35" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="102">
         <v>29</v>
       </c>
@@ -2505,7 +2505,7 @@
         <v/>
       </c>
     </row>
-    <row r="36" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="102">
         <v>30</v>
       </c>
@@ -2528,7 +2528,7 @@
         <v/>
       </c>
     </row>
-    <row r="37" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="102">
         <v>31</v>
       </c>
@@ -2551,7 +2551,7 @@
         <v/>
       </c>
     </row>
-    <row r="38" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A38" s="102">
         <v>32</v>
       </c>
@@ -2575,7 +2575,7 @@
         <v/>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" s="102">
         <v>33</v>
       </c>
@@ -2598,7 +2598,7 @@
         <v/>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" s="102">
         <v>34</v>
       </c>
@@ -2621,7 +2621,7 @@
         <v/>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" s="102">
         <v>35</v>
       </c>
@@ -2644,7 +2644,7 @@
         <v/>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42" s="102">
         <v>36</v>
       </c>
@@ -2667,7 +2667,7 @@
         <v/>
       </c>
     </row>
-    <row r="43" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="102">
         <v>37</v>
       </c>
@@ -2698,7 +2698,7 @@
         <v/>
       </c>
     </row>
-    <row r="44" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="102">
         <v>38</v>
       </c>
@@ -2729,7 +2729,7 @@
         <v/>
       </c>
     </row>
-    <row r="45" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="102">
         <v>39</v>
       </c>
@@ -2760,7 +2760,7 @@
         <v/>
       </c>
     </row>
-    <row r="46" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="102">
         <v>40</v>
       </c>
@@ -2791,7 +2791,7 @@
         <v/>
       </c>
     </row>
-    <row r="47" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="102">
         <v>41</v>
       </c>
@@ -2822,7 +2822,7 @@
         <v/>
       </c>
     </row>
-    <row r="48" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="102">
         <v>42</v>
       </c>
@@ -2853,7 +2853,7 @@
         <v/>
       </c>
     </row>
-    <row r="49" spans="1:11" ht="13.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:11" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="102">
         <v>43</v>
       </c>
@@ -2884,7 +2884,7 @@
         <v/>
       </c>
     </row>
-    <row r="50" spans="1:11" ht="13.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:11" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="102">
         <v>44</v>
       </c>
@@ -2915,7 +2915,7 @@
         <v/>
       </c>
     </row>
-    <row r="51" spans="1:11" ht="13.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:11" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="102">
         <v>45</v>
       </c>
@@ -2946,7 +2946,7 @@
         <v/>
       </c>
     </row>
-    <row r="52" spans="1:11" ht="13.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:11" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="102">
         <v>46</v>
       </c>
@@ -2977,7 +2977,7 @@
         <v/>
       </c>
     </row>
-    <row r="53" spans="1:11" ht="13.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:11" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="102">
         <v>47</v>
       </c>
@@ -3008,7 +3008,7 @@
         <v/>
       </c>
     </row>
-    <row r="54" spans="1:11" ht="13.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:11" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="102">
         <v>48</v>
       </c>
@@ -3039,7 +3039,7 @@
         <v/>
       </c>
     </row>
-    <row r="55" spans="1:11" ht="13.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:11" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="102">
         <v>49</v>
       </c>
@@ -3070,7 +3070,7 @@
         <v/>
       </c>
     </row>
-    <row r="56" spans="1:11" ht="13.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:11" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="102">
         <v>50</v>
       </c>
@@ -3101,7 +3101,7 @@
         <v/>
       </c>
     </row>
-    <row r="57" spans="1:11" ht="13.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:11" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="102">
         <v>51</v>
       </c>
@@ -3132,7 +3132,7 @@
         <v/>
       </c>
     </row>
-    <row r="58" spans="1:11" ht="13.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:11" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="102">
         <v>52</v>
       </c>
@@ -3163,7 +3163,7 @@
         <v/>
       </c>
     </row>
-    <row r="59" spans="1:11" ht="13.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:11" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="102">
         <v>53</v>
       </c>
@@ -3194,7 +3194,7 @@
         <v/>
       </c>
     </row>
-    <row r="60" spans="1:11" ht="13.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:11" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="102">
         <v>54</v>
       </c>
@@ -3225,7 +3225,7 @@
         <v/>
       </c>
     </row>
-    <row r="61" spans="1:11" s="2" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:11" s="2" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="102">
         <v>55</v>
       </c>
@@ -3257,7 +3257,7 @@
         <v/>
       </c>
     </row>
-    <row r="62" spans="1:11" ht="13.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:11" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="102">
         <v>56</v>
       </c>
@@ -3288,7 +3288,7 @@
         <v/>
       </c>
     </row>
-    <row r="63" spans="1:11" ht="13.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:11" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="102">
         <v>57</v>
       </c>
@@ -3319,7 +3319,7 @@
         <v/>
       </c>
     </row>
-    <row r="64" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="102">
         <v>58</v>
       </c>
@@ -3350,7 +3350,7 @@
         <v/>
       </c>
     </row>
-    <row r="65" spans="1:11" s="2" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:11" s="2" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="102">
         <v>59</v>
       </c>
@@ -3382,7 +3382,7 @@
         <v/>
       </c>
     </row>
-    <row r="66" spans="1:11" ht="13.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:11" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="102">
         <v>60</v>
       </c>
@@ -3413,7 +3413,7 @@
         <v/>
       </c>
     </row>
-    <row r="67" spans="1:11" ht="13.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:11" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="102">
         <v>61</v>
       </c>
@@ -3444,7 +3444,7 @@
         <v/>
       </c>
     </row>
-    <row r="68" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="102">
         <v>62</v>
       </c>
@@ -3475,7 +3475,7 @@
         <v/>
       </c>
     </row>
-    <row r="69" spans="1:11" s="2" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:11" s="2" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="102">
         <v>63</v>
       </c>
@@ -3507,7 +3507,7 @@
         <v/>
       </c>
     </row>
-    <row r="70" spans="1:11" s="2" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:11" s="2" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="102">
         <v>64</v>
       </c>
@@ -3539,7 +3539,7 @@
         <v/>
       </c>
     </row>
-    <row r="71" spans="1:11" s="2" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:11" s="2" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="102">
         <v>65</v>
       </c>
@@ -3571,7 +3571,7 @@
         <v/>
       </c>
     </row>
-    <row r="72" spans="1:11" ht="13.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:11" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="102">
         <v>66</v>
       </c>
@@ -3602,7 +3602,7 @@
         <v/>
       </c>
     </row>
-    <row r="73" spans="1:11" ht="13.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:11" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="102">
         <v>67</v>
       </c>
@@ -3633,7 +3633,7 @@
         <v/>
       </c>
     </row>
-    <row r="74" spans="1:11" ht="13.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:11" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="102">
         <v>68</v>
       </c>
@@ -3664,7 +3664,7 @@
         <v/>
       </c>
     </row>
-    <row r="75" spans="1:11" ht="13.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:11" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="102">
         <v>69</v>
       </c>
@@ -3695,7 +3695,7 @@
         <v/>
       </c>
     </row>
-    <row r="76" spans="1:11" ht="13.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:11" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="102">
         <v>70</v>
       </c>
@@ -3726,7 +3726,7 @@
         <v/>
       </c>
     </row>
-    <row r="77" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="102">
         <v>71</v>
       </c>
@@ -3757,7 +3757,7 @@
         <v/>
       </c>
     </row>
-    <row r="78" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="102">
         <v>72</v>
       </c>
@@ -3788,7 +3788,7 @@
         <v/>
       </c>
     </row>
-    <row r="79" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="102">
         <v>73</v>
       </c>
@@ -3819,7 +3819,7 @@
         <v/>
       </c>
     </row>
-    <row r="80" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="102">
         <v>74</v>
       </c>
@@ -3850,7 +3850,7 @@
         <v/>
       </c>
     </row>
-    <row r="81" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="102">
         <v>75</v>
       </c>
@@ -3881,7 +3881,7 @@
         <v/>
       </c>
     </row>
-    <row r="82" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="102">
         <v>76</v>
       </c>
@@ -3912,7 +3912,7 @@
         <v/>
       </c>
     </row>
-    <row r="83" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="102">
         <v>77</v>
       </c>
@@ -3943,7 +3943,7 @@
         <v/>
       </c>
     </row>
-    <row r="84" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="102">
         <v>78</v>
       </c>
@@ -3974,7 +3974,7 @@
         <v/>
       </c>
     </row>
-    <row r="85" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="102">
         <v>79</v>
       </c>
@@ -4005,7 +4005,7 @@
         <v/>
       </c>
     </row>
-    <row r="86" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="102">
         <v>80</v>
       </c>
@@ -4036,7 +4036,7 @@
         <v/>
       </c>
     </row>
-    <row r="87" spans="1:11" ht="13.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:11" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="102">
         <v>81</v>
       </c>
@@ -4067,7 +4067,7 @@
         <v/>
       </c>
     </row>
-    <row r="88" spans="1:11" ht="13.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:11" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="102">
         <v>82</v>
       </c>
@@ -4098,7 +4098,7 @@
         <v/>
       </c>
     </row>
-    <row r="89" spans="1:11" ht="13.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:11" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="102">
         <v>83</v>
       </c>
@@ -4129,7 +4129,7 @@
         <v/>
       </c>
     </row>
-    <row r="90" spans="1:11" ht="13.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:11" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="102">
         <v>84</v>
       </c>
@@ -4160,7 +4160,7 @@
         <v/>
       </c>
     </row>
-    <row r="91" spans="1:11" ht="13.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:11" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="102">
         <v>85</v>
       </c>
@@ -4191,7 +4191,7 @@
         <v/>
       </c>
     </row>
-    <row r="92" spans="1:11" ht="13.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:11" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="102">
         <v>86</v>
       </c>
@@ -4222,7 +4222,7 @@
         <v/>
       </c>
     </row>
-    <row r="93" spans="1:11" ht="13.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:11" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="102">
         <v>87</v>
       </c>
@@ -4253,7 +4253,7 @@
         <v/>
       </c>
     </row>
-    <row r="94" spans="1:11" ht="13.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:11" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="102">
         <v>88</v>
       </c>
@@ -4284,7 +4284,7 @@
         <v/>
       </c>
     </row>
-    <row r="95" spans="1:11" ht="13.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:11" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="102">
         <v>89</v>
       </c>
@@ -4315,7 +4315,7 @@
         <v/>
       </c>
     </row>
-    <row r="96" spans="1:11" ht="13.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:11" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="102">
         <v>90</v>
       </c>
@@ -4346,7 +4346,7 @@
         <v/>
       </c>
     </row>
-    <row r="97" spans="1:11" ht="13.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:11" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="102">
         <v>91</v>
       </c>
@@ -4377,7 +4377,7 @@
         <v/>
       </c>
     </row>
-    <row r="98" spans="1:11" ht="13.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:11" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="102">
         <v>92</v>
       </c>
@@ -4408,7 +4408,7 @@
         <v/>
       </c>
     </row>
-    <row r="99" spans="1:11" ht="13.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:11" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="102">
         <v>93</v>
       </c>
@@ -4439,7 +4439,7 @@
         <v/>
       </c>
     </row>
-    <row r="100" spans="1:11" ht="13.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:11" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="102">
         <v>94</v>
       </c>
@@ -4470,7 +4470,7 @@
         <v/>
       </c>
     </row>
-    <row r="101" spans="1:11" ht="13.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:11" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="102">
         <v>95</v>
       </c>
@@ -4501,7 +4501,7 @@
         <v/>
       </c>
     </row>
-    <row r="102" spans="1:11" ht="13.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:11" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="102">
         <v>96</v>
       </c>
@@ -4532,7 +4532,7 @@
         <v/>
       </c>
     </row>
-    <row r="103" spans="1:11" ht="13.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:11" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="102">
         <v>97</v>
       </c>
@@ -4563,7 +4563,7 @@
         <v/>
       </c>
     </row>
-    <row r="104" spans="1:11" ht="13.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:11" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="102">
         <v>98</v>
       </c>
@@ -4594,7 +4594,7 @@
         <v/>
       </c>
     </row>
-    <row r="105" spans="1:11" ht="13.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:11" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="102">
         <v>99</v>
       </c>
@@ -4625,7 +4625,7 @@
         <v/>
       </c>
     </row>
-    <row r="106" spans="1:11" ht="13.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:11" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="102">
         <v>100</v>
       </c>
@@ -4656,7 +4656,7 @@
         <v/>
       </c>
     </row>
-    <row r="107" spans="1:11" ht="13.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:11" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="102">
         <v>101</v>
       </c>
@@ -4687,7 +4687,7 @@
         <v/>
       </c>
     </row>
-    <row r="108" spans="1:11" ht="13.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:11" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="102">
         <v>102</v>
       </c>
@@ -4718,7 +4718,7 @@
         <v/>
       </c>
     </row>
-    <row r="109" spans="1:11" ht="13.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:11" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="102">
         <v>103</v>
       </c>
@@ -4749,7 +4749,7 @@
         <v/>
       </c>
     </row>
-    <row r="110" spans="1:11" ht="13.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:11" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="102">
         <v>104</v>
       </c>
@@ -4780,7 +4780,7 @@
         <v/>
       </c>
     </row>
-    <row r="111" spans="1:11" ht="13.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:11" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="102">
         <v>105</v>
       </c>
@@ -4811,7 +4811,7 @@
         <v/>
       </c>
     </row>
-    <row r="112" spans="1:11" ht="13.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:11" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="102">
         <v>106</v>
       </c>
@@ -4842,7 +4842,7 @@
         <v/>
       </c>
     </row>
-    <row r="113" spans="1:11" ht="13.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:11" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="102">
         <v>107</v>
       </c>
@@ -4873,7 +4873,7 @@
         <v/>
       </c>
     </row>
-    <row r="114" spans="1:11" ht="13.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:11" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="102">
         <v>108</v>
       </c>
@@ -4904,7 +4904,7 @@
         <v/>
       </c>
     </row>
-    <row r="115" spans="1:11" ht="13.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:11" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="102">
         <v>109</v>
       </c>
@@ -4935,7 +4935,7 @@
         <v/>
       </c>
     </row>
-    <row r="116" spans="1:11" ht="13.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:11" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="102">
         <v>110</v>
       </c>
@@ -4966,7 +4966,7 @@
         <v/>
       </c>
     </row>
-    <row r="117" spans="1:11" ht="13.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:11" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="102">
         <v>111</v>
       </c>
@@ -4997,7 +4997,7 @@
         <v/>
       </c>
     </row>
-    <row r="118" spans="1:11" ht="13.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:11" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="102">
         <v>112</v>
       </c>
@@ -5028,7 +5028,7 @@
         <v/>
       </c>
     </row>
-    <row r="119" spans="1:11" ht="13.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:11" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="102">
         <v>113</v>
       </c>
@@ -5059,7 +5059,7 @@
         <v/>
       </c>
     </row>
-    <row r="120" spans="1:11" ht="13.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:11" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="102">
         <v>114</v>
       </c>
@@ -5090,7 +5090,7 @@
         <v/>
       </c>
     </row>
-    <row r="121" spans="1:11" ht="13.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:11" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="102">
         <v>115</v>
       </c>
@@ -5121,7 +5121,7 @@
         <v/>
       </c>
     </row>
-    <row r="122" spans="1:11" ht="13.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:11" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="102">
         <v>116</v>
       </c>
@@ -5152,7 +5152,7 @@
         <v/>
       </c>
     </row>
-    <row r="123" spans="1:11" ht="13.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:11" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="102">
         <v>117</v>
       </c>
@@ -5183,7 +5183,7 @@
         <v/>
       </c>
     </row>
-    <row r="124" spans="1:11" ht="13.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:11" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="102">
         <v>118</v>
       </c>
@@ -5214,7 +5214,7 @@
         <v/>
       </c>
     </row>
-    <row r="125" spans="1:11" ht="13.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:11" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="102">
         <v>119</v>
       </c>
@@ -5245,7 +5245,7 @@
         <v/>
       </c>
     </row>
-    <row r="126" spans="1:11" ht="13.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:11" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="102">
         <v>120</v>
       </c>
@@ -5276,7 +5276,7 @@
         <v/>
       </c>
     </row>
-    <row r="127" spans="1:11" ht="13.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:11" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="102">
         <v>121</v>
       </c>
@@ -5307,7 +5307,7 @@
         <v/>
       </c>
     </row>
-    <row r="128" spans="1:11" ht="13.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:11" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="102">
         <v>122</v>
       </c>
@@ -5338,7 +5338,7 @@
         <v/>
       </c>
     </row>
-    <row r="129" spans="1:11" ht="13.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:11" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="102">
         <v>123</v>
       </c>
@@ -5369,7 +5369,7 @@
         <v/>
       </c>
     </row>
-    <row r="130" spans="1:11" ht="13.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:11" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="102">
         <v>124</v>
       </c>
@@ -5400,7 +5400,7 @@
         <v/>
       </c>
     </row>
-    <row r="131" spans="1:11" ht="13.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:11" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="102">
         <v>125</v>
       </c>
@@ -5431,7 +5431,7 @@
         <v/>
       </c>
     </row>
-    <row r="132" spans="1:11" ht="13.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:11" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="102">
         <v>126</v>
       </c>
@@ -5462,7 +5462,7 @@
         <v/>
       </c>
     </row>
-    <row r="133" spans="1:11" ht="13.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:11" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="102">
         <v>127</v>
       </c>
@@ -5493,7 +5493,7 @@
         <v/>
       </c>
     </row>
-    <row r="134" spans="1:11" ht="13.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:11" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="102">
         <v>128</v>
       </c>
@@ -5524,7 +5524,7 @@
         <v/>
       </c>
     </row>
-    <row r="135" spans="1:11" ht="13.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:11" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="102">
         <v>129</v>
       </c>
@@ -5555,7 +5555,7 @@
         <v/>
       </c>
     </row>
-    <row r="136" spans="1:11" ht="13.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:11" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="102">
         <v>130</v>
       </c>
@@ -5586,7 +5586,7 @@
         <v/>
       </c>
     </row>
-    <row r="137" spans="1:11" ht="13.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:11" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="102">
         <v>131</v>
       </c>
@@ -5617,7 +5617,7 @@
         <v/>
       </c>
     </row>
-    <row r="138" spans="1:11" ht="13.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:11" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="102">
         <v>132</v>
       </c>
@@ -5648,7 +5648,7 @@
         <v/>
       </c>
     </row>
-    <row r="139" spans="1:11" ht="13.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:11" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="102">
         <v>133</v>
       </c>
@@ -5679,7 +5679,7 @@
         <v/>
       </c>
     </row>
-    <row r="140" spans="1:11" ht="13.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:11" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="102">
         <v>134</v>
       </c>
@@ -5710,7 +5710,7 @@
         <v/>
       </c>
     </row>
-    <row r="141" spans="1:11" ht="13.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:11" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="102">
         <v>135</v>
       </c>
@@ -5741,7 +5741,7 @@
         <v/>
       </c>
     </row>
-    <row r="142" spans="1:11" ht="13.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:11" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="102">
         <v>136</v>
       </c>
@@ -5772,7 +5772,7 @@
         <v/>
       </c>
     </row>
-    <row r="143" spans="1:11" ht="13.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:11" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="102">
         <v>137</v>
       </c>
@@ -5803,7 +5803,7 @@
         <v/>
       </c>
     </row>
-    <row r="144" spans="1:11" ht="13.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:11" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="102">
         <v>138</v>
       </c>
@@ -5834,7 +5834,7 @@
         <v/>
       </c>
     </row>
-    <row r="145" spans="1:11" ht="13.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:11" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="102">
         <v>139</v>
       </c>
@@ -5865,7 +5865,7 @@
         <v/>
       </c>
     </row>
-    <row r="146" spans="1:11" ht="13.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:11" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" s="102">
         <v>140</v>
       </c>
@@ -5896,7 +5896,7 @@
         <v/>
       </c>
     </row>
-    <row r="147" spans="1:11" ht="13.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:11" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" s="102">
         <v>141</v>
       </c>
@@ -5927,7 +5927,7 @@
         <v/>
       </c>
     </row>
-    <row r="148" spans="1:11" ht="13.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:11" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" s="102">
         <v>142</v>
       </c>
@@ -5958,7 +5958,7 @@
         <v/>
       </c>
     </row>
-    <row r="149" spans="1:11" ht="13.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:11" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" s="102">
         <v>143</v>
       </c>
@@ -5989,7 +5989,7 @@
         <v/>
       </c>
     </row>
-    <row r="150" spans="1:11" ht="13.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:11" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" s="102">
         <v>144</v>
       </c>
@@ -6020,7 +6020,7 @@
         <v/>
       </c>
     </row>
-    <row r="151" spans="1:11" ht="13.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:11" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" s="102">
         <v>145</v>
       </c>
@@ -6051,7 +6051,7 @@
         <v/>
       </c>
     </row>
-    <row r="152" spans="1:11" ht="13.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:11" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" s="102">
         <v>146</v>
       </c>
@@ -6082,7 +6082,7 @@
         <v/>
       </c>
     </row>
-    <row r="153" spans="1:11" ht="13.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="153" spans="1:11" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" s="102">
         <v>147</v>
       </c>
@@ -6113,7 +6113,7 @@
         <v/>
       </c>
     </row>
-    <row r="154" spans="1:11" ht="13.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="154" spans="1:11" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" s="102">
         <v>148</v>
       </c>
@@ -6144,7 +6144,7 @@
         <v/>
       </c>
     </row>
-    <row r="155" spans="1:11" ht="13.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="155" spans="1:11" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155" s="102">
         <v>149</v>
       </c>
@@ -6175,7 +6175,7 @@
         <v/>
       </c>
     </row>
-    <row r="156" spans="1:11" ht="13.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="156" spans="1:11" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156" s="102">
         <v>150</v>
       </c>
@@ -6206,7 +6206,7 @@
         <v/>
       </c>
     </row>
-    <row r="157" spans="1:11" ht="13.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="157" spans="1:11" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A157" s="102">
         <v>151</v>
       </c>
@@ -6237,7 +6237,7 @@
         <v/>
       </c>
     </row>
-    <row r="158" spans="1:11" ht="13.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="158" spans="1:11" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A158" s="102">
         <v>152</v>
       </c>
@@ -6268,7 +6268,7 @@
         <v/>
       </c>
     </row>
-    <row r="159" spans="1:11" ht="13.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:11" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A159" s="102">
         <v>153</v>
       </c>
@@ -6299,7 +6299,7 @@
         <v/>
       </c>
     </row>
-    <row r="160" spans="1:11" ht="13.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="160" spans="1:11" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" s="102">
         <v>154</v>
       </c>
@@ -6330,7 +6330,7 @@
         <v/>
       </c>
     </row>
-    <row r="161" spans="1:11" ht="13.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="161" spans="1:11" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161" s="102">
         <v>155</v>
       </c>
@@ -6361,7 +6361,7 @@
         <v/>
       </c>
     </row>
-    <row r="162" spans="1:11" s="2" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="162" spans="1:11" s="2" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A162" s="102">
         <v>156</v>
       </c>
@@ -6393,7 +6393,7 @@
         <v/>
       </c>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A163" s="102">
         <v>157</v>
       </c>
@@ -6424,7 +6424,7 @@
         <v/>
       </c>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A164" s="102">
         <v>450</v>
       </c>
@@ -6446,7 +6446,7 @@
       </c>
       <c r="K164" s="111"/>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A165" s="103">
         <v>451</v>
       </c>
@@ -6466,7 +6466,7 @@
       </c>
       <c r="K165" s="111"/>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A166" s="102">
         <v>452</v>
       </c>
@@ -6486,7 +6486,7 @@
       </c>
       <c r="K166" s="111"/>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A167" s="103">
         <v>453</v>
       </c>
@@ -6514,7 +6514,7 @@
       </c>
       <c r="K167" s="16"/>
     </row>
-    <row r="168" spans="1:11" s="75" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="168" spans="1:11" s="75" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A168" s="102">
         <v>454</v>
       </c>
@@ -6532,7 +6532,7 @@
       <c r="J168" s="96"/>
       <c r="K168" s="91"/>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A169" s="103">
         <v>455</v>
       </c>
@@ -6552,7 +6552,7 @@
       </c>
       <c r="K169" s="16"/>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A170" s="102">
         <v>456</v>
       </c>
@@ -6572,7 +6572,7 @@
       </c>
       <c r="K170" s="16"/>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A171" s="103">
         <v>457</v>
       </c>
@@ -6592,7 +6592,7 @@
       </c>
       <c r="K171" s="16"/>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A172" s="102">
         <v>458</v>
       </c>
@@ -6620,7 +6620,7 @@
       </c>
       <c r="K172" s="16"/>
     </row>
-    <row r="173" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="173" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A173" s="103">
         <v>459</v>
       </c>
@@ -6638,7 +6638,7 @@
       <c r="J173" s="58"/>
       <c r="K173" s="16"/>
     </row>
-    <row r="174" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="174" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A174" s="102">
         <v>460</v>
       </c>
@@ -6667,7 +6667,7 @@
       </c>
       <c r="K174" s="16"/>
     </row>
-    <row r="175" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="175" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A175" s="103">
         <v>461</v>
       </c>
@@ -6684,7 +6684,7 @@
       <c r="J175" s="75"/>
       <c r="K175" s="91"/>
     </row>
-    <row r="176" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="176" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A176" s="102">
         <v>462</v>
       </c>
@@ -6701,7 +6701,7 @@
       <c r="J176" s="75"/>
       <c r="K176" s="91"/>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A177" s="103">
         <v>463</v>
       </c>
@@ -6719,7 +6719,7 @@
       <c r="J177" s="109"/>
       <c r="K177"/>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A178" s="102">
         <v>464</v>
       </c>
@@ -6737,7 +6737,7 @@
       <c r="J178" s="109"/>
       <c r="K178"/>
     </row>
-    <row r="179" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:11" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A179" s="103">
         <v>465</v>
       </c>
@@ -6755,7 +6755,7 @@
       <c r="J179" s="109"/>
       <c r="K179"/>
     </row>
-    <row r="180" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:11" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A180" s="102">
         <v>466</v>
       </c>
@@ -6780,7 +6780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A181" s="103">
         <v>467</v>
       </c>
@@ -6810,7 +6810,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A182" s="102">
         <v>468</v>
       </c>
@@ -6832,7 +6832,7 @@
       </c>
       <c r="K182" s="21"/>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A183" s="103">
         <v>469</v>
       </c>
@@ -6858,7 +6858,7 @@
       </c>
       <c r="K183" s="21"/>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A184" s="102">
         <v>470</v>
       </c>
@@ -6880,7 +6880,7 @@
       </c>
       <c r="K184" s="21"/>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A185" s="103">
         <v>471</v>
       </c>
@@ -6902,7 +6902,7 @@
       </c>
       <c r="K185" s="21"/>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A186" s="102">
         <v>472</v>
       </c>
@@ -6924,7 +6924,7 @@
       </c>
       <c r="K186" s="21"/>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A187" s="103">
         <v>473</v>
       </c>
@@ -6948,7 +6948,7 @@
       </c>
       <c r="K187" s="21"/>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A188" s="102">
         <v>474</v>
       </c>
@@ -6970,7 +6970,7 @@
       </c>
       <c r="K188" s="21"/>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A189" s="103">
         <v>475</v>
       </c>
@@ -6992,7 +6992,7 @@
       </c>
       <c r="K189" s="21"/>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A190" s="102">
         <v>476</v>
       </c>
@@ -7014,7 +7014,7 @@
       </c>
       <c r="K190" s="21"/>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A191" s="103">
         <v>477</v>
       </c>
@@ -7036,7 +7036,7 @@
       </c>
       <c r="K191" s="21"/>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A192" s="102">
         <v>478</v>
       </c>
@@ -7060,7 +7060,7 @@
       </c>
       <c r="K192" s="21"/>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A193" s="103">
         <v>479</v>
       </c>
@@ -7082,7 +7082,7 @@
       </c>
       <c r="K193" s="21"/>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A194" s="102">
         <v>480</v>
       </c>
@@ -7104,7 +7104,7 @@
       </c>
       <c r="K194" s="21"/>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A195" s="103">
         <v>481</v>
       </c>
@@ -7126,7 +7126,7 @@
       </c>
       <c r="K195" s="21"/>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A196" s="102">
         <v>482</v>
       </c>
@@ -7148,7 +7148,7 @@
       </c>
       <c r="K196" s="21"/>
     </row>
-    <row r="197" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="197" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A197" s="103">
         <v>483</v>
       </c>
@@ -7175,7 +7175,7 @@
       </c>
       <c r="K197" s="3"/>
     </row>
-    <row r="198" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="198" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A198" s="102">
         <v>484</v>
       </c>
@@ -7208,7 +7208,7 @@
       </c>
       <c r="K198" s="3"/>
     </row>
-    <row r="199" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="199" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A199" s="103">
         <v>485</v>
       </c>
@@ -7241,7 +7241,7 @@
       </c>
       <c r="K199" s="3"/>
     </row>
-    <row r="200" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="200" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A200" s="102">
         <v>486</v>
       </c>
@@ -7272,7 +7272,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="201" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="201" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A201" s="103">
         <v>487</v>
       </c>
@@ -7303,7 +7303,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="202" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="202" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A202" s="102">
         <v>488</v>
       </c>
@@ -7328,7 +7328,7 @@
       </c>
       <c r="K202" s="3"/>
     </row>
-    <row r="203" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="203" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A203" s="103">
         <v>489</v>
       </c>
@@ -7359,7 +7359,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="204" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="204" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A204" s="102">
         <v>490</v>
       </c>
@@ -7382,7 +7382,7 @@
       </c>
       <c r="K204" s="3"/>
     </row>
-    <row r="205" spans="1:11" s="2" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:11" s="2" customFormat="1" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A205" s="103">
         <v>491</v>
       </c>
@@ -7404,7 +7404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:11" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A206" s="102">
         <v>492</v>
       </c>
@@ -7429,7 +7429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A207" s="103">
         <v>493</v>
       </c>
@@ -7445,7 +7445,7 @@
       <c r="I207" s="73"/>
       <c r="J207" s="73"/>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A208" s="102">
         <v>494</v>
       </c>
@@ -7461,7 +7461,7 @@
       <c r="I208" s="144"/>
       <c r="J208" s="144"/>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A209" s="103">
         <v>495</v>
       </c>
@@ -7486,7 +7486,7 @@
       </c>
       <c r="K209" s="55"/>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A210" s="102">
         <v>496</v>
       </c>
@@ -7510,7 +7510,7 @@
       </c>
       <c r="K210" s="65"/>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A211" s="103">
         <v>497</v>
       </c>
@@ -7534,7 +7534,7 @@
       </c>
       <c r="K211" s="66"/>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A212" s="102">
         <v>498</v>
       </c>
@@ -7558,7 +7558,7 @@
       </c>
       <c r="K212" s="66"/>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A213" s="103">
         <v>499</v>
       </c>
@@ -7582,7 +7582,7 @@
       </c>
       <c r="K213" s="66"/>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A214" s="102">
         <v>500</v>
       </c>
@@ -7606,7 +7606,7 @@
       </c>
       <c r="K214" s="55"/>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A215" s="103">
         <v>501</v>
       </c>
@@ -7633,7 +7633,7 @@
       </c>
       <c r="K215" s="55"/>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A216" s="102">
         <v>502</v>
       </c>
@@ -7658,7 +7658,7 @@
       </c>
       <c r="K216" s="55"/>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A217" s="103">
         <v>503</v>
       </c>
@@ -7682,7 +7682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A218" s="102">
         <v>504</v>
       </c>
@@ -7707,7 +7707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A219" s="103">
         <v>505</v>
       </c>
@@ -7719,7 +7719,7 @@
       <c r="I219" s="73"/>
       <c r="J219" s="73"/>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A220" s="102">
         <v>506</v>
       </c>
@@ -7732,7 +7732,7 @@
       <c r="I220" s="73"/>
       <c r="J220" s="73"/>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A221" s="103">
         <v>507</v>
       </c>
@@ -7745,7 +7745,7 @@
       <c r="I221" s="73"/>
       <c r="J221" s="73"/>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A222" s="102">
         <v>508</v>
       </c>
@@ -7761,7 +7761,7 @@
       <c r="I222" s="4"/>
       <c r="J222" s="73"/>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A223" s="103">
         <v>509</v>
       </c>
@@ -7771,19 +7771,19 @@
       <c r="E223" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="F223" s="154" t="s">
+      <c r="F223" s="159" t="s">
         <v>40</v>
       </c>
-      <c r="G223" s="155"/>
-      <c r="H223" s="154" t="s">
+      <c r="G223" s="160"/>
+      <c r="H223" s="159" t="s">
         <v>41</v>
       </c>
-      <c r="I223" s="161"/>
+      <c r="I223" s="163"/>
       <c r="J223" s="93" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A224" s="102">
         <v>510</v>
       </c>
@@ -7791,13 +7791,13 @@
         <v>1</v>
       </c>
       <c r="E224" s="94"/>
-      <c r="F224" s="159"/>
-      <c r="G224" s="160"/>
-      <c r="H224" s="162"/>
-      <c r="I224" s="163"/>
+      <c r="F224" s="161"/>
+      <c r="G224" s="162"/>
+      <c r="H224" s="164"/>
+      <c r="I224" s="165"/>
       <c r="J224" s="20"/>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A225" s="103">
         <v>511</v>
       </c>
@@ -7805,13 +7805,13 @@
         <v>1</v>
       </c>
       <c r="E225" s="94"/>
-      <c r="F225" s="154"/>
-      <c r="G225" s="161"/>
-      <c r="H225" s="162"/>
-      <c r="I225" s="163"/>
+      <c r="F225" s="159"/>
+      <c r="G225" s="163"/>
+      <c r="H225" s="164"/>
+      <c r="I225" s="165"/>
       <c r="J225" s="20"/>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A226" s="102">
         <v>512</v>
       </c>
@@ -7819,13 +7819,13 @@
         <v>1</v>
       </c>
       <c r="E226" s="94"/>
-      <c r="F226" s="154"/>
-      <c r="G226" s="161"/>
-      <c r="H226" s="162"/>
-      <c r="I226" s="163"/>
+      <c r="F226" s="159"/>
+      <c r="G226" s="163"/>
+      <c r="H226" s="164"/>
+      <c r="I226" s="165"/>
       <c r="J226" s="20"/>
     </row>
-    <row r="227" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="227" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A227" s="103">
         <v>513</v>
       </c>
@@ -7840,7 +7840,7 @@
       <c r="J227"/>
       <c r="K227" s="92"/>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A228" s="102">
         <v>514</v>
       </c>
@@ -7855,7 +7855,7 @@
       <c r="I228" s="73"/>
       <c r="J228" s="73"/>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A229" s="103">
         <v>515</v>
       </c>
@@ -7863,8 +7863,8 @@
         <f>IF(OR($H229="",$H229=0),"",1)</f>
         <v/>
       </c>
-      <c r="E229" s="151"/>
-      <c r="F229" s="152"/>
+      <c r="E229" s="156"/>
+      <c r="F229" s="157"/>
       <c r="G229" s="125"/>
       <c r="H229" s="126"/>
       <c r="I229" s="126">
@@ -7876,7 +7876,7 @@
       </c>
       <c r="K229"/>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A230" s="102">
         <v>516</v>
       </c>
@@ -7884,8 +7884,8 @@
         <f>IF(OR($H230="",$H230=0),"",1)</f>
         <v/>
       </c>
-      <c r="E230" s="151"/>
-      <c r="F230" s="152"/>
+      <c r="E230" s="156"/>
+      <c r="F230" s="157"/>
       <c r="G230" s="125"/>
       <c r="H230" s="126"/>
       <c r="I230" s="126">
@@ -7897,7 +7897,7 @@
       </c>
       <c r="K230"/>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A231" s="103">
         <v>517</v>
       </c>
@@ -7905,8 +7905,8 @@
         <f>IF(OR($H231="",$H231=0),"",1)</f>
         <v/>
       </c>
-      <c r="E231" s="151"/>
-      <c r="F231" s="152"/>
+      <c r="E231" s="156"/>
+      <c r="F231" s="157"/>
       <c r="G231" s="125"/>
       <c r="H231" s="126"/>
       <c r="I231" s="126">
@@ -7918,7 +7918,7 @@
       </c>
       <c r="K231"/>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A232" s="102">
         <v>518</v>
       </c>
@@ -7926,8 +7926,8 @@
         <f>IF(OR($H232="",$H232=0),"",1)</f>
         <v/>
       </c>
-      <c r="E232" s="151"/>
-      <c r="F232" s="152"/>
+      <c r="E232" s="156"/>
+      <c r="F232" s="157"/>
       <c r="G232" s="125"/>
       <c r="H232" s="126"/>
       <c r="I232" s="126">
@@ -7939,7 +7939,7 @@
       </c>
       <c r="K232"/>
     </row>
-    <row r="233" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="233" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A233" s="104">
         <v>519</v>
       </c>
@@ -7968,7 +7968,7 @@
       </c>
       <c r="K233" s="17"/>
     </row>
-    <row r="234" spans="1:11" s="73" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="234" spans="1:11" s="73" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A234" s="103" t="s">
         <v>51</v>
       </c>
@@ -7979,7 +7979,7 @@
       <c r="G234" s="84"/>
       <c r="K234" s="74"/>
     </row>
-    <row r="235" spans="1:11" s="73" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="235" spans="1:11" s="73" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A235" s="103" t="s">
         <v>51</v>
       </c>
@@ -7990,7 +7990,7 @@
       <c r="G235" s="84"/>
       <c r="K235" s="74"/>
     </row>
-    <row r="236" spans="1:11" s="73" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="236" spans="1:11" s="73" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A236" s="103" t="s">
         <v>51</v>
       </c>
@@ -8000,45 +8000,45 @@
       <c r="F236" s="80"/>
       <c r="G236" s="84"/>
     </row>
-    <row r="237" spans="1:11" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="237" spans="1:11" ht="19.2" x14ac:dyDescent="0.2">
       <c r="A237" s="103" t="s">
         <v>51</v>
       </c>
       <c r="B237" s="99">
         <v>9</v>
       </c>
-      <c r="D237" s="165">
+      <c r="D237" s="155">
         <f>$D$1</f>
         <v>43738</v>
       </c>
-      <c r="E237" s="165"/>
-      <c r="F237" s="165"/>
-      <c r="G237" s="165"/>
-      <c r="H237" s="165"/>
-      <c r="I237" s="165"/>
-      <c r="J237" s="165"/>
-      <c r="K237" s="165"/>
-    </row>
-    <row r="238" spans="1:11" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="E237" s="155"/>
+      <c r="F237" s="155"/>
+      <c r="G237" s="155"/>
+      <c r="H237" s="155"/>
+      <c r="I237" s="155"/>
+      <c r="J237" s="155"/>
+      <c r="K237" s="155"/>
+    </row>
+    <row r="238" spans="1:11" ht="19.2" x14ac:dyDescent="0.25">
       <c r="A238" s="103" t="s">
         <v>51</v>
       </c>
       <c r="B238" s="99">
         <v>9</v>
       </c>
-      <c r="D238" s="157">
+      <c r="D238" s="152">
         <f>$D237+15</f>
         <v>43753</v>
       </c>
-      <c r="E238" s="158"/>
-      <c r="F238" s="158"/>
-      <c r="G238" s="158"/>
-      <c r="H238" s="158"/>
-      <c r="I238" s="158"/>
-      <c r="J238" s="158"/>
+      <c r="E238" s="153"/>
+      <c r="F238" s="153"/>
+      <c r="G238" s="153"/>
+      <c r="H238" s="153"/>
+      <c r="I238" s="153"/>
+      <c r="J238" s="153"/>
       <c r="K238" s="26"/>
     </row>
-    <row r="239" spans="1:11" s="73" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="239" spans="1:11" s="73" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A239" s="103" t="s">
         <v>51</v>
       </c>
@@ -8051,7 +8051,7 @@
       <c r="G239" s="84"/>
       <c r="K239" s="74"/>
     </row>
-    <row r="240" spans="1:11" s="73" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="240" spans="1:11" s="73" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A240" s="103" t="s">
         <v>51</v>
       </c>
@@ -8059,10 +8059,10 @@
         <v>9</v>
       </c>
       <c r="C240" s="79"/>
-      <c r="D240" s="156" t="s">
+      <c r="D240" s="154" t="s">
         <v>24</v>
       </c>
-      <c r="E240" s="156"/>
+      <c r="E240" s="154"/>
       <c r="F240" s="77"/>
       <c r="G240" s="79" t="s">
         <v>0</v>
@@ -8078,7 +8078,7 @@
       </c>
       <c r="K240" s="76"/>
     </row>
-    <row r="241" spans="1:11" s="73" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="241" spans="1:11" s="73" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A241" s="103" t="s">
         <v>51</v>
       </c>
@@ -8105,7 +8105,7 @@
       </c>
       <c r="K241" s="76"/>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A242" s="102">
         <v>1</v>
       </c>
@@ -8128,7 +8128,7 @@
         <v/>
       </c>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A243" s="103">
         <v>2</v>
       </c>
@@ -8151,7 +8151,7 @@
         <v/>
       </c>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A244" s="102">
         <v>3</v>
       </c>
@@ -8174,7 +8174,7 @@
         <v/>
       </c>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A245" s="103">
         <v>4</v>
       </c>
@@ -8197,7 +8197,7 @@
         <v/>
       </c>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A246" s="102">
         <v>5</v>
       </c>
@@ -8220,7 +8220,7 @@
         <v/>
       </c>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A247" s="103">
         <v>6</v>
       </c>
@@ -8243,7 +8243,7 @@
         <v/>
       </c>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A248" s="102">
         <v>7</v>
       </c>
@@ -8266,7 +8266,7 @@
         <v/>
       </c>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A249" s="103">
         <v>8</v>
       </c>
@@ -8289,7 +8289,7 @@
         <v/>
       </c>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A250" s="102">
         <v>9</v>
       </c>
@@ -8320,7 +8320,7 @@
         <v/>
       </c>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A251" s="103">
         <v>10</v>
       </c>
@@ -8351,7 +8351,7 @@
         <v/>
       </c>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A252" s="102">
         <v>11</v>
       </c>
@@ -8382,7 +8382,7 @@
         <v/>
       </c>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A253" s="103">
         <v>12</v>
       </c>
@@ -8413,7 +8413,7 @@
         <v/>
       </c>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A254" s="102">
         <v>13</v>
       </c>
@@ -8444,7 +8444,7 @@
         <v/>
       </c>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A255" s="103">
         <v>14</v>
       </c>
@@ -8475,7 +8475,7 @@
         <v/>
       </c>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A256" s="102">
         <v>15</v>
       </c>
@@ -8506,7 +8506,7 @@
         <v/>
       </c>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A257" s="103">
         <v>16</v>
       </c>
@@ -8537,7 +8537,7 @@
         <v/>
       </c>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A258" s="102">
         <v>17</v>
       </c>
@@ -8568,7 +8568,7 @@
         <v/>
       </c>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A259" s="103">
         <v>18</v>
       </c>
@@ -8599,7 +8599,7 @@
         <v/>
       </c>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A260" s="102">
         <v>19</v>
       </c>
@@ -8630,7 +8630,7 @@
         <v/>
       </c>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A261" s="103">
         <v>20</v>
       </c>
@@ -8661,7 +8661,7 @@
         <v/>
       </c>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A262" s="102">
         <v>21</v>
       </c>
@@ -8692,7 +8692,7 @@
         <v/>
       </c>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A263" s="103">
         <v>22</v>
       </c>
@@ -8723,7 +8723,7 @@
         <v/>
       </c>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A264" s="102">
         <v>23</v>
       </c>
@@ -8754,7 +8754,7 @@
         <v/>
       </c>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A265" s="103">
         <v>24</v>
       </c>
@@ -8785,7 +8785,7 @@
         <v/>
       </c>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A266" s="102">
         <v>25</v>
       </c>
@@ -8816,7 +8816,7 @@
         <v/>
       </c>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A267" s="103">
         <v>26</v>
       </c>
@@ -8847,7 +8847,7 @@
         <v/>
       </c>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A268" s="102">
         <v>27</v>
       </c>
@@ -8878,7 +8878,7 @@
         <v/>
       </c>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A269" s="103">
         <v>28</v>
       </c>
@@ -8909,7 +8909,7 @@
         <v/>
       </c>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A270" s="102">
         <v>29</v>
       </c>
@@ -8940,7 +8940,7 @@
         <v/>
       </c>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A271" s="103">
         <v>30</v>
       </c>
@@ -8971,7 +8971,7 @@
         <v/>
       </c>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A272" s="102">
         <v>31</v>
       </c>
@@ -9002,7 +9002,7 @@
         <v/>
       </c>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A273" s="103">
         <v>450</v>
       </c>
@@ -9030,7 +9030,7 @@
       </c>
       <c r="K273" s="16"/>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A274" s="102">
         <v>451</v>
       </c>
@@ -9046,7 +9046,7 @@
       <c r="J274" s="75"/>
       <c r="K274" s="16"/>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A275" s="103">
         <v>452</v>
       </c>
@@ -9062,7 +9062,7 @@
       <c r="J275" s="75"/>
       <c r="K275" s="16"/>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A276" s="102">
         <v>453</v>
       </c>
@@ -9080,7 +9080,7 @@
       <c r="J276" s="128"/>
       <c r="K276"/>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A277" s="103">
         <v>454</v>
       </c>
@@ -9098,7 +9098,7 @@
       <c r="J277" s="128"/>
       <c r="K277"/>
     </row>
-    <row r="278" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:11" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A278" s="102">
         <v>455</v>
       </c>
@@ -9116,7 +9116,7 @@
       <c r="J278" s="128"/>
       <c r="K278"/>
     </row>
-    <row r="279" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:11" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A279" s="103">
         <v>456</v>
       </c>
@@ -9143,7 +9143,7 @@
       </c>
       <c r="K279" s="26"/>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A280" s="102">
         <v>457</v>
       </c>
@@ -9167,7 +9167,7 @@
       </c>
       <c r="K280" s="3"/>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A281" s="103">
         <v>458</v>
       </c>
@@ -9189,7 +9189,7 @@
       </c>
       <c r="K281" s="26"/>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A282" s="102">
         <v>459</v>
       </c>
@@ -9213,7 +9213,7 @@
       </c>
       <c r="K282" s="26"/>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A283" s="103">
         <v>460</v>
       </c>
@@ -9234,7 +9234,7 @@
       </c>
       <c r="K283" s="26"/>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A284" s="103">
         <v>461</v>
       </c>
@@ -9256,7 +9256,7 @@
       </c>
       <c r="K284" s="26"/>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A285" s="102">
         <v>462</v>
       </c>
@@ -9280,7 +9280,7 @@
       </c>
       <c r="K285" s="26"/>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A286" s="103">
         <v>463</v>
       </c>
@@ -9302,7 +9302,7 @@
       </c>
       <c r="K286" s="26"/>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A287" s="102">
         <v>464</v>
       </c>
@@ -9324,7 +9324,7 @@
       </c>
       <c r="K287" s="26"/>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A288" s="103">
         <v>465</v>
       </c>
@@ -9348,7 +9348,7 @@
       </c>
       <c r="K288" s="26"/>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A289" s="102">
         <v>466</v>
       </c>
@@ -9370,7 +9370,7 @@
       </c>
       <c r="K289" s="26"/>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A290" s="103">
         <v>467</v>
       </c>
@@ -9392,7 +9392,7 @@
       </c>
       <c r="K290" s="26"/>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A291" s="102">
         <v>468</v>
       </c>
@@ -9416,7 +9416,7 @@
       </c>
       <c r="K291" s="26"/>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A292" s="103">
         <v>469</v>
       </c>
@@ -9440,7 +9440,7 @@
       </c>
       <c r="K292" s="26"/>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A293" s="102">
         <v>470</v>
       </c>
@@ -9462,7 +9462,7 @@
       </c>
       <c r="K293" s="3"/>
     </row>
-    <row r="294" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:11" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A294" s="103">
         <v>471</v>
       </c>
@@ -9484,7 +9484,7 @@
       </c>
       <c r="K294" s="2"/>
     </row>
-    <row r="295" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:11" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A295" s="103">
         <v>472</v>
       </c>
@@ -9511,7 +9511,7 @@
       </c>
       <c r="K295" s="26"/>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A296" s="102">
         <v>473</v>
       </c>
@@ -9528,7 +9528,7 @@
       <c r="J296" s="73"/>
       <c r="K296" s="26"/>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A297" s="103">
         <v>474</v>
       </c>
@@ -9545,7 +9545,7 @@
       <c r="J297" s="73"/>
       <c r="K297" s="26"/>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A298" s="102">
         <v>475</v>
       </c>
@@ -9570,7 +9570,7 @@
       </c>
       <c r="K298" s="55"/>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A299" s="103">
         <v>476</v>
       </c>
@@ -9593,7 +9593,7 @@
       </c>
       <c r="K299" s="66"/>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A300" s="102">
         <v>477</v>
       </c>
@@ -9616,7 +9616,7 @@
       </c>
       <c r="K300" s="66"/>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A301" s="103">
         <v>478</v>
       </c>
@@ -9639,7 +9639,7 @@
       </c>
       <c r="K301" s="66"/>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A302" s="102">
         <v>479</v>
       </c>
@@ -9662,7 +9662,7 @@
       </c>
       <c r="K302" s="66"/>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A303" s="103">
         <v>480</v>
       </c>
@@ -9685,7 +9685,7 @@
       </c>
       <c r="K303" s="55"/>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A304" s="102">
         <v>481</v>
       </c>
@@ -9711,7 +9711,7 @@
       </c>
       <c r="K304" s="55"/>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A305" s="103">
         <v>482</v>
       </c>
@@ -9735,7 +9735,7 @@
       </c>
       <c r="K305" s="26"/>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A306" s="102">
         <v>483</v>
       </c>
@@ -9759,7 +9759,7 @@
       </c>
       <c r="K306" s="26"/>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A307" s="103">
         <v>484</v>
       </c>
@@ -9784,7 +9784,7 @@
       </c>
       <c r="K307" s="26"/>
     </row>
-    <row r="308" spans="1:11" s="73" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="308" spans="1:11" s="73" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A308" s="103" t="s">
         <v>51</v>
       </c>
@@ -9794,7 +9794,7 @@
       <c r="F308" s="80"/>
       <c r="G308" s="84"/>
     </row>
-    <row r="309" spans="1:11" s="73" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="309" spans="1:11" s="73" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A309" s="103" t="s">
         <v>51</v>
       </c>
@@ -9804,7 +9804,7 @@
       <c r="F309" s="80"/>
       <c r="G309" s="84"/>
     </row>
-    <row r="310" spans="1:11" s="73" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="310" spans="1:11" s="73" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A310" s="103" t="s">
         <v>51</v>
       </c>
@@ -9814,45 +9814,45 @@
       <c r="F310" s="80"/>
       <c r="G310" s="84"/>
     </row>
-    <row r="311" spans="1:11" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="311" spans="1:11" ht="19.2" x14ac:dyDescent="0.2">
       <c r="A311" s="103" t="s">
         <v>51</v>
       </c>
       <c r="B311" s="99">
         <v>9</v>
       </c>
-      <c r="D311" s="164">
+      <c r="D311" s="151">
         <f>$D$1</f>
         <v>43738</v>
       </c>
-      <c r="E311" s="164"/>
-      <c r="F311" s="164"/>
-      <c r="G311" s="164"/>
-      <c r="H311" s="164"/>
-      <c r="I311" s="164"/>
-      <c r="J311" s="164"/>
-      <c r="K311" s="164"/>
-    </row>
-    <row r="312" spans="1:11" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="E311" s="151"/>
+      <c r="F311" s="151"/>
+      <c r="G311" s="151"/>
+      <c r="H311" s="151"/>
+      <c r="I311" s="151"/>
+      <c r="J311" s="151"/>
+      <c r="K311" s="151"/>
+    </row>
+    <row r="312" spans="1:11" ht="19.2" x14ac:dyDescent="0.25">
       <c r="A312" s="103" t="s">
         <v>51</v>
       </c>
       <c r="B312" s="99">
         <v>9</v>
       </c>
-      <c r="D312" s="157">
+      <c r="D312" s="152">
         <f>$D311+15</f>
         <v>43753</v>
       </c>
-      <c r="E312" s="158"/>
-      <c r="F312" s="158"/>
-      <c r="G312" s="158"/>
-      <c r="H312" s="158"/>
-      <c r="I312" s="158"/>
-      <c r="J312" s="158"/>
+      <c r="E312" s="153"/>
+      <c r="F312" s="153"/>
+      <c r="G312" s="153"/>
+      <c r="H312" s="153"/>
+      <c r="I312" s="153"/>
+      <c r="J312" s="153"/>
       <c r="K312" s="26"/>
     </row>
-    <row r="313" spans="1:11" s="73" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="313" spans="1:11" s="73" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A313" s="103" t="s">
         <v>51</v>
       </c>
@@ -9865,7 +9865,7 @@
       <c r="G313" s="84"/>
       <c r="K313" s="74"/>
     </row>
-    <row r="314" spans="1:11" s="73" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="314" spans="1:11" s="73" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A314" s="103" t="s">
         <v>51</v>
       </c>
@@ -9873,10 +9873,10 @@
         <v>9</v>
       </c>
       <c r="C314" s="79"/>
-      <c r="D314" s="156" t="s">
+      <c r="D314" s="154" t="s">
         <v>24</v>
       </c>
-      <c r="E314" s="156"/>
+      <c r="E314" s="154"/>
       <c r="F314" s="77"/>
       <c r="G314" s="79" t="s">
         <v>0</v>
@@ -9892,7 +9892,7 @@
       </c>
       <c r="K314" s="76"/>
     </row>
-    <row r="315" spans="1:11" s="73" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="315" spans="1:11" s="73" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A315" s="103" t="s">
         <v>51</v>
       </c>
@@ -9919,7 +9919,7 @@
       </c>
       <c r="K315" s="76"/>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A316" s="102">
         <v>1</v>
       </c>
@@ -9942,7 +9942,7 @@
         <v/>
       </c>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A317" s="103">
         <v>2</v>
       </c>
@@ -9965,7 +9965,7 @@
         <v/>
       </c>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A318" s="102">
         <v>3</v>
       </c>
@@ -9988,7 +9988,7 @@
         <v/>
       </c>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A319" s="103">
         <v>4</v>
       </c>
@@ -10011,7 +10011,7 @@
         <v/>
       </c>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A320" s="102">
         <v>5</v>
       </c>
@@ -10036,7 +10036,7 @@
         <v/>
       </c>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A321" s="103">
         <v>6</v>
       </c>
@@ -10061,7 +10061,7 @@
         <v/>
       </c>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A322" s="102">
         <v>7</v>
       </c>
@@ -10092,7 +10092,7 @@
         <v/>
       </c>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A323" s="103">
         <v>8</v>
       </c>
@@ -10123,7 +10123,7 @@
         <v/>
       </c>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A324" s="102">
         <v>9</v>
       </c>
@@ -10154,7 +10154,7 @@
         <v/>
       </c>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A325" s="103">
         <v>10</v>
       </c>
@@ -10185,7 +10185,7 @@
         <v/>
       </c>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A326" s="102">
         <v>11</v>
       </c>
@@ -10216,7 +10216,7 @@
         <v/>
       </c>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A327" s="103">
         <v>12</v>
       </c>
@@ -10247,7 +10247,7 @@
         <v/>
       </c>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A328" s="102">
         <v>13</v>
       </c>
@@ -10278,7 +10278,7 @@
         <v/>
       </c>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A329" s="103">
         <v>14</v>
       </c>
@@ -10309,7 +10309,7 @@
         <v/>
       </c>
     </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A330" s="102">
         <v>15</v>
       </c>
@@ -10340,7 +10340,7 @@
         <v/>
       </c>
     </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A331" s="103">
         <v>16</v>
       </c>
@@ -10371,7 +10371,7 @@
         <v/>
       </c>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A332" s="102">
         <v>17</v>
       </c>
@@ -10402,7 +10402,7 @@
         <v/>
       </c>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="333" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A333" s="103">
         <v>18</v>
       </c>
@@ -10433,7 +10433,7 @@
         <v/>
       </c>
     </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A334" s="102">
         <v>19</v>
       </c>
@@ -10464,7 +10464,7 @@
         <v/>
       </c>
     </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="335" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A335" s="103">
         <v>20</v>
       </c>
@@ -10495,7 +10495,7 @@
         <v/>
       </c>
     </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="336" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A336" s="102">
         <v>21</v>
       </c>
@@ -10526,7 +10526,7 @@
         <v/>
       </c>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A337" s="103">
         <v>22</v>
       </c>
@@ -10557,7 +10557,7 @@
         <v/>
       </c>
     </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A338" s="102">
         <v>23</v>
       </c>
@@ -10588,7 +10588,7 @@
         <v/>
       </c>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A339" s="103">
         <v>24</v>
       </c>
@@ -10619,7 +10619,7 @@
         <v/>
       </c>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A340" s="102">
         <v>25</v>
       </c>
@@ -10650,7 +10650,7 @@
         <v/>
       </c>
     </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="341" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A341" s="103">
         <v>26</v>
       </c>
@@ -10681,7 +10681,7 @@
         <v/>
       </c>
     </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A342" s="102">
         <v>27</v>
       </c>
@@ -10712,7 +10712,7 @@
         <v/>
       </c>
     </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A343" s="103">
         <v>28</v>
       </c>
@@ -10743,7 +10743,7 @@
         <v/>
       </c>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A344" s="102">
         <v>29</v>
       </c>
@@ -10774,7 +10774,7 @@
         <v/>
       </c>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A345" s="103">
         <v>30</v>
       </c>
@@ -10805,7 +10805,7 @@
         <v/>
       </c>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A346" s="102">
         <v>31</v>
       </c>
@@ -10836,7 +10836,7 @@
         <v/>
       </c>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="347" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A347" s="103">
         <v>450</v>
       </c>
@@ -10864,7 +10864,7 @@
       </c>
       <c r="K347" s="16"/>
     </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="348" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A348" s="102">
         <v>451</v>
       </c>
@@ -10880,7 +10880,7 @@
       <c r="J348" s="75"/>
       <c r="K348" s="16"/>
     </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="349" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A349" s="103">
         <v>452</v>
       </c>
@@ -10896,7 +10896,7 @@
       <c r="J349" s="75"/>
       <c r="K349" s="16"/>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="350" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A350" s="102">
         <v>453</v>
       </c>
@@ -10915,7 +10915,7 @@
       <c r="J350" s="128"/>
       <c r="K350"/>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A351" s="103">
         <v>454</v>
       </c>
@@ -10934,7 +10934,7 @@
       <c r="J351" s="128"/>
       <c r="K351"/>
     </row>
-    <row r="352" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:11" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A352" s="102">
         <v>455</v>
       </c>
@@ -10953,7 +10953,7 @@
       <c r="J352" s="128"/>
       <c r="K352"/>
     </row>
-    <row r="353" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:11" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A353" s="103">
         <v>456</v>
       </c>
@@ -10981,7 +10981,7 @@
       </c>
       <c r="K353" s="26"/>
     </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="354" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A354" s="102">
         <v>457</v>
       </c>
@@ -11005,7 +11005,7 @@
       </c>
       <c r="K354" s="3"/>
     </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="355" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A355" s="103">
         <v>458</v>
       </c>
@@ -11027,7 +11027,7 @@
       </c>
       <c r="K355" s="26"/>
     </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="356" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A356" s="102">
         <v>459</v>
       </c>
@@ -11051,7 +11051,7 @@
       </c>
       <c r="K356" s="26"/>
     </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="357" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A357" s="103">
         <v>460</v>
       </c>
@@ -11073,7 +11073,7 @@
       </c>
       <c r="K357" s="26"/>
     </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="358" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A358" s="103">
         <v>461</v>
       </c>
@@ -11095,7 +11095,7 @@
       </c>
       <c r="K358" s="26"/>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="359" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A359" s="102">
         <v>462</v>
       </c>
@@ -11119,7 +11119,7 @@
       </c>
       <c r="K359" s="26"/>
     </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="360" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A360" s="103">
         <v>463</v>
       </c>
@@ -11141,7 +11141,7 @@
       </c>
       <c r="K360" s="26"/>
     </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="361" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A361" s="102">
         <v>464</v>
       </c>
@@ -11163,7 +11163,7 @@
       </c>
       <c r="K361" s="26"/>
     </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="362" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A362" s="103">
         <v>465</v>
       </c>
@@ -11187,7 +11187,7 @@
       </c>
       <c r="K362" s="26"/>
     </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="363" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A363" s="102">
         <v>466</v>
       </c>
@@ -11209,7 +11209,7 @@
       </c>
       <c r="K363" s="26"/>
     </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="364" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A364" s="103">
         <v>467</v>
       </c>
@@ -11231,7 +11231,7 @@
       </c>
       <c r="K364" s="26"/>
     </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="365" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A365" s="102">
         <v>468</v>
       </c>
@@ -11255,7 +11255,7 @@
       </c>
       <c r="K365" s="3"/>
     </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="366" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A366" s="103">
         <v>469</v>
       </c>
@@ -11279,7 +11279,7 @@
       </c>
       <c r="K366" s="3"/>
     </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="367" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A367" s="102">
         <v>470</v>
       </c>
@@ -11301,7 +11301,7 @@
       </c>
       <c r="K367" s="3"/>
     </row>
-    <row r="368" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:11" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A368" s="103">
         <v>471</v>
       </c>
@@ -11323,7 +11323,7 @@
       </c>
       <c r="K368" s="2"/>
     </row>
-    <row r="369" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:11" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A369" s="103">
         <v>472</v>
       </c>
@@ -11351,7 +11351,7 @@
       </c>
       <c r="K369" s="26"/>
     </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="370" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A370" s="102">
         <v>473</v>
       </c>
@@ -11368,7 +11368,7 @@
       <c r="J370" s="73"/>
       <c r="K370" s="55"/>
     </row>
-    <row r="371" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="371" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A371" s="103">
         <v>474</v>
       </c>
@@ -11385,7 +11385,7 @@
       <c r="J371" s="73"/>
       <c r="K371" s="55"/>
     </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="372" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A372" s="102">
         <v>475</v>
       </c>
@@ -11410,7 +11410,7 @@
       </c>
       <c r="K372" s="55"/>
     </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="373" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A373" s="103">
         <v>476</v>
       </c>
@@ -11434,7 +11434,7 @@
       </c>
       <c r="K373" s="66"/>
     </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="374" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A374" s="102">
         <v>477</v>
       </c>
@@ -11453,12 +11453,12 @@
         <v>0</v>
       </c>
       <c r="J374" s="64">
-        <f t="shared" ref="J373:J381" si="25">H374+I374</f>
+        <f t="shared" ref="J374:J381" si="25">H374+I374</f>
         <v>0</v>
       </c>
       <c r="K374" s="66"/>
     </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="375" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A375" s="103">
         <v>478</v>
       </c>
@@ -11482,7 +11482,7 @@
       </c>
       <c r="K375" s="66"/>
     </row>
-    <row r="376" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="376" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A376" s="102">
         <v>479</v>
       </c>
@@ -11506,7 +11506,7 @@
       </c>
       <c r="K376" s="66"/>
     </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="377" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A377" s="103">
         <v>480</v>
       </c>
@@ -11530,7 +11530,7 @@
       </c>
       <c r="K377" s="55"/>
     </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="378" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A378" s="102">
         <v>481</v>
       </c>
@@ -11557,7 +11557,7 @@
       </c>
       <c r="K378" s="55"/>
     </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="379" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A379" s="103">
         <v>482</v>
       </c>
@@ -11582,7 +11582,7 @@
       </c>
       <c r="K379" s="55"/>
     </row>
-    <row r="380" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="380" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A380" s="102">
         <v>483</v>
       </c>
@@ -11607,7 +11607,7 @@
       </c>
       <c r="K380" s="26"/>
     </row>
-    <row r="381" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="381" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A381" s="103">
         <v>484</v>
       </c>
@@ -11633,12 +11633,12 @@
       </c>
       <c r="K381" s="26"/>
     </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="382" spans="1:11" x14ac:dyDescent="0.2">
       <c r="E382" s="27"/>
       <c r="F382" s="27"/>
       <c r="K382"/>
     </row>
-    <row r="383" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="383" spans="1:11" x14ac:dyDescent="0.2">
       <c r="E383" s="27"/>
       <c r="F383" s="27"/>
       <c r="K383"/>
@@ -11647,12 +11647,6 @@
   <autoFilter ref="A6:J381" xr:uid="{00000000-0009-0000-0000-000009000000}"/>
   <dataConsolidate/>
   <mergeCells count="21">
-    <mergeCell ref="D311:K311"/>
-    <mergeCell ref="D312:J312"/>
-    <mergeCell ref="D314:E314"/>
-    <mergeCell ref="D237:K237"/>
-    <mergeCell ref="D238:J238"/>
-    <mergeCell ref="D240:E240"/>
     <mergeCell ref="E230:F230"/>
     <mergeCell ref="E231:F231"/>
     <mergeCell ref="E232:F232"/>
@@ -11668,63 +11662,14 @@
     <mergeCell ref="H224:I224"/>
     <mergeCell ref="H225:I225"/>
     <mergeCell ref="H226:I226"/>
+    <mergeCell ref="D311:K311"/>
+    <mergeCell ref="D312:J312"/>
+    <mergeCell ref="D314:E314"/>
+    <mergeCell ref="D237:K237"/>
+    <mergeCell ref="D238:J238"/>
+    <mergeCell ref="D240:E240"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
-  <conditionalFormatting sqref="G7:G163">
-    <cfRule type="cellIs" dxfId="12" priority="17" stopIfTrue="1" operator="equal">
-      <formula>"小計"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G242:G272">
-    <cfRule type="cellIs" dxfId="11" priority="16" stopIfTrue="1" operator="equal">
-      <formula>"小計"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H273:J273 H242:I272">
-    <cfRule type="expression" dxfId="10" priority="8">
-      <formula>$E242="請求額合計"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="9" priority="15" stopIfTrue="1">
-      <formula>$G242="小計"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G316:G346">
-    <cfRule type="cellIs" dxfId="8" priority="14" stopIfTrue="1" operator="equal">
-      <formula>"小計"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H7:J174">
-    <cfRule type="expression" dxfId="7" priority="10">
-      <formula>$E7="請求額合計"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="6" priority="18" stopIfTrue="1">
-      <formula>$G7="小計"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H347:J347 H316:I346">
-    <cfRule type="expression" dxfId="5" priority="6">
-      <formula>$E316="請求額合計"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="4" priority="7">
-      <formula>$G316="小計"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J242:J272">
-    <cfRule type="expression" dxfId="3" priority="3">
-      <formula>$E242="請求額合計"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="2" priority="4" stopIfTrue="1">
-      <formula>$G242="小計"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J316:J346">
-    <cfRule type="expression" dxfId="1" priority="1">
-      <formula>$E316="請求額合計"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="0" priority="2" stopIfTrue="1">
-      <formula>$G316="小計"</formula>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.70866141732283472" right="0" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.15748031496062992"/>
   <pageSetup paperSize="9" scale="70" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0">

--- a/01_kidsweb/home/kids2/tmp/inv/aggregate.xlsx
+++ b/01_kidsweb/home/kids2/tmp/inv/aggregate.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\solcom\Desktop\Git\KIDS\01_kidsweb\home\kids2\tmp\inv\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\solcom-ad\Desktop\Git\KIDS\01_kidsweb\home\kids2\tmp\inv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFE8E15E-6954-436F-A019-B35B5E61684D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C53053DF-7427-466E-A073-C4D0FEDDBB4C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="813" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="872" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="845" uniqueCount="58">
   <si>
     <t>請求書№</t>
     <rPh sb="0" eb="3">
@@ -64,16 +64,6 @@
   </si>
   <si>
     <t>F</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>カードダス引当金</t>
-    <rPh sb="5" eb="7">
-      <t>ヒキアテ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>キン</t>
-    </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -255,13 +245,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>㈱ﾊﾞﾝｼﾞﾊﾝｴｰｽ商品代</t>
-    <rPh sb="11" eb="14">
-      <t>ショウヒンダイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>来月以降回収予定分</t>
     <rPh sb="0" eb="2">
       <t>ライゲツ</t>
@@ -318,13 +301,6 @@
   </si>
   <si>
     <t>（+）</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>㈱ﾃｨｰｹｰﾎｰﾙﾃﾞｨﾝｸﾞｽ経費</t>
-    <rPh sb="16" eb="18">
-      <t>ケイヒ</t>
-    </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -395,9 +371,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>39-B07059</t>
-  </si>
-  <si>
     <t>39-B06026</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -413,37 +386,6 @@
   </si>
   <si>
     <t>8/15回収予定</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>㈱ファブコミュニケーションズ</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>39-Ｂ07036</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>商標登録料立替分</t>
-    <rPh sb="0" eb="2">
-      <t>ショウヒョウ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>リョウ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>タテカエ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>ブン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>39-B07058</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -491,42 +433,12 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>㈱バンダイ出向者費用</t>
-    <rPh sb="5" eb="8">
-      <t>シュッコウシャ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ヒヨウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>㈱エムアイシー出向者費用</t>
-    <rPh sb="7" eb="10">
-      <t>シュッコウシャ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ヒヨウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>　　　　/　　　　　事業部</t>
     <rPh sb="10" eb="12">
       <t>ジギョウ</t>
     </rPh>
     <rPh sb="12" eb="13">
       <t>ブ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>出向者費用</t>
-    <rPh sb="0" eb="3">
-      <t>シュッコウシャ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ヒヨウ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1099,21 +1011,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="181" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" shrinkToFit="1"/>
     </xf>
@@ -1130,6 +1027,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1141,115 +1045,21 @@
     <xf numFmtId="178" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="181" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="180" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="桁区切り" xfId="1" builtinId="6"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="標準 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
-  <dxfs count="15">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-      </font>
-      <numFmt numFmtId="10" formatCode="&quot;¥&quot;#,##0;[Red]&quot;¥&quot;\-#,##0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <numFmt numFmtId="10" formatCode="&quot;¥&quot;#,##0;[Red]&quot;¥&quot;\-#,##0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-      </font>
-      <numFmt numFmtId="10" formatCode="&quot;¥&quot;#,##0;[Red]&quot;¥&quot;\-#,##0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <numFmt numFmtId="10" formatCode="&quot;¥&quot;#,##0;[Red]&quot;¥&quot;\-#,##0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <numFmt numFmtId="182" formatCode="[$HK$-C04]#,##0.00;[Red]\-[$HK$-C04]#,##0.00"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <numFmt numFmtId="182" formatCode="[$HK$-C04]#,##0.00;[Red]\-[$HK$-C04]#,##0.00"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-      </font>
-      <numFmt numFmtId="10" formatCode="&quot;¥&quot;#,##0;[Red]&quot;¥&quot;\-#,##0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <numFmt numFmtId="10" formatCode="&quot;¥&quot;#,##0;[Red]&quot;¥&quot;\-#,##0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-      </font>
-      <numFmt numFmtId="177" formatCode="&quot;US$&quot;#,##0.00;[Red]\-&quot;US$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <numFmt numFmtId="177" formatCode="&quot;US$&quot;#,##0.00;[Red]\-&quot;US$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-      </font>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <font>
         <b/>
@@ -1275,8 +1085,8 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{4C441D91-1B7A-4625-ACBC-E967B8516CAD}">
-      <tableStyleElement type="wholeTable" dxfId="14"/>
-      <tableStyleElement type="headerRow" dxfId="13"/>
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -1682,8 +1492,8 @@
   <dimension ref="A1:K383"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A201" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O207" sqref="O207"/>
+      <pane ySplit="6" topLeftCell="A330" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E378" sqref="E378:E381"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" outlineLevelRow="1" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
@@ -1702,38 +1512,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D1" s="158">
+      <c r="D1" s="153">
         <v>43738</v>
       </c>
-      <c r="E1" s="158"/>
-      <c r="F1" s="158"/>
-      <c r="G1" s="158"/>
-      <c r="H1" s="158"/>
-      <c r="I1" s="158"/>
-      <c r="J1" s="158"/>
-      <c r="K1" s="158"/>
+      <c r="E1" s="153"/>
+      <c r="F1" s="153"/>
+      <c r="G1" s="153"/>
+      <c r="H1" s="153"/>
+      <c r="I1" s="153"/>
+      <c r="J1" s="153"/>
+      <c r="K1" s="153"/>
     </row>
     <row r="2" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D2" s="152">
+      <c r="D2" s="157">
         <f>$D1+15</f>
         <v>43753</v>
       </c>
-      <c r="E2" s="153"/>
-      <c r="F2" s="153"/>
-      <c r="G2" s="153"/>
-      <c r="H2" s="153"/>
-      <c r="I2" s="153"/>
-      <c r="J2" s="153"/>
+      <c r="E2" s="158"/>
+      <c r="F2" s="158"/>
+      <c r="G2" s="158"/>
+      <c r="H2" s="158"/>
+      <c r="I2" s="158"/>
+      <c r="J2" s="158"/>
     </row>
     <row r="3" spans="1:11" s="77" customFormat="1" ht="12.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A3" s="77" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B3" s="77" t="s">
         <v>4</v>
       </c>
       <c r="C3" s="79" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="D3" s="78" t="s">
         <v>5</v>
@@ -1745,19 +1555,19 @@
         <v>6</v>
       </c>
       <c r="G3" s="77" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="77" t="s">
-        <v>10</v>
-      </c>
       <c r="I3" s="77" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="J3" s="77" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="K3" s="77" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:11" s="77" customFormat="1" ht="12.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1798,21 +1608,21 @@
     <row r="5" spans="1:11" s="77" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="140"/>
       <c r="C5" s="79"/>
-      <c r="D5" s="154" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5" s="154"/>
+      <c r="D5" s="156" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="156"/>
       <c r="G5" s="79" t="s">
         <v>0</v>
       </c>
       <c r="H5" s="77" t="s">
+        <v>10</v>
+      </c>
+      <c r="I5" s="77" t="s">
         <v>11</v>
       </c>
-      <c r="I5" s="77" t="s">
+      <c r="J5" s="77" t="s">
         <v>12</v>
-      </c>
-      <c r="J5" s="77" t="s">
-        <v>13</v>
       </c>
       <c r="K5" s="76"/>
     </row>
@@ -1820,21 +1630,21 @@
       <c r="A6" s="140"/>
       <c r="C6" s="79"/>
       <c r="D6" s="143" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="E6" s="143" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="F6" s="78"/>
       <c r="G6" s="76"/>
       <c r="H6" s="77" t="s">
+        <v>19</v>
+      </c>
+      <c r="I6" s="77" t="s">
         <v>20</v>
       </c>
-      <c r="I6" s="77" t="s">
+      <c r="J6" s="77" t="s">
         <v>21</v>
-      </c>
-      <c r="J6" s="77" t="s">
-        <v>22</v>
       </c>
       <c r="K6" s="142"/>
     </row>
@@ -2676,18 +2486,18 @@
         <v>1</v>
       </c>
       <c r="D43" s="146" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="E43" s="146"/>
       <c r="F43" s="15"/>
       <c r="G43" s="31" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="H43" s="58" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="I43" s="58" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="J43" s="58" t="str">
         <f t="shared" si="0"/>
@@ -2707,18 +2517,18 @@
         <v/>
       </c>
       <c r="D44" s="146" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="E44" s="146"/>
       <c r="F44" s="15"/>
       <c r="G44" s="31" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="H44" s="58" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="I44" s="58" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="J44" s="58" t="str">
         <f t="shared" si="0"/>
@@ -2738,18 +2548,18 @@
         <v/>
       </c>
       <c r="D45" s="146" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="E45" s="146"/>
       <c r="F45" s="15"/>
       <c r="G45" s="31" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="H45" s="58" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="I45" s="58" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="J45" s="58" t="str">
         <f t="shared" si="0"/>
@@ -2769,18 +2579,18 @@
         <v/>
       </c>
       <c r="D46" s="146" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="E46" s="146"/>
       <c r="F46" s="15"/>
       <c r="G46" s="31" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="H46" s="58" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="I46" s="58" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="J46" s="58" t="str">
         <f t="shared" si="0"/>
@@ -2800,18 +2610,18 @@
         <v/>
       </c>
       <c r="D47" s="146" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="E47" s="146"/>
       <c r="F47" s="15"/>
       <c r="G47" s="31" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="H47" s="58" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="I47" s="58" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="J47" s="58" t="str">
         <f t="shared" si="0"/>
@@ -2831,18 +2641,18 @@
         <v/>
       </c>
       <c r="D48" s="146" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="E48" s="146"/>
       <c r="F48" s="15"/>
       <c r="G48" s="31" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="H48" s="58" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="I48" s="58" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="J48" s="58" t="str">
         <f t="shared" si="0"/>
@@ -2862,18 +2672,18 @@
         <v/>
       </c>
       <c r="D49" s="146" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="E49" s="146"/>
       <c r="F49" s="15"/>
       <c r="G49" s="31" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="H49" s="58" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="I49" s="58" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="J49" s="58" t="str">
         <f t="shared" si="0"/>
@@ -2893,18 +2703,18 @@
         <v/>
       </c>
       <c r="D50" s="146" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="E50" s="146"/>
       <c r="F50" s="15"/>
       <c r="G50" s="31" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="H50" s="58" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="I50" s="58" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="J50" s="58" t="str">
         <f t="shared" si="0"/>
@@ -2924,18 +2734,18 @@
         <v/>
       </c>
       <c r="D51" s="146" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="E51" s="146"/>
       <c r="F51" s="15"/>
       <c r="G51" s="31" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="H51" s="58" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="I51" s="58" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="J51" s="58" t="str">
         <f t="shared" si="0"/>
@@ -2955,18 +2765,18 @@
         <v/>
       </c>
       <c r="D52" s="146" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="E52" s="146"/>
       <c r="F52" s="15"/>
       <c r="G52" s="31" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="H52" s="58" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="I52" s="58" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="J52" s="58" t="str">
         <f t="shared" si="0"/>
@@ -2986,18 +2796,18 @@
         <v/>
       </c>
       <c r="D53" s="146" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="E53" s="146"/>
       <c r="F53" s="15"/>
       <c r="G53" s="31" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="H53" s="58" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="I53" s="58" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="J53" s="58" t="str">
         <f t="shared" si="0"/>
@@ -3017,18 +2827,18 @@
         <v/>
       </c>
       <c r="D54" s="146" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="E54" s="146"/>
       <c r="F54" s="15"/>
       <c r="G54" s="31" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="H54" s="58" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="I54" s="58" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="J54" s="58" t="str">
         <f t="shared" si="0"/>
@@ -3048,18 +2858,18 @@
         <v/>
       </c>
       <c r="D55" s="146" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="E55" s="146"/>
       <c r="F55" s="15"/>
       <c r="G55" s="31" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="H55" s="58" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="I55" s="58" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="J55" s="58" t="str">
         <f t="shared" si="0"/>
@@ -3079,18 +2889,18 @@
         <v/>
       </c>
       <c r="D56" s="146" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="E56" s="146"/>
       <c r="F56" s="15"/>
       <c r="G56" s="31" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="H56" s="58" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="I56" s="58" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="J56" s="58" t="str">
         <f t="shared" si="0"/>
@@ -3110,18 +2920,18 @@
         <v/>
       </c>
       <c r="D57" s="146" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="E57" s="146"/>
       <c r="F57" s="15"/>
       <c r="G57" s="31" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="H57" s="58" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="I57" s="58" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="J57" s="58" t="str">
         <f t="shared" si="0"/>
@@ -3141,18 +2951,18 @@
         <v/>
       </c>
       <c r="D58" s="146" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="E58" s="146"/>
       <c r="F58" s="15"/>
       <c r="G58" s="31" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="H58" s="58" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="I58" s="58" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="J58" s="58" t="str">
         <f t="shared" si="0"/>
@@ -3172,18 +2982,18 @@
         <v/>
       </c>
       <c r="D59" s="146" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="E59" s="146"/>
       <c r="F59" s="15"/>
       <c r="G59" s="31" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="H59" s="58" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="I59" s="58" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="J59" s="58" t="str">
         <f t="shared" si="0"/>
@@ -3203,18 +3013,18 @@
         <v/>
       </c>
       <c r="D60" s="146" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="E60" s="146"/>
       <c r="F60" s="15"/>
       <c r="G60" s="31" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="H60" s="58" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="I60" s="58" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="J60" s="58" t="str">
         <f t="shared" si="0"/>
@@ -3235,18 +3045,18 @@
       </c>
       <c r="C61" s="4"/>
       <c r="D61" s="146" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="E61" s="146"/>
       <c r="F61" s="15"/>
       <c r="G61" s="31" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="H61" s="58" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="I61" s="58" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="J61" s="58" t="str">
         <f t="shared" si="0"/>
@@ -3266,18 +3076,18 @@
         <v/>
       </c>
       <c r="D62" s="146" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="E62" s="146"/>
       <c r="F62" s="15"/>
       <c r="G62" s="31" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="H62" s="58" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="I62" s="58" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="J62" s="58" t="str">
         <f t="shared" si="0"/>
@@ -3297,18 +3107,18 @@
         <v/>
       </c>
       <c r="D63" s="146" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="E63" s="146"/>
       <c r="F63" s="15"/>
       <c r="G63" s="31" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="H63" s="58" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="I63" s="58" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="J63" s="58" t="str">
         <f t="shared" si="0"/>
@@ -3328,18 +3138,18 @@
         <v/>
       </c>
       <c r="D64" s="146" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="E64" s="146"/>
       <c r="F64" s="15"/>
       <c r="G64" s="31" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="H64" s="58" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="I64" s="58" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="J64" s="58" t="str">
         <f t="shared" si="0"/>
@@ -3360,18 +3170,18 @@
       </c>
       <c r="C65" s="4"/>
       <c r="D65" s="146" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="E65" s="146"/>
       <c r="F65" s="15"/>
       <c r="G65" s="31" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="H65" s="58" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="I65" s="58" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="J65" s="58" t="str">
         <f t="shared" si="0"/>
@@ -3391,18 +3201,18 @@
         <v/>
       </c>
       <c r="D66" s="146" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="E66" s="146"/>
       <c r="F66" s="15"/>
       <c r="G66" s="31" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="H66" s="58" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="I66" s="58" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="J66" s="58" t="str">
         <f t="shared" si="0"/>
@@ -3422,18 +3232,18 @@
         <v/>
       </c>
       <c r="D67" s="146" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="E67" s="146"/>
       <c r="F67" s="15"/>
       <c r="G67" s="31" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="H67" s="58" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="I67" s="58" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="J67" s="58" t="str">
         <f t="shared" si="0"/>
@@ -3453,18 +3263,18 @@
         <v/>
       </c>
       <c r="D68" s="146" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="E68" s="146"/>
       <c r="F68" s="15"/>
       <c r="G68" s="31" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="H68" s="58" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="I68" s="58" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="J68" s="58" t="str">
         <f t="shared" si="0"/>
@@ -3485,18 +3295,18 @@
       </c>
       <c r="C69" s="4"/>
       <c r="D69" s="146" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="E69" s="146"/>
       <c r="F69" s="15"/>
       <c r="G69" s="31" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="H69" s="58" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="I69" s="58" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="J69" s="58" t="str">
         <f t="shared" si="0"/>
@@ -3517,18 +3327,18 @@
       </c>
       <c r="C70" s="4"/>
       <c r="D70" s="146" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="E70" s="146"/>
       <c r="F70" s="15"/>
       <c r="G70" s="31" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="H70" s="58" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="I70" s="58" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="J70" s="58" t="str">
         <f t="shared" si="0"/>
@@ -3549,18 +3359,18 @@
       </c>
       <c r="C71" s="4"/>
       <c r="D71" s="146" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="E71" s="146"/>
       <c r="F71" s="15"/>
       <c r="G71" s="31" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="H71" s="58" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="I71" s="58" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="J71" s="58" t="str">
         <f t="shared" ref="J71:J134" si="2">IFERROR(H71+I71,"")</f>
@@ -3580,18 +3390,18 @@
         <v/>
       </c>
       <c r="D72" s="146" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="E72" s="146"/>
       <c r="F72" s="15"/>
       <c r="G72" s="31" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="H72" s="58" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="I72" s="58" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="J72" s="58" t="str">
         <f t="shared" si="2"/>
@@ -3611,18 +3421,18 @@
         <v/>
       </c>
       <c r="D73" s="146" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="E73" s="146"/>
       <c r="F73" s="15"/>
       <c r="G73" s="31" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="H73" s="58" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="I73" s="58" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="J73" s="58" t="str">
         <f t="shared" si="2"/>
@@ -3642,18 +3452,18 @@
         <v/>
       </c>
       <c r="D74" s="146" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="E74" s="146"/>
       <c r="F74" s="15"/>
       <c r="G74" s="31" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="H74" s="58" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="I74" s="58" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="J74" s="58" t="str">
         <f t="shared" si="2"/>
@@ -3673,18 +3483,18 @@
         <v/>
       </c>
       <c r="D75" s="146" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="E75" s="146"/>
       <c r="F75" s="15"/>
       <c r="G75" s="31" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="H75" s="58" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="I75" s="58" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="J75" s="58" t="str">
         <f t="shared" si="2"/>
@@ -3704,18 +3514,18 @@
         <v/>
       </c>
       <c r="D76" s="146" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="E76" s="146"/>
       <c r="F76" s="15"/>
       <c r="G76" s="31" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="H76" s="58" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="I76" s="58" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="J76" s="58" t="str">
         <f t="shared" si="2"/>
@@ -3735,18 +3545,18 @@
         <v/>
       </c>
       <c r="D77" s="146" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="E77" s="146"/>
       <c r="F77" s="15"/>
       <c r="G77" s="31" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="H77" s="58" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="I77" s="58" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="J77" s="58" t="str">
         <f t="shared" si="2"/>
@@ -3766,18 +3576,18 @@
         <v/>
       </c>
       <c r="D78" s="146" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="E78" s="146"/>
       <c r="F78" s="15"/>
       <c r="G78" s="31" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="H78" s="58" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="I78" s="58" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="J78" s="58" t="str">
         <f t="shared" si="2"/>
@@ -3797,18 +3607,18 @@
         <v/>
       </c>
       <c r="D79" s="146" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="E79" s="146"/>
       <c r="F79" s="15"/>
       <c r="G79" s="31" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="H79" s="58" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="I79" s="58" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="J79" s="58" t="str">
         <f t="shared" si="2"/>
@@ -3828,18 +3638,18 @@
         <v/>
       </c>
       <c r="D80" s="146" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="E80" s="146"/>
       <c r="F80" s="15"/>
       <c r="G80" s="31" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="H80" s="58" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="I80" s="58" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="J80" s="58" t="str">
         <f t="shared" si="2"/>
@@ -3859,18 +3669,18 @@
         <v/>
       </c>
       <c r="D81" s="146" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="E81" s="146"/>
       <c r="F81" s="15"/>
       <c r="G81" s="31" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="H81" s="58" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="I81" s="58" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="J81" s="58" t="str">
         <f t="shared" si="2"/>
@@ -3890,18 +3700,18 @@
         <v/>
       </c>
       <c r="D82" s="146" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="E82" s="146"/>
       <c r="F82" s="15"/>
       <c r="G82" s="31" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="H82" s="58" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="I82" s="58" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="J82" s="58" t="str">
         <f t="shared" si="2"/>
@@ -3921,18 +3731,18 @@
         <v/>
       </c>
       <c r="D83" s="146" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="E83" s="146"/>
       <c r="F83" s="15"/>
       <c r="G83" s="31" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="H83" s="58" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="I83" s="58" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="J83" s="58" t="str">
         <f t="shared" si="2"/>
@@ -3952,18 +3762,18 @@
         <v/>
       </c>
       <c r="D84" s="146" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="E84" s="146"/>
       <c r="F84" s="15"/>
       <c r="G84" s="31" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="H84" s="58" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="I84" s="58" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="J84" s="58" t="str">
         <f t="shared" si="2"/>
@@ -3983,18 +3793,18 @@
         <v/>
       </c>
       <c r="D85" s="146" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="E85" s="146"/>
       <c r="F85" s="15"/>
       <c r="G85" s="31" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="H85" s="58" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="I85" s="58" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="J85" s="58" t="str">
         <f t="shared" si="2"/>
@@ -4014,18 +3824,18 @@
         <v/>
       </c>
       <c r="D86" s="146" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="E86" s="146"/>
       <c r="F86" s="15"/>
       <c r="G86" s="31" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="H86" s="58" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="I86" s="58" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="J86" s="58" t="str">
         <f t="shared" si="2"/>
@@ -4045,18 +3855,18 @@
         <v/>
       </c>
       <c r="D87" s="146" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="E87" s="146"/>
       <c r="F87" s="15"/>
       <c r="G87" s="31" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="H87" s="58" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="I87" s="58" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="J87" s="58" t="str">
         <f t="shared" si="2"/>
@@ -4076,18 +3886,18 @@
         <v/>
       </c>
       <c r="D88" s="146" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="E88" s="146"/>
       <c r="F88" s="15"/>
       <c r="G88" s="31" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="H88" s="58" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="I88" s="58" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="J88" s="58" t="str">
         <f t="shared" si="2"/>
@@ -4107,18 +3917,18 @@
         <v/>
       </c>
       <c r="D89" s="146" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="E89" s="146"/>
       <c r="F89" s="15"/>
       <c r="G89" s="31" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="H89" s="58" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="I89" s="58" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="J89" s="58" t="str">
         <f t="shared" si="2"/>
@@ -4138,18 +3948,18 @@
         <v/>
       </c>
       <c r="D90" s="146" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="E90" s="146"/>
       <c r="F90" s="15"/>
       <c r="G90" s="31" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="H90" s="58" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="I90" s="58" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="J90" s="58" t="str">
         <f t="shared" si="2"/>
@@ -4169,18 +3979,18 @@
         <v/>
       </c>
       <c r="D91" s="146" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="E91" s="146"/>
       <c r="F91" s="15"/>
       <c r="G91" s="31" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="H91" s="58" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="I91" s="58" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="J91" s="58" t="str">
         <f t="shared" si="2"/>
@@ -4200,18 +4010,18 @@
         <v/>
       </c>
       <c r="D92" s="146" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="E92" s="146"/>
       <c r="F92" s="15"/>
       <c r="G92" s="31" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="H92" s="58" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="I92" s="58" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="J92" s="58" t="str">
         <f t="shared" si="2"/>
@@ -4231,18 +4041,18 @@
         <v/>
       </c>
       <c r="D93" s="146" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="E93" s="146"/>
       <c r="F93" s="15"/>
       <c r="G93" s="31" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="H93" s="58" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="I93" s="58" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="J93" s="58" t="str">
         <f t="shared" si="2"/>
@@ -4262,18 +4072,18 @@
         <v/>
       </c>
       <c r="D94" s="146" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="E94" s="146"/>
       <c r="F94" s="15"/>
       <c r="G94" s="31" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="H94" s="58" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="I94" s="58" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="J94" s="58" t="str">
         <f t="shared" si="2"/>
@@ -4293,18 +4103,18 @@
         <v/>
       </c>
       <c r="D95" s="146" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="E95" s="146"/>
       <c r="F95" s="15"/>
       <c r="G95" s="31" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="H95" s="58" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="I95" s="58" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="J95" s="58" t="str">
         <f t="shared" si="2"/>
@@ -4324,18 +4134,18 @@
         <v/>
       </c>
       <c r="D96" s="146" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="E96" s="146"/>
       <c r="F96" s="15"/>
       <c r="G96" s="31" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="H96" s="58" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="I96" s="58" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="J96" s="58" t="str">
         <f t="shared" si="2"/>
@@ -4355,18 +4165,18 @@
         <v/>
       </c>
       <c r="D97" s="146" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="E97" s="146"/>
       <c r="F97" s="15"/>
       <c r="G97" s="31" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="H97" s="58" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="I97" s="58" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="J97" s="58" t="str">
         <f t="shared" si="2"/>
@@ -4386,18 +4196,18 @@
         <v/>
       </c>
       <c r="D98" s="146" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="E98" s="146"/>
       <c r="F98" s="15"/>
       <c r="G98" s="31" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="H98" s="58" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="I98" s="58" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="J98" s="58" t="str">
         <f t="shared" si="2"/>
@@ -4417,18 +4227,18 @@
         <v/>
       </c>
       <c r="D99" s="146" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="E99" s="146"/>
       <c r="F99" s="15"/>
       <c r="G99" s="31" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="H99" s="58" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="I99" s="58" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="J99" s="58" t="str">
         <f t="shared" si="2"/>
@@ -4448,18 +4258,18 @@
         <v/>
       </c>
       <c r="D100" s="146" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="E100" s="146"/>
       <c r="F100" s="15"/>
       <c r="G100" s="31" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="H100" s="58" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="I100" s="58" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="J100" s="58" t="str">
         <f t="shared" si="2"/>
@@ -4479,18 +4289,18 @@
         <v/>
       </c>
       <c r="D101" s="146" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="E101" s="146"/>
       <c r="F101" s="15"/>
       <c r="G101" s="31" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="H101" s="58" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="I101" s="58" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="J101" s="58" t="str">
         <f t="shared" si="2"/>
@@ -4510,18 +4320,18 @@
         <v/>
       </c>
       <c r="D102" s="146" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="E102" s="146"/>
       <c r="F102" s="15"/>
       <c r="G102" s="31" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="H102" s="58" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="I102" s="58" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="J102" s="58" t="str">
         <f t="shared" si="2"/>
@@ -4541,18 +4351,18 @@
         <v/>
       </c>
       <c r="D103" s="146" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="E103" s="146"/>
       <c r="F103" s="15"/>
       <c r="G103" s="31" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="H103" s="58" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="I103" s="58" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="J103" s="58" t="str">
         <f t="shared" si="2"/>
@@ -4572,18 +4382,18 @@
         <v/>
       </c>
       <c r="D104" s="146" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="E104" s="146"/>
       <c r="F104" s="15"/>
       <c r="G104" s="31" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="H104" s="58" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="I104" s="58" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="J104" s="58" t="str">
         <f t="shared" si="2"/>
@@ -4603,18 +4413,18 @@
         <v/>
       </c>
       <c r="D105" s="146" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="E105" s="146"/>
       <c r="F105" s="15"/>
       <c r="G105" s="31" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="H105" s="58" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="I105" s="58" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="J105" s="58" t="str">
         <f t="shared" si="2"/>
@@ -4634,18 +4444,18 @@
         <v/>
       </c>
       <c r="D106" s="146" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="E106" s="146"/>
       <c r="F106" s="15"/>
       <c r="G106" s="31" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="H106" s="58" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="I106" s="58" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="J106" s="58" t="str">
         <f t="shared" si="2"/>
@@ -4665,18 +4475,18 @@
         <v/>
       </c>
       <c r="D107" s="146" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="E107" s="146"/>
       <c r="F107" s="15"/>
       <c r="G107" s="31" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="H107" s="58" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="I107" s="58" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="J107" s="58" t="str">
         <f t="shared" si="2"/>
@@ -4696,18 +4506,18 @@
         <v/>
       </c>
       <c r="D108" s="146" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="E108" s="146"/>
       <c r="F108" s="15"/>
       <c r="G108" s="31" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="H108" s="58" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="I108" s="58" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="J108" s="58" t="str">
         <f t="shared" si="2"/>
@@ -4727,18 +4537,18 @@
         <v/>
       </c>
       <c r="D109" s="146" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="E109" s="146"/>
       <c r="F109" s="15"/>
       <c r="G109" s="31" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="H109" s="58" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="I109" s="58" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="J109" s="58" t="str">
         <f t="shared" si="2"/>
@@ -4758,18 +4568,18 @@
         <v/>
       </c>
       <c r="D110" s="146" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="E110" s="146"/>
       <c r="F110" s="15"/>
       <c r="G110" s="31" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="H110" s="58" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="I110" s="58" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="J110" s="58" t="str">
         <f t="shared" si="2"/>
@@ -4789,18 +4599,18 @@
         <v/>
       </c>
       <c r="D111" s="146" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="E111" s="146"/>
       <c r="F111" s="15"/>
       <c r="G111" s="31" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="H111" s="58" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="I111" s="58" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="J111" s="58" t="str">
         <f t="shared" si="2"/>
@@ -4820,18 +4630,18 @@
         <v/>
       </c>
       <c r="D112" s="146" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="E112" s="146"/>
       <c r="F112" s="15"/>
       <c r="G112" s="31" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="H112" s="58" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="I112" s="58" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="J112" s="58" t="str">
         <f t="shared" si="2"/>
@@ -4851,18 +4661,18 @@
         <v/>
       </c>
       <c r="D113" s="146" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="E113" s="146"/>
       <c r="F113" s="15"/>
       <c r="G113" s="31" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="H113" s="58" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="I113" s="58" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="J113" s="58" t="str">
         <f t="shared" si="2"/>
@@ -4882,18 +4692,18 @@
         <v/>
       </c>
       <c r="D114" s="146" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="E114" s="146"/>
       <c r="F114" s="15"/>
       <c r="G114" s="31" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="H114" s="58" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="I114" s="58" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="J114" s="58" t="str">
         <f t="shared" si="2"/>
@@ -4913,18 +4723,18 @@
         <v/>
       </c>
       <c r="D115" s="146" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="E115" s="146"/>
       <c r="F115" s="15"/>
       <c r="G115" s="31" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="H115" s="58" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="I115" s="58" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="J115" s="58" t="str">
         <f t="shared" si="2"/>
@@ -4944,18 +4754,18 @@
         <v/>
       </c>
       <c r="D116" s="146" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="E116" s="146"/>
       <c r="F116" s="15"/>
       <c r="G116" s="31" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="H116" s="58" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="I116" s="58" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="J116" s="58" t="str">
         <f t="shared" si="2"/>
@@ -4975,18 +4785,18 @@
         <v/>
       </c>
       <c r="D117" s="146" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="E117" s="146"/>
       <c r="F117" s="15"/>
       <c r="G117" s="31" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="H117" s="58" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="I117" s="58" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="J117" s="58" t="str">
         <f t="shared" si="2"/>
@@ -5006,18 +4816,18 @@
         <v/>
       </c>
       <c r="D118" s="146" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="E118" s="146"/>
       <c r="F118" s="15"/>
       <c r="G118" s="31" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="H118" s="58" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="I118" s="58" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="J118" s="58" t="str">
         <f t="shared" si="2"/>
@@ -5037,18 +4847,18 @@
         <v/>
       </c>
       <c r="D119" s="146" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="E119" s="146"/>
       <c r="F119" s="15"/>
       <c r="G119" s="31" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="H119" s="58" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="I119" s="58" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="J119" s="58" t="str">
         <f t="shared" si="2"/>
@@ -5068,18 +4878,18 @@
         <v/>
       </c>
       <c r="D120" s="146" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="E120" s="146"/>
       <c r="F120" s="15"/>
       <c r="G120" s="31" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="H120" s="58" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="I120" s="58" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="J120" s="58" t="str">
         <f t="shared" si="2"/>
@@ -5099,18 +4909,18 @@
         <v/>
       </c>
       <c r="D121" s="146" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="E121" s="146"/>
       <c r="F121" s="15"/>
       <c r="G121" s="31" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="H121" s="58" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="I121" s="58" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="J121" s="58" t="str">
         <f t="shared" si="2"/>
@@ -5130,18 +4940,18 @@
         <v/>
       </c>
       <c r="D122" s="146" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="E122" s="146"/>
       <c r="F122" s="15"/>
       <c r="G122" s="31" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="H122" s="58" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="I122" s="58" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="J122" s="58" t="str">
         <f t="shared" si="2"/>
@@ -5161,18 +4971,18 @@
         <v/>
       </c>
       <c r="D123" s="146" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="E123" s="146"/>
       <c r="F123" s="15"/>
       <c r="G123" s="31" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="H123" s="58" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="I123" s="58" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="J123" s="58" t="str">
         <f t="shared" si="2"/>
@@ -5192,18 +5002,18 @@
         <v/>
       </c>
       <c r="D124" s="146" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="E124" s="146"/>
       <c r="F124" s="15"/>
       <c r="G124" s="31" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="H124" s="58" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="I124" s="58" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="J124" s="58" t="str">
         <f t="shared" si="2"/>
@@ -5223,18 +5033,18 @@
         <v/>
       </c>
       <c r="D125" s="146" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="E125" s="146"/>
       <c r="F125" s="15"/>
       <c r="G125" s="31" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="H125" s="58" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="I125" s="58" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="J125" s="58" t="str">
         <f t="shared" si="2"/>
@@ -5254,18 +5064,18 @@
         <v/>
       </c>
       <c r="D126" s="146" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="E126" s="146"/>
       <c r="F126" s="15"/>
       <c r="G126" s="31" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="H126" s="58" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="I126" s="58" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="J126" s="58" t="str">
         <f t="shared" si="2"/>
@@ -5285,18 +5095,18 @@
         <v/>
       </c>
       <c r="D127" s="146" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="E127" s="146"/>
       <c r="F127" s="15"/>
       <c r="G127" s="31" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="H127" s="58" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="I127" s="58" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="J127" s="58" t="str">
         <f t="shared" si="2"/>
@@ -5316,18 +5126,18 @@
         <v/>
       </c>
       <c r="D128" s="146" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="E128" s="146"/>
       <c r="F128" s="15"/>
       <c r="G128" s="31" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="H128" s="58" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="I128" s="58" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="J128" s="58" t="str">
         <f t="shared" si="2"/>
@@ -5347,18 +5157,18 @@
         <v/>
       </c>
       <c r="D129" s="146" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="E129" s="146"/>
       <c r="F129" s="15"/>
       <c r="G129" s="31" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="H129" s="58" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="I129" s="58" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="J129" s="58" t="str">
         <f t="shared" si="2"/>
@@ -5378,18 +5188,18 @@
         <v/>
       </c>
       <c r="D130" s="146" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="E130" s="146"/>
       <c r="F130" s="15"/>
       <c r="G130" s="31" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="H130" s="58" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="I130" s="58" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="J130" s="58" t="str">
         <f t="shared" si="2"/>
@@ -5409,18 +5219,18 @@
         <v/>
       </c>
       <c r="D131" s="146" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="E131" s="146"/>
       <c r="F131" s="15"/>
       <c r="G131" s="31" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="H131" s="58" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="I131" s="58" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="J131" s="58" t="str">
         <f t="shared" si="2"/>
@@ -5440,18 +5250,18 @@
         <v/>
       </c>
       <c r="D132" s="146" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="E132" s="146"/>
       <c r="F132" s="15"/>
       <c r="G132" s="31" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="H132" s="58" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="I132" s="58" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="J132" s="58" t="str">
         <f t="shared" si="2"/>
@@ -5471,18 +5281,18 @@
         <v/>
       </c>
       <c r="D133" s="146" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="E133" s="146"/>
       <c r="F133" s="15"/>
       <c r="G133" s="31" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="H133" s="58" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="I133" s="58" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="J133" s="58" t="str">
         <f t="shared" si="2"/>
@@ -5502,18 +5312,18 @@
         <v/>
       </c>
       <c r="D134" s="146" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="E134" s="146"/>
       <c r="F134" s="15"/>
       <c r="G134" s="31" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="H134" s="58" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="I134" s="58" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="J134" s="58" t="str">
         <f t="shared" si="2"/>
@@ -5533,18 +5343,18 @@
         <v/>
       </c>
       <c r="D135" s="146" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="E135" s="146"/>
       <c r="F135" s="15"/>
       <c r="G135" s="31" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="H135" s="58" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="I135" s="58" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="J135" s="58" t="str">
         <f t="shared" ref="J135:J163" si="4">IFERROR(H135+I135,"")</f>
@@ -5564,18 +5374,18 @@
         <v/>
       </c>
       <c r="D136" s="146" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="E136" s="146"/>
       <c r="F136" s="15"/>
       <c r="G136" s="31" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="H136" s="58" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="I136" s="58" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="J136" s="58" t="str">
         <f t="shared" si="4"/>
@@ -5595,18 +5405,18 @@
         <v/>
       </c>
       <c r="D137" s="146" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="E137" s="146"/>
       <c r="F137" s="15"/>
       <c r="G137" s="31" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="H137" s="58" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="I137" s="58" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="J137" s="58" t="str">
         <f t="shared" si="4"/>
@@ -5626,18 +5436,18 @@
         <v/>
       </c>
       <c r="D138" s="146" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="E138" s="146"/>
       <c r="F138" s="15"/>
       <c r="G138" s="31" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="H138" s="58" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="I138" s="58" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="J138" s="58" t="str">
         <f t="shared" si="4"/>
@@ -5657,18 +5467,18 @@
         <v/>
       </c>
       <c r="D139" s="146" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="E139" s="146"/>
       <c r="F139" s="15"/>
       <c r="G139" s="31" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="H139" s="58" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="I139" s="58" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="J139" s="58" t="str">
         <f t="shared" si="4"/>
@@ -5688,18 +5498,18 @@
         <v/>
       </c>
       <c r="D140" s="146" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="E140" s="146"/>
       <c r="F140" s="15"/>
       <c r="G140" s="31" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="H140" s="58" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="I140" s="58" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="J140" s="58" t="str">
         <f t="shared" si="4"/>
@@ -5719,18 +5529,18 @@
         <v/>
       </c>
       <c r="D141" s="146" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="E141" s="146"/>
       <c r="F141" s="15"/>
       <c r="G141" s="31" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="H141" s="58" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="I141" s="58" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="J141" s="58" t="str">
         <f t="shared" si="4"/>
@@ -5750,18 +5560,18 @@
         <v/>
       </c>
       <c r="D142" s="146" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="E142" s="146"/>
       <c r="F142" s="15"/>
       <c r="G142" s="31" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="H142" s="58" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="I142" s="58" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="J142" s="58" t="str">
         <f t="shared" si="4"/>
@@ -5781,18 +5591,18 @@
         <v/>
       </c>
       <c r="D143" s="146" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="E143" s="146"/>
       <c r="F143" s="15"/>
       <c r="G143" s="31" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="H143" s="58" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="I143" s="58" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="J143" s="58" t="str">
         <f t="shared" si="4"/>
@@ -5812,18 +5622,18 @@
         <v/>
       </c>
       <c r="D144" s="146" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="E144" s="146"/>
       <c r="F144" s="15"/>
       <c r="G144" s="31" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="H144" s="58" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="I144" s="58" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="J144" s="58" t="str">
         <f t="shared" si="4"/>
@@ -5843,18 +5653,18 @@
         <v/>
       </c>
       <c r="D145" s="146" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="E145" s="146"/>
       <c r="F145" s="15"/>
       <c r="G145" s="31" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="H145" s="58" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="I145" s="58" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="J145" s="58" t="str">
         <f t="shared" si="4"/>
@@ -5874,18 +5684,18 @@
         <v/>
       </c>
       <c r="D146" s="146" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="E146" s="146"/>
       <c r="F146" s="15"/>
       <c r="G146" s="31" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="H146" s="58" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="I146" s="58" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="J146" s="58" t="str">
         <f t="shared" si="4"/>
@@ -5905,18 +5715,18 @@
         <v/>
       </c>
       <c r="D147" s="146" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="E147" s="146"/>
       <c r="F147" s="15"/>
       <c r="G147" s="31" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="H147" s="58" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="I147" s="58" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="J147" s="58" t="str">
         <f t="shared" si="4"/>
@@ -5936,18 +5746,18 @@
         <v/>
       </c>
       <c r="D148" s="146" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="E148" s="146"/>
       <c r="F148" s="15"/>
       <c r="G148" s="31" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="H148" s="58" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="I148" s="58" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="J148" s="58" t="str">
         <f t="shared" si="4"/>
@@ -5967,18 +5777,18 @@
         <v/>
       </c>
       <c r="D149" s="146" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="E149" s="146"/>
       <c r="F149" s="15"/>
       <c r="G149" s="31" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="H149" s="58" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="I149" s="58" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="J149" s="58" t="str">
         <f t="shared" si="4"/>
@@ -5998,18 +5808,18 @@
         <v/>
       </c>
       <c r="D150" s="146" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="E150" s="146"/>
       <c r="F150" s="15"/>
       <c r="G150" s="31" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="H150" s="58" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="I150" s="58" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="J150" s="58" t="str">
         <f t="shared" si="4"/>
@@ -6029,18 +5839,18 @@
         <v/>
       </c>
       <c r="D151" s="146" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="E151" s="146"/>
       <c r="F151" s="15"/>
       <c r="G151" s="31" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="H151" s="58" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="I151" s="58" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="J151" s="58" t="str">
         <f t="shared" si="4"/>
@@ -6060,18 +5870,18 @@
         <v/>
       </c>
       <c r="D152" s="146" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="E152" s="146"/>
       <c r="F152" s="15"/>
       <c r="G152" s="31" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="H152" s="58" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="I152" s="58" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="J152" s="58" t="str">
         <f t="shared" si="4"/>
@@ -6091,18 +5901,18 @@
         <v/>
       </c>
       <c r="D153" s="146" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="E153" s="146"/>
       <c r="F153" s="15"/>
       <c r="G153" s="31" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="H153" s="58" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="I153" s="58" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="J153" s="58" t="str">
         <f t="shared" si="4"/>
@@ -6122,18 +5932,18 @@
         <v/>
       </c>
       <c r="D154" s="146" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="E154" s="146"/>
       <c r="F154" s="15"/>
       <c r="G154" s="31" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="H154" s="58" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="I154" s="58" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="J154" s="58" t="str">
         <f t="shared" si="4"/>
@@ -6153,18 +5963,18 @@
         <v/>
       </c>
       <c r="D155" s="146" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="E155" s="146"/>
       <c r="F155" s="15"/>
       <c r="G155" s="31" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="H155" s="58" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="I155" s="58" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="J155" s="58" t="str">
         <f t="shared" si="4"/>
@@ -6184,18 +5994,18 @@
         <v/>
       </c>
       <c r="D156" s="146" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="E156" s="146"/>
       <c r="F156" s="15"/>
       <c r="G156" s="31" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="H156" s="58" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="I156" s="58" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="J156" s="58" t="str">
         <f t="shared" si="4"/>
@@ -6215,18 +6025,18 @@
         <v/>
       </c>
       <c r="D157" s="146" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="E157" s="146"/>
       <c r="F157" s="15"/>
       <c r="G157" s="31" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="H157" s="58" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="I157" s="58" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="J157" s="58" t="str">
         <f t="shared" si="4"/>
@@ -6246,18 +6056,18 @@
         <v/>
       </c>
       <c r="D158" s="146" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="E158" s="146"/>
       <c r="F158" s="15"/>
       <c r="G158" s="31" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="H158" s="58" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="I158" s="58" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="J158" s="58" t="str">
         <f t="shared" si="4"/>
@@ -6277,18 +6087,18 @@
         <v/>
       </c>
       <c r="D159" s="146" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="E159" s="146"/>
       <c r="F159" s="15"/>
       <c r="G159" s="31" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="H159" s="58" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="I159" s="58" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="J159" s="58" t="str">
         <f t="shared" si="4"/>
@@ -6308,18 +6118,18 @@
         <v/>
       </c>
       <c r="D160" s="146" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="E160" s="146"/>
       <c r="F160" s="15"/>
       <c r="G160" s="31" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="H160" s="58" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="I160" s="58" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="J160" s="58" t="str">
         <f t="shared" si="4"/>
@@ -6339,18 +6149,18 @@
         <v/>
       </c>
       <c r="D161" s="146" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="E161" s="146"/>
       <c r="F161" s="15"/>
       <c r="G161" s="31" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="H161" s="58" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="I161" s="58" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="J161" s="58" t="str">
         <f t="shared" si="4"/>
@@ -6371,18 +6181,18 @@
       </c>
       <c r="C162" s="4"/>
       <c r="D162" s="146" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="E162" s="146"/>
       <c r="F162" s="15"/>
       <c r="G162" s="31" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="H162" s="58" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="I162" s="58" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="J162" s="58" t="str">
         <f t="shared" si="4"/>
@@ -6402,18 +6212,18 @@
         <v/>
       </c>
       <c r="D163" s="146" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="E163" s="146"/>
       <c r="F163" s="15"/>
       <c r="G163" s="31" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="H163" s="58" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="I163" s="58" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="J163" s="58" t="str">
         <f t="shared" si="4"/>
@@ -6433,7 +6243,7 @@
         <v/>
       </c>
       <c r="D164" s="106" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E164" s="107"/>
       <c r="F164" s="56"/>
@@ -6498,7 +6308,7 @@
       <c r="E167" s="2"/>
       <c r="F167" s="6"/>
       <c r="G167" s="14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H167" s="59">
         <f>SUM($H$164:$H$166)</f>
@@ -6604,7 +6414,7 @@
       <c r="E172" s="2"/>
       <c r="F172" s="6"/>
       <c r="G172" s="14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H172" s="59">
         <f>SUM($H$169:$H$171)</f>
@@ -6649,7 +6459,7 @@
       <c r="C174" s="4"/>
       <c r="D174" s="5"/>
       <c r="E174" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F174" s="6"/>
       <c r="G174" s="12"/>
@@ -6710,7 +6520,7 @@
         <v/>
       </c>
       <c r="E177" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F177" s="4"/>
       <c r="G177" s="106"/>
@@ -6728,7 +6538,7 @@
         <v/>
       </c>
       <c r="E178" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F178" s="4"/>
       <c r="G178" s="106"/>
@@ -6746,7 +6556,7 @@
         <v/>
       </c>
       <c r="E179" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F179" s="4"/>
       <c r="G179" s="106"/>
@@ -6765,7 +6575,7 @@
       </c>
       <c r="F180" s="57"/>
       <c r="G180" s="6" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="H180" s="34">
         <f>$H$174+$H$177+$H$178-$H$179</f>
@@ -6789,16 +6599,16 @@
         <v/>
       </c>
       <c r="D181" s="8" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E181" s="112" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F181" s="106" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G181" s="112" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="H181" s="113"/>
       <c r="I181" s="113"/>
@@ -6807,7 +6617,7 @@
         <v>0</v>
       </c>
       <c r="K181" s="3" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="182" spans="1:11" x14ac:dyDescent="0.2">
@@ -6821,7 +6631,7 @@
       <c r="D182" s="33"/>
       <c r="E182" s="114"/>
       <c r="F182" s="106" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G182" s="112"/>
       <c r="H182" s="113"/>
@@ -6841,14 +6651,14 @@
         <v/>
       </c>
       <c r="D183" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E183" s="112"/>
       <c r="F183" s="106" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="G183" s="112" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="H183" s="113"/>
       <c r="I183" s="113"/>
@@ -6869,7 +6679,7 @@
       <c r="D184" s="2"/>
       <c r="E184" s="114"/>
       <c r="F184" s="106" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G184" s="112"/>
       <c r="H184" s="113"/>
@@ -6891,7 +6701,7 @@
       <c r="D185" s="33"/>
       <c r="E185" s="114"/>
       <c r="F185" s="106" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G185" s="112"/>
       <c r="H185" s="113"/>
@@ -6913,7 +6723,7 @@
       <c r="D186" s="33"/>
       <c r="E186" s="114"/>
       <c r="F186" s="106" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G186" s="112"/>
       <c r="H186" s="113"/>
@@ -6933,11 +6743,11 @@
         <v/>
       </c>
       <c r="D187" s="8" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E187" s="112"/>
       <c r="F187" s="106" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G187" s="112"/>
       <c r="H187" s="113"/>
@@ -6959,7 +6769,7 @@
       <c r="D188" s="33"/>
       <c r="E188" s="114"/>
       <c r="F188" s="106" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G188" s="112"/>
       <c r="H188" s="113"/>
@@ -6981,7 +6791,7 @@
       <c r="D189" s="33"/>
       <c r="E189" s="114"/>
       <c r="F189" s="106" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G189" s="112"/>
       <c r="H189" s="113"/>
@@ -7003,7 +6813,7 @@
       <c r="D190" s="33"/>
       <c r="E190" s="114"/>
       <c r="F190" s="106" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G190" s="112"/>
       <c r="H190" s="113"/>
@@ -7025,7 +6835,7 @@
       <c r="D191" s="33"/>
       <c r="E191" s="114"/>
       <c r="F191" s="106" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G191" s="112"/>
       <c r="H191" s="113"/>
@@ -7044,12 +6854,10 @@
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="D192" s="8" t="s">
-        <v>37</v>
-      </c>
+      <c r="D192" s="8"/>
       <c r="E192" s="112"/>
       <c r="F192" s="106" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G192" s="112"/>
       <c r="H192" s="113"/>
@@ -7071,7 +6879,7 @@
       <c r="D193" s="33"/>
       <c r="E193" s="114"/>
       <c r="F193" s="106" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G193" s="112"/>
       <c r="H193" s="113"/>
@@ -7093,7 +6901,7 @@
       <c r="D194" s="33"/>
       <c r="E194" s="114"/>
       <c r="F194" s="106" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G194" s="112"/>
       <c r="H194" s="113"/>
@@ -7115,7 +6923,7 @@
       <c r="D195" s="33"/>
       <c r="E195" s="114"/>
       <c r="F195" s="106" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G195" s="112"/>
       <c r="H195" s="113"/>
@@ -7137,7 +6945,7 @@
       <c r="D196" s="33"/>
       <c r="E196" s="114"/>
       <c r="F196" s="106" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G196" s="112"/>
       <c r="H196" s="113"/>
@@ -7157,16 +6965,9 @@
         <v/>
       </c>
       <c r="C197" s="4"/>
-      <c r="D197" s="2" t="s">
-        <v>27</v>
-      </c>
       <c r="E197" s="115"/>
-      <c r="F197" s="106" t="s">
-        <v>33</v>
-      </c>
-      <c r="G197" s="112" t="s">
-        <v>7</v>
-      </c>
+      <c r="F197" s="106"/>
+      <c r="G197" s="112"/>
       <c r="H197" s="113"/>
       <c r="I197" s="113"/>
       <c r="J197" s="59">
@@ -7184,24 +6985,11 @@
         <v/>
       </c>
       <c r="C198" s="4"/>
-      <c r="D198" s="2" t="s">
-        <v>27</v>
-      </c>
       <c r="E198" s="116"/>
-      <c r="F198" s="106" t="s">
-        <v>33</v>
-      </c>
-      <c r="G198" s="112" t="s">
-        <v>29</v>
-      </c>
-      <c r="H198" s="59">
-        <f>SUMIF($D$7:$D$172,"株式会社バンジハンエース",H7:H172)</f>
-        <v>0</v>
-      </c>
-      <c r="I198" s="59">
-        <f>SUMIF($D$7:$D$172,"株式会社バンジハンエース",I7:I172)</f>
-        <v>0</v>
-      </c>
+      <c r="F198" s="106"/>
+      <c r="G198" s="112"/>
+      <c r="H198" s="113"/>
+      <c r="I198" s="113"/>
       <c r="J198" s="59">
         <f>SUMIF($D$7:$D$172,"株式会社バンジハンエース",J7:J172)</f>
         <v>0</v>
@@ -7217,24 +7005,11 @@
         <v/>
       </c>
       <c r="C199" s="4"/>
-      <c r="D199" s="2" t="s">
-        <v>27</v>
-      </c>
       <c r="E199" s="116"/>
-      <c r="F199" s="106" t="s">
-        <v>33</v>
-      </c>
-      <c r="G199" s="112" t="s">
-        <v>35</v>
-      </c>
-      <c r="H199" s="59">
-        <f>SUMIF($D$7:$D$172,"株式会社ティーケーホールディングス/経費",H7:H172)</f>
-        <v>0</v>
-      </c>
-      <c r="I199" s="59">
-        <f>SUMIF($D$7:$D$172,"株式会社ティーケーホールディングス/経費",I7:I172)</f>
-        <v>0</v>
-      </c>
+      <c r="F199" s="106"/>
+      <c r="G199" s="112"/>
+      <c r="H199" s="113"/>
+      <c r="I199" s="113"/>
       <c r="J199" s="59">
         <f>SUMIF($D$7:$D$172,"株式会社ティーケーホールディングス/経費",J7:J172)</f>
         <v>0</v>
@@ -7250,27 +7025,16 @@
         <v/>
       </c>
       <c r="C200" s="4"/>
-      <c r="D200" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E200" s="116" t="s">
-        <v>50</v>
-      </c>
-      <c r="F200" s="106" t="s">
-        <v>33</v>
-      </c>
-      <c r="G200" s="112" t="s">
-        <v>57</v>
-      </c>
+      <c r="E200" s="116"/>
+      <c r="F200" s="106"/>
+      <c r="G200" s="112"/>
       <c r="H200" s="113"/>
       <c r="I200" s="113"/>
       <c r="J200" s="59">
         <f t="shared" ref="J200:J205" si="9">$H200+$I200</f>
         <v>0</v>
       </c>
-      <c r="K200" s="3" t="s">
-        <v>60</v>
-      </c>
+      <c r="K200" s="3"/>
     </row>
     <row r="201" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A201" s="103">
@@ -7281,27 +7045,16 @@
         <v/>
       </c>
       <c r="C201" s="4"/>
-      <c r="D201" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E201" s="116" t="s">
-        <v>43</v>
-      </c>
-      <c r="F201" s="106" t="s">
-        <v>33</v>
-      </c>
-      <c r="G201" s="112" t="s">
-        <v>58</v>
-      </c>
+      <c r="E201" s="116"/>
+      <c r="F201" s="106"/>
+      <c r="G201" s="112"/>
       <c r="H201" s="113"/>
       <c r="I201" s="113"/>
       <c r="J201" s="59">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="K201" s="3" t="s">
-        <v>60</v>
-      </c>
+      <c r="K201" s="3"/>
     </row>
     <row r="202" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A202" s="102">
@@ -7312,13 +7065,8 @@
         <v/>
       </c>
       <c r="C202" s="4"/>
-      <c r="D202" s="2" t="s">
-        <v>27</v>
-      </c>
       <c r="E202" s="116"/>
-      <c r="F202" s="106" t="s">
-        <v>33</v>
-      </c>
+      <c r="F202" s="106"/>
       <c r="G202" s="112"/>
       <c r="H202" s="113"/>
       <c r="I202" s="113"/>
@@ -7337,27 +7085,16 @@
         <v/>
       </c>
       <c r="C203" s="4"/>
-      <c r="D203" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E203" s="116" t="s">
-        <v>48</v>
-      </c>
-      <c r="F203" s="106" t="s">
-        <v>33</v>
-      </c>
-      <c r="G203" s="112" t="s">
-        <v>47</v>
-      </c>
+      <c r="E203" s="116"/>
+      <c r="F203" s="106"/>
+      <c r="G203" s="112"/>
       <c r="H203" s="113"/>
       <c r="I203" s="113"/>
       <c r="J203" s="59">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="K203" s="3" t="s">
-        <v>49</v>
-      </c>
+      <c r="K203" s="3"/>
     </row>
     <row r="204" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A204" s="102">
@@ -7371,7 +7108,7 @@
       <c r="D204" s="97"/>
       <c r="E204" s="116"/>
       <c r="F204" s="106" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G204" s="112"/>
       <c r="H204" s="113"/>
@@ -7394,7 +7131,7 @@
       <c r="D205" s="97"/>
       <c r="E205" s="116"/>
       <c r="F205" s="106" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G205" s="112"/>
       <c r="H205" s="113"/>
@@ -7414,7 +7151,7 @@
       </c>
       <c r="F206" s="30"/>
       <c r="G206" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H206" s="37">
         <f>SUM($H$180:$H$182)-SUM($H$183:$H$203)+SUM($H$204:$H$205)</f>
@@ -7469,7 +7206,7 @@
         <v>1</v>
       </c>
       <c r="D209" s="33" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="E209" s="117"/>
       <c r="F209" s="118"/>
@@ -7615,7 +7352,7 @@
       </c>
       <c r="D215" s="2"/>
       <c r="E215" s="120" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="F215" s="121"/>
       <c r="G215" s="122"/>
@@ -7667,7 +7404,7 @@
       </c>
       <c r="D217" s="2"/>
       <c r="E217" s="119" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F217" s="124"/>
       <c r="G217" s="124"/>
@@ -7691,7 +7428,7 @@
       </c>
       <c r="D218" s="2"/>
       <c r="E218" s="32" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F218" s="30"/>
       <c r="H218" s="24">
@@ -7753,7 +7490,7 @@
         <v>1</v>
       </c>
       <c r="E222" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F222" s="28"/>
       <c r="G222" s="17"/>
@@ -7769,18 +7506,18 @@
         <v>1</v>
       </c>
       <c r="E223" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="F223" s="154" t="s">
+        <v>37</v>
+      </c>
+      <c r="G223" s="155"/>
+      <c r="H223" s="154" t="s">
+        <v>38</v>
+      </c>
+      <c r="I223" s="161"/>
+      <c r="J223" s="93" t="s">
         <v>39</v>
-      </c>
-      <c r="F223" s="159" t="s">
-        <v>40</v>
-      </c>
-      <c r="G223" s="160"/>
-      <c r="H223" s="159" t="s">
-        <v>41</v>
-      </c>
-      <c r="I223" s="163"/>
-      <c r="J223" s="93" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="224" spans="1:11" x14ac:dyDescent="0.2">
@@ -7791,10 +7528,10 @@
         <v>1</v>
       </c>
       <c r="E224" s="94"/>
-      <c r="F224" s="161"/>
-      <c r="G224" s="162"/>
-      <c r="H224" s="164"/>
-      <c r="I224" s="165"/>
+      <c r="F224" s="159"/>
+      <c r="G224" s="160"/>
+      <c r="H224" s="162"/>
+      <c r="I224" s="163"/>
       <c r="J224" s="20"/>
     </row>
     <row r="225" spans="1:11" x14ac:dyDescent="0.2">
@@ -7805,10 +7542,10 @@
         <v>1</v>
       </c>
       <c r="E225" s="94"/>
-      <c r="F225" s="159"/>
-      <c r="G225" s="163"/>
-      <c r="H225" s="164"/>
-      <c r="I225" s="165"/>
+      <c r="F225" s="154"/>
+      <c r="G225" s="161"/>
+      <c r="H225" s="162"/>
+      <c r="I225" s="163"/>
       <c r="J225" s="20"/>
     </row>
     <row r="226" spans="1:11" x14ac:dyDescent="0.2">
@@ -7819,10 +7556,10 @@
         <v>1</v>
       </c>
       <c r="E226" s="94"/>
-      <c r="F226" s="159"/>
-      <c r="G226" s="163"/>
-      <c r="H226" s="164"/>
-      <c r="I226" s="165"/>
+      <c r="F226" s="154"/>
+      <c r="G226" s="161"/>
+      <c r="H226" s="162"/>
+      <c r="I226" s="163"/>
       <c r="J226" s="20"/>
     </row>
     <row r="227" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7848,7 +7585,7 @@
         <v>1</v>
       </c>
       <c r="E228" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="G228" s="9"/>
       <c r="H228" s="73"/>
@@ -7863,8 +7600,8 @@
         <f>IF(OR($H229="",$H229=0),"",1)</f>
         <v/>
       </c>
-      <c r="E229" s="156"/>
-      <c r="F229" s="157"/>
+      <c r="E229" s="151"/>
+      <c r="F229" s="152"/>
       <c r="G229" s="125"/>
       <c r="H229" s="126"/>
       <c r="I229" s="126">
@@ -7884,8 +7621,8 @@
         <f>IF(OR($H230="",$H230=0),"",1)</f>
         <v/>
       </c>
-      <c r="E230" s="156"/>
-      <c r="F230" s="157"/>
+      <c r="E230" s="151"/>
+      <c r="F230" s="152"/>
       <c r="G230" s="125"/>
       <c r="H230" s="126"/>
       <c r="I230" s="126">
@@ -7905,8 +7642,8 @@
         <f>IF(OR($H231="",$H231=0),"",1)</f>
         <v/>
       </c>
-      <c r="E231" s="156"/>
-      <c r="F231" s="157"/>
+      <c r="E231" s="151"/>
+      <c r="F231" s="152"/>
       <c r="G231" s="125"/>
       <c r="H231" s="126"/>
       <c r="I231" s="126">
@@ -7926,8 +7663,8 @@
         <f>IF(OR($H232="",$H232=0),"",1)</f>
         <v/>
       </c>
-      <c r="E232" s="156"/>
-      <c r="F232" s="157"/>
+      <c r="E232" s="151"/>
+      <c r="F232" s="152"/>
       <c r="G232" s="125"/>
       <c r="H232" s="126"/>
       <c r="I232" s="126">
@@ -7950,7 +7687,7 @@
       <c r="C233" s="54"/>
       <c r="D233" s="17"/>
       <c r="E233" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F233" s="25"/>
       <c r="G233" s="54"/>
@@ -7970,7 +7707,7 @@
     </row>
     <row r="234" spans="1:11" s="73" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A234" s="103" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="B234" s="98"/>
       <c r="C234" s="84"/>
@@ -7981,7 +7718,7 @@
     </row>
     <row r="235" spans="1:11" s="73" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A235" s="103" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="B235" s="98"/>
       <c r="C235" s="84"/>
@@ -7992,7 +7729,7 @@
     </row>
     <row r="236" spans="1:11" s="73" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A236" s="103" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="B236" s="98"/>
       <c r="C236" s="84"/>
@@ -8002,45 +7739,45 @@
     </row>
     <row r="237" spans="1:11" ht="19.2" x14ac:dyDescent="0.2">
       <c r="A237" s="103" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="B237" s="99">
         <v>9</v>
       </c>
-      <c r="D237" s="155">
+      <c r="D237" s="165">
         <f>$D$1</f>
         <v>43738</v>
       </c>
-      <c r="E237" s="155"/>
-      <c r="F237" s="155"/>
-      <c r="G237" s="155"/>
-      <c r="H237" s="155"/>
-      <c r="I237" s="155"/>
-      <c r="J237" s="155"/>
-      <c r="K237" s="155"/>
+      <c r="E237" s="165"/>
+      <c r="F237" s="165"/>
+      <c r="G237" s="165"/>
+      <c r="H237" s="165"/>
+      <c r="I237" s="165"/>
+      <c r="J237" s="165"/>
+      <c r="K237" s="165"/>
     </row>
     <row r="238" spans="1:11" ht="19.2" x14ac:dyDescent="0.25">
       <c r="A238" s="103" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="B238" s="99">
         <v>9</v>
       </c>
-      <c r="D238" s="152">
+      <c r="D238" s="157">
         <f>$D237+15</f>
         <v>43753</v>
       </c>
-      <c r="E238" s="153"/>
-      <c r="F238" s="153"/>
-      <c r="G238" s="153"/>
-      <c r="H238" s="153"/>
-      <c r="I238" s="153"/>
-      <c r="J238" s="153"/>
+      <c r="E238" s="158"/>
+      <c r="F238" s="158"/>
+      <c r="G238" s="158"/>
+      <c r="H238" s="158"/>
+      <c r="I238" s="158"/>
+      <c r="J238" s="158"/>
       <c r="K238" s="26"/>
     </row>
     <row r="239" spans="1:11" s="73" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A239" s="103" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="B239" s="101">
         <v>9</v>
@@ -8053,34 +7790,34 @@
     </row>
     <row r="240" spans="1:11" s="73" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A240" s="103" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="B240" s="101">
         <v>9</v>
       </c>
       <c r="C240" s="79"/>
-      <c r="D240" s="154" t="s">
-        <v>24</v>
-      </c>
-      <c r="E240" s="154"/>
+      <c r="D240" s="156" t="s">
+        <v>23</v>
+      </c>
+      <c r="E240" s="156"/>
       <c r="F240" s="77"/>
       <c r="G240" s="79" t="s">
         <v>0</v>
       </c>
       <c r="H240" s="77" t="s">
+        <v>10</v>
+      </c>
+      <c r="I240" s="77" t="s">
         <v>11</v>
       </c>
-      <c r="I240" s="77" t="s">
+      <c r="J240" s="77" t="s">
         <v>12</v>
-      </c>
-      <c r="J240" s="77" t="s">
-        <v>13</v>
       </c>
       <c r="K240" s="76"/>
     </row>
     <row r="241" spans="1:11" s="73" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A241" s="103" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="B241" s="101">
         <v>9</v>
@@ -8090,18 +7827,18 @@
         <v>2</v>
       </c>
       <c r="E241" s="78" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F241" s="78"/>
       <c r="G241" s="76"/>
       <c r="H241" s="77" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I241" s="77" t="s">
         <v>4</v>
       </c>
       <c r="J241" s="77" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K241" s="76"/>
     </row>
@@ -8298,18 +8035,18 @@
         <v>1</v>
       </c>
       <c r="D250" s="146" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="E250" s="146"/>
       <c r="F250" s="15"/>
       <c r="G250" s="31" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="H250" s="61" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="I250" s="61" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="J250" s="58" t="str">
         <f t="shared" si="12"/>
@@ -8329,18 +8066,18 @@
         <v/>
       </c>
       <c r="D251" s="146" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="E251" s="146"/>
       <c r="F251" s="15"/>
       <c r="G251" s="31" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="H251" s="61" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="I251" s="61" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="J251" s="58" t="str">
         <f t="shared" si="12"/>
@@ -8360,18 +8097,18 @@
         <v/>
       </c>
       <c r="D252" s="146" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="E252" s="146"/>
       <c r="F252" s="15"/>
       <c r="G252" s="31" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="H252" s="61" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="I252" s="61" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="J252" s="58" t="str">
         <f t="shared" si="12"/>
@@ -8391,18 +8128,18 @@
         <v/>
       </c>
       <c r="D253" s="146" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="E253" s="146"/>
       <c r="F253" s="15"/>
       <c r="G253" s="31" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="H253" s="61" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="I253" s="61" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="J253" s="58" t="str">
         <f t="shared" si="12"/>
@@ -8422,18 +8159,18 @@
         <v/>
       </c>
       <c r="D254" s="146" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="E254" s="146"/>
       <c r="F254" s="15"/>
       <c r="G254" s="31" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="H254" s="61" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="I254" s="61" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="J254" s="58" t="str">
         <f t="shared" si="12"/>
@@ -8453,18 +8190,18 @@
         <v/>
       </c>
       <c r="D255" s="146" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="E255" s="146"/>
       <c r="F255" s="15"/>
       <c r="G255" s="31" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="H255" s="61" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="I255" s="61" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="J255" s="58" t="str">
         <f t="shared" si="12"/>
@@ -8484,18 +8221,18 @@
         <v/>
       </c>
       <c r="D256" s="146" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="E256" s="146"/>
       <c r="F256" s="15"/>
       <c r="G256" s="31" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="H256" s="61" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="I256" s="61" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="J256" s="58" t="str">
         <f t="shared" si="12"/>
@@ -8515,18 +8252,18 @@
         <v/>
       </c>
       <c r="D257" s="146" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="E257" s="146"/>
       <c r="F257" s="15"/>
       <c r="G257" s="31" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="H257" s="61" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="I257" s="61" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="J257" s="58" t="str">
         <f t="shared" si="12"/>
@@ -8546,18 +8283,18 @@
         <v/>
       </c>
       <c r="D258" s="146" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="E258" s="146"/>
       <c r="F258" s="15"/>
       <c r="G258" s="31" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="H258" s="61" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="I258" s="61" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="J258" s="58" t="str">
         <f t="shared" si="12"/>
@@ -8577,18 +8314,18 @@
         <v/>
       </c>
       <c r="D259" s="146" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="E259" s="146"/>
       <c r="F259" s="15"/>
       <c r="G259" s="31" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="H259" s="61" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="I259" s="61" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="J259" s="58" t="str">
         <f t="shared" si="12"/>
@@ -8608,18 +8345,18 @@
         <v/>
       </c>
       <c r="D260" s="146" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="E260" s="146"/>
       <c r="F260" s="15"/>
       <c r="G260" s="31" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="H260" s="61" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="I260" s="61" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="J260" s="58" t="str">
         <f t="shared" si="12"/>
@@ -8639,18 +8376,18 @@
         <v/>
       </c>
       <c r="D261" s="146" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="E261" s="146"/>
       <c r="F261" s="15"/>
       <c r="G261" s="31" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="H261" s="61" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="I261" s="61" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="J261" s="58" t="str">
         <f t="shared" si="12"/>
@@ -8670,18 +8407,18 @@
         <v/>
       </c>
       <c r="D262" s="146" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="E262" s="146"/>
       <c r="F262" s="15"/>
       <c r="G262" s="31" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="H262" s="61" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="I262" s="61" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="J262" s="58" t="str">
         <f t="shared" si="12"/>
@@ -8701,18 +8438,18 @@
         <v/>
       </c>
       <c r="D263" s="146" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="E263" s="146"/>
       <c r="F263" s="15"/>
       <c r="G263" s="31" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="H263" s="61" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="I263" s="61" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="J263" s="58" t="str">
         <f t="shared" si="12"/>
@@ -8732,18 +8469,18 @@
         <v/>
       </c>
       <c r="D264" s="146" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="E264" s="146"/>
       <c r="F264" s="15"/>
       <c r="G264" s="31" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="H264" s="61" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="I264" s="61" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="J264" s="58" t="str">
         <f t="shared" si="12"/>
@@ -8763,18 +8500,18 @@
         <v/>
       </c>
       <c r="D265" s="146" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="E265" s="146"/>
       <c r="F265" s="15"/>
       <c r="G265" s="31" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="H265" s="61" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="I265" s="61" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="J265" s="58" t="str">
         <f t="shared" si="12"/>
@@ -8794,18 +8531,18 @@
         <v/>
       </c>
       <c r="D266" s="146" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="E266" s="146"/>
       <c r="F266" s="15"/>
       <c r="G266" s="31" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="H266" s="61" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="I266" s="61" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="J266" s="58" t="str">
         <f t="shared" si="12"/>
@@ -8825,18 +8562,18 @@
         <v/>
       </c>
       <c r="D267" s="146" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="E267" s="146"/>
       <c r="F267" s="15"/>
       <c r="G267" s="31" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="H267" s="61" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="I267" s="61" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="J267" s="58" t="str">
         <f t="shared" si="12"/>
@@ -8856,18 +8593,18 @@
         <v/>
       </c>
       <c r="D268" s="146" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="E268" s="146"/>
       <c r="F268" s="15"/>
       <c r="G268" s="31" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="H268" s="61" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="I268" s="61" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="J268" s="58" t="str">
         <f t="shared" si="12"/>
@@ -8887,18 +8624,18 @@
         <v/>
       </c>
       <c r="D269" s="146" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="E269" s="146"/>
       <c r="F269" s="15"/>
       <c r="G269" s="31" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="H269" s="61" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="I269" s="61" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="J269" s="58" t="str">
         <f t="shared" si="12"/>
@@ -8918,18 +8655,18 @@
         <v/>
       </c>
       <c r="D270" s="146" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="E270" s="146"/>
       <c r="F270" s="15"/>
       <c r="G270" s="31" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="H270" s="61" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="I270" s="61" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="J270" s="58" t="str">
         <f t="shared" si="12"/>
@@ -8949,18 +8686,18 @@
         <v/>
       </c>
       <c r="D271" s="146" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="E271" s="146"/>
       <c r="F271" s="15"/>
       <c r="G271" s="31" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="H271" s="61" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="I271" s="61" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="J271" s="58" t="str">
         <f t="shared" si="12"/>
@@ -8980,18 +8717,18 @@
         <v/>
       </c>
       <c r="D272" s="146" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="E272" s="146"/>
       <c r="F272" s="15"/>
       <c r="G272" s="31" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="H272" s="61" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="I272" s="61" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="J272" s="58" t="str">
         <f t="shared" si="12"/>
@@ -9012,7 +8749,7 @@
       </c>
       <c r="D273" s="5"/>
       <c r="E273" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F273" s="2"/>
       <c r="G273" s="12"/>
@@ -9071,7 +8808,7 @@
         <v/>
       </c>
       <c r="E276" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F276" s="4"/>
       <c r="G276" s="106"/>
@@ -9089,7 +8826,7 @@
         <v/>
       </c>
       <c r="E277" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F277" s="4"/>
       <c r="G277" s="106"/>
@@ -9107,7 +8844,7 @@
         <v/>
       </c>
       <c r="E278" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F278" s="4"/>
       <c r="G278" s="106"/>
@@ -9127,7 +8864,7 @@
       <c r="E279" s="30"/>
       <c r="F279" s="30"/>
       <c r="G279" s="6" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="H279" s="40">
         <f>$H$273+$H$276+$H$277-$H$278</f>
@@ -9152,11 +8889,11 @@
         <v/>
       </c>
       <c r="D280" s="8" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E280" s="129"/>
       <c r="F280" s="106" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G280" s="130"/>
       <c r="H280" s="131"/>
@@ -9178,7 +8915,7 @@
       <c r="D281" s="7"/>
       <c r="E281" s="132"/>
       <c r="F281" s="106" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G281" s="106"/>
       <c r="H281" s="131"/>
@@ -9198,11 +8935,11 @@
         <v/>
       </c>
       <c r="D282" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E282" s="133"/>
       <c r="F282" s="106" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G282" s="106"/>
       <c r="H282" s="131"/>
@@ -9223,7 +8960,7 @@
       </c>
       <c r="E283" s="132"/>
       <c r="F283" s="106" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G283" s="106"/>
       <c r="H283" s="131"/>
@@ -9245,7 +8982,7 @@
       <c r="D284" s="7"/>
       <c r="E284" s="132"/>
       <c r="F284" s="106" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G284" s="106"/>
       <c r="H284" s="131"/>
@@ -9265,11 +9002,11 @@
         <v/>
       </c>
       <c r="D285" s="8" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E285" s="133"/>
       <c r="F285" s="106" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G285" s="130"/>
       <c r="H285" s="131"/>
@@ -9291,7 +9028,7 @@
       <c r="D286" s="7"/>
       <c r="E286" s="132"/>
       <c r="F286" s="106" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G286" s="106"/>
       <c r="H286" s="131"/>
@@ -9313,7 +9050,7 @@
       <c r="D287" s="7"/>
       <c r="E287" s="132"/>
       <c r="F287" s="106" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G287" s="106"/>
       <c r="H287" s="131"/>
@@ -9333,11 +9070,11 @@
         <v/>
       </c>
       <c r="D288" s="8" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E288" s="133"/>
       <c r="F288" s="106" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G288" s="130"/>
       <c r="H288" s="131"/>
@@ -9359,7 +9096,7 @@
       <c r="D289" s="7"/>
       <c r="E289" s="132"/>
       <c r="F289" s="106" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G289" s="106"/>
       <c r="H289" s="131"/>
@@ -9381,7 +9118,7 @@
       <c r="D290" s="7"/>
       <c r="E290" s="132"/>
       <c r="F290" s="106" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G290" s="106"/>
       <c r="H290" s="131"/>
@@ -9401,11 +9138,11 @@
         <v/>
       </c>
       <c r="D291" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E291" s="134"/>
       <c r="F291" s="106" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G291" s="106"/>
       <c r="H291" s="131"/>
@@ -9425,11 +9162,11 @@
         <v/>
       </c>
       <c r="D292" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E292" s="134"/>
       <c r="F292" s="106" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G292" s="106"/>
       <c r="H292" s="131"/>
@@ -9451,7 +9188,7 @@
       <c r="D293" s="5"/>
       <c r="E293" s="135"/>
       <c r="F293" s="106" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G293" s="130"/>
       <c r="H293" s="131"/>
@@ -9473,7 +9210,7 @@
       <c r="D294" s="5"/>
       <c r="E294" s="135"/>
       <c r="F294" s="106" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G294" s="130"/>
       <c r="H294" s="131"/>
@@ -9495,7 +9232,7 @@
       <c r="E295" s="30"/>
       <c r="F295" s="30"/>
       <c r="G295" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H295" s="43">
         <f>SUM($H$279:$H$281)-SUM($H$282:$H$292)+SUM($H$293:$H$294)</f>
@@ -9553,7 +9290,7 @@
         <v>1</v>
       </c>
       <c r="D298" s="33" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="E298" s="117"/>
       <c r="F298" s="118"/>
@@ -9693,7 +9430,7 @@
         <v>1</v>
       </c>
       <c r="E304" s="120" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="F304" s="121"/>
       <c r="G304" s="122"/>
@@ -9743,7 +9480,7 @@
         <v>1</v>
       </c>
       <c r="E306" s="123" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F306" s="124"/>
       <c r="G306" s="124"/>
@@ -9767,7 +9504,7 @@
         <v>1</v>
       </c>
       <c r="E307" s="32" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F307" s="30"/>
       <c r="H307" s="46">
@@ -9786,7 +9523,7 @@
     </row>
     <row r="308" spans="1:11" s="73" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A308" s="103" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="B308" s="98"/>
       <c r="C308" s="84"/>
@@ -9796,7 +9533,7 @@
     </row>
     <row r="309" spans="1:11" s="73" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A309" s="103" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="B309" s="98"/>
       <c r="C309" s="84"/>
@@ -9806,7 +9543,7 @@
     </row>
     <row r="310" spans="1:11" s="73" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A310" s="103" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="B310" s="98"/>
       <c r="C310" s="84"/>
@@ -9816,45 +9553,45 @@
     </row>
     <row r="311" spans="1:11" ht="19.2" x14ac:dyDescent="0.2">
       <c r="A311" s="103" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="B311" s="99">
         <v>9</v>
       </c>
-      <c r="D311" s="151">
+      <c r="D311" s="164">
         <f>$D$1</f>
         <v>43738</v>
       </c>
-      <c r="E311" s="151"/>
-      <c r="F311" s="151"/>
-      <c r="G311" s="151"/>
-      <c r="H311" s="151"/>
-      <c r="I311" s="151"/>
-      <c r="J311" s="151"/>
-      <c r="K311" s="151"/>
+      <c r="E311" s="164"/>
+      <c r="F311" s="164"/>
+      <c r="G311" s="164"/>
+      <c r="H311" s="164"/>
+      <c r="I311" s="164"/>
+      <c r="J311" s="164"/>
+      <c r="K311" s="164"/>
     </row>
     <row r="312" spans="1:11" ht="19.2" x14ac:dyDescent="0.25">
       <c r="A312" s="103" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="B312" s="99">
         <v>9</v>
       </c>
-      <c r="D312" s="152">
+      <c r="D312" s="157">
         <f>$D311+15</f>
         <v>43753</v>
       </c>
-      <c r="E312" s="153"/>
-      <c r="F312" s="153"/>
-      <c r="G312" s="153"/>
-      <c r="H312" s="153"/>
-      <c r="I312" s="153"/>
-      <c r="J312" s="153"/>
+      <c r="E312" s="158"/>
+      <c r="F312" s="158"/>
+      <c r="G312" s="158"/>
+      <c r="H312" s="158"/>
+      <c r="I312" s="158"/>
+      <c r="J312" s="158"/>
       <c r="K312" s="26"/>
     </row>
     <row r="313" spans="1:11" s="73" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A313" s="103" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="B313" s="101">
         <v>9</v>
@@ -9867,34 +9604,34 @@
     </row>
     <row r="314" spans="1:11" s="73" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A314" s="103" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="B314" s="101">
         <v>9</v>
       </c>
       <c r="C314" s="79"/>
-      <c r="D314" s="154" t="s">
-        <v>24</v>
-      </c>
-      <c r="E314" s="154"/>
+      <c r="D314" s="156" t="s">
+        <v>23</v>
+      </c>
+      <c r="E314" s="156"/>
       <c r="F314" s="77"/>
       <c r="G314" s="79" t="s">
         <v>0</v>
       </c>
       <c r="H314" s="77" t="s">
+        <v>10</v>
+      </c>
+      <c r="I314" s="77" t="s">
         <v>11</v>
       </c>
-      <c r="I314" s="77" t="s">
+      <c r="J314" s="77" t="s">
         <v>12</v>
-      </c>
-      <c r="J314" s="77" t="s">
-        <v>13</v>
       </c>
       <c r="K314" s="76"/>
     </row>
     <row r="315" spans="1:11" s="73" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A315" s="103" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="B315" s="101">
         <v>9</v>
@@ -9904,18 +9641,18 @@
         <v>2</v>
       </c>
       <c r="E315" s="78" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F315" s="78"/>
       <c r="G315" s="76"/>
       <c r="H315" s="77" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I315" s="77" t="s">
         <v>4</v>
       </c>
       <c r="J315" s="77" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K315" s="76"/>
     </row>
@@ -10020,7 +9757,7 @@
         <v>1</v>
       </c>
       <c r="D320" s="146" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="E320" s="146"/>
       <c r="F320" s="15"/>
@@ -10045,7 +9782,7 @@
         <v>1</v>
       </c>
       <c r="D321" s="146" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="E321" s="146"/>
       <c r="F321" s="15"/>
@@ -10070,18 +9807,18 @@
         <v>1</v>
       </c>
       <c r="D322" s="146" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="E322" s="146"/>
       <c r="F322" s="15"/>
       <c r="G322" s="31" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="H322" s="61" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="I322" s="61" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="J322" s="58" t="str">
         <f t="shared" si="19"/>
@@ -10101,18 +9838,18 @@
         <v/>
       </c>
       <c r="D323" s="146" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="E323" s="146"/>
       <c r="F323" s="15"/>
       <c r="G323" s="31" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="H323" s="61" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="I323" s="61" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="J323" s="58" t="str">
         <f t="shared" si="19"/>
@@ -10132,18 +9869,18 @@
         <v/>
       </c>
       <c r="D324" s="146" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="E324" s="146"/>
       <c r="F324" s="15"/>
       <c r="G324" s="31" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="H324" s="61" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="I324" s="61" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="J324" s="58" t="str">
         <f t="shared" si="19"/>
@@ -10163,18 +9900,18 @@
         <v/>
       </c>
       <c r="D325" s="146" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="E325" s="146"/>
       <c r="F325" s="15"/>
       <c r="G325" s="31" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="H325" s="61" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="I325" s="61" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="J325" s="58" t="str">
         <f t="shared" si="19"/>
@@ -10194,18 +9931,18 @@
         <v/>
       </c>
       <c r="D326" s="146" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="E326" s="146"/>
       <c r="F326" s="15"/>
       <c r="G326" s="31" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="H326" s="61" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="I326" s="61" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="J326" s="58" t="str">
         <f t="shared" si="19"/>
@@ -10225,18 +9962,18 @@
         <v/>
       </c>
       <c r="D327" s="146" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="E327" s="146"/>
       <c r="F327" s="15"/>
       <c r="G327" s="31" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="H327" s="61" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="I327" s="61" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="J327" s="58" t="str">
         <f t="shared" si="19"/>
@@ -10256,18 +9993,18 @@
         <v/>
       </c>
       <c r="D328" s="146" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="E328" s="146"/>
       <c r="F328" s="15"/>
       <c r="G328" s="31" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="H328" s="61" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="I328" s="61" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="J328" s="58" t="str">
         <f t="shared" si="19"/>
@@ -10287,18 +10024,18 @@
         <v/>
       </c>
       <c r="D329" s="146" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="E329" s="146"/>
       <c r="F329" s="15"/>
       <c r="G329" s="31" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="H329" s="61" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="I329" s="61" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="J329" s="58" t="str">
         <f t="shared" si="19"/>
@@ -10318,18 +10055,18 @@
         <v/>
       </c>
       <c r="D330" s="146" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="E330" s="146"/>
       <c r="F330" s="15"/>
       <c r="G330" s="31" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="H330" s="61" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="I330" s="61" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="J330" s="58" t="str">
         <f t="shared" si="19"/>
@@ -10349,18 +10086,18 @@
         <v/>
       </c>
       <c r="D331" s="146" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="E331" s="146"/>
       <c r="F331" s="15"/>
       <c r="G331" s="31" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="H331" s="61" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="I331" s="61" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="J331" s="58" t="str">
         <f t="shared" si="19"/>
@@ -10380,18 +10117,18 @@
         <v/>
       </c>
       <c r="D332" s="146" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="E332" s="146"/>
       <c r="F332" s="15"/>
       <c r="G332" s="31" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="H332" s="61" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="I332" s="61" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="J332" s="58" t="str">
         <f t="shared" si="19"/>
@@ -10411,18 +10148,18 @@
         <v/>
       </c>
       <c r="D333" s="146" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="E333" s="146"/>
       <c r="F333" s="15"/>
       <c r="G333" s="31" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="H333" s="61" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="I333" s="61" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="J333" s="58" t="str">
         <f t="shared" si="19"/>
@@ -10442,18 +10179,18 @@
         <v/>
       </c>
       <c r="D334" s="146" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="E334" s="146"/>
       <c r="F334" s="15"/>
       <c r="G334" s="31" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="H334" s="61" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="I334" s="61" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="J334" s="58" t="str">
         <f t="shared" si="19"/>
@@ -10473,18 +10210,18 @@
         <v/>
       </c>
       <c r="D335" s="146" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="E335" s="146"/>
       <c r="F335" s="15"/>
       <c r="G335" s="31" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="H335" s="61" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="I335" s="61" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="J335" s="58" t="str">
         <f t="shared" si="19"/>
@@ -10504,18 +10241,18 @@
         <v/>
       </c>
       <c r="D336" s="146" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="E336" s="146"/>
       <c r="F336" s="15"/>
       <c r="G336" s="31" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="H336" s="61" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="I336" s="61" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="J336" s="58" t="str">
         <f t="shared" si="19"/>
@@ -10535,18 +10272,18 @@
         <v/>
       </c>
       <c r="D337" s="146" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="E337" s="146"/>
       <c r="F337" s="15"/>
       <c r="G337" s="31" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="H337" s="61" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="I337" s="61" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="J337" s="58" t="str">
         <f t="shared" si="19"/>
@@ -10566,18 +10303,18 @@
         <v/>
       </c>
       <c r="D338" s="146" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="E338" s="146"/>
       <c r="F338" s="15"/>
       <c r="G338" s="31" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="H338" s="61" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="I338" s="61" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="J338" s="58" t="str">
         <f t="shared" si="19"/>
@@ -10597,18 +10334,18 @@
         <v/>
       </c>
       <c r="D339" s="146" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="E339" s="146"/>
       <c r="F339" s="15"/>
       <c r="G339" s="31" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="H339" s="61" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="I339" s="61" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="J339" s="58" t="str">
         <f t="shared" si="19"/>
@@ -10628,18 +10365,18 @@
         <v/>
       </c>
       <c r="D340" s="146" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="E340" s="146"/>
       <c r="F340" s="15"/>
       <c r="G340" s="31" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="H340" s="61" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="I340" s="61" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="J340" s="58" t="str">
         <f t="shared" si="19"/>
@@ -10659,18 +10396,18 @@
         <v/>
       </c>
       <c r="D341" s="146" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="E341" s="146"/>
       <c r="F341" s="15"/>
       <c r="G341" s="31" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="H341" s="61" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="I341" s="61" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="J341" s="58" t="str">
         <f t="shared" si="19"/>
@@ -10690,18 +10427,18 @@
         <v/>
       </c>
       <c r="D342" s="146" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="E342" s="146"/>
       <c r="F342" s="15"/>
       <c r="G342" s="31" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="H342" s="61" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="I342" s="61" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="J342" s="58" t="str">
         <f t="shared" si="19"/>
@@ -10721,18 +10458,18 @@
         <v/>
       </c>
       <c r="D343" s="146" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="E343" s="146"/>
       <c r="F343" s="15"/>
       <c r="G343" s="31" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="H343" s="61" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="I343" s="61" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="J343" s="58" t="str">
         <f t="shared" si="19"/>
@@ -10752,18 +10489,18 @@
         <v/>
       </c>
       <c r="D344" s="146" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="E344" s="146"/>
       <c r="F344" s="15"/>
       <c r="G344" s="31" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="H344" s="61" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="I344" s="61" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="J344" s="58" t="str">
         <f t="shared" si="19"/>
@@ -10783,18 +10520,18 @@
         <v/>
       </c>
       <c r="D345" s="146" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="E345" s="146"/>
       <c r="F345" s="15"/>
       <c r="G345" s="31" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="H345" s="61" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="I345" s="61" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="J345" s="58" t="str">
         <f t="shared" si="19"/>
@@ -10814,18 +10551,18 @@
         <v/>
       </c>
       <c r="D346" s="146" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="E346" s="146"/>
       <c r="F346" s="15"/>
       <c r="G346" s="31" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="H346" s="61" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="I346" s="61" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="J346" s="58" t="str">
         <f t="shared" si="19"/>
@@ -10846,7 +10583,7 @@
       </c>
       <c r="D347" s="83"/>
       <c r="E347" s="75" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F347" s="2"/>
       <c r="G347" s="12"/>
@@ -10906,7 +10643,7 @@
       </c>
       <c r="D350" s="73"/>
       <c r="E350" s="84" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F350" s="4"/>
       <c r="G350" s="106"/>
@@ -10925,7 +10662,7 @@
       </c>
       <c r="D351" s="73"/>
       <c r="E351" s="84" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F351" s="4"/>
       <c r="G351" s="106"/>
@@ -10944,7 +10681,7 @@
       </c>
       <c r="D352" s="73"/>
       <c r="E352" s="84" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F352" s="4"/>
       <c r="G352" s="106"/>
@@ -10965,7 +10702,7 @@
       <c r="E353" s="80"/>
       <c r="F353" s="30"/>
       <c r="G353" s="6" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="H353" s="48">
         <f>$H$347+$H$350+$H$351-$H$352</f>
@@ -10990,11 +10727,11 @@
         <v/>
       </c>
       <c r="D354" s="85" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E354" s="129"/>
       <c r="F354" s="106" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G354" s="130"/>
       <c r="H354" s="131"/>
@@ -11016,7 +10753,7 @@
       <c r="D355" s="86"/>
       <c r="E355" s="132"/>
       <c r="F355" s="106" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G355" s="106"/>
       <c r="H355" s="131"/>
@@ -11036,11 +10773,11 @@
         <v/>
       </c>
       <c r="D356" s="85" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E356" s="133"/>
       <c r="F356" s="106" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G356" s="106"/>
       <c r="H356" s="131"/>
@@ -11062,7 +10799,7 @@
       <c r="D357" s="73"/>
       <c r="E357" s="132"/>
       <c r="F357" s="106" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G357" s="106"/>
       <c r="H357" s="131"/>
@@ -11084,7 +10821,7 @@
       <c r="D358" s="86"/>
       <c r="E358" s="132"/>
       <c r="F358" s="106" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G358" s="106"/>
       <c r="H358" s="131"/>
@@ -11104,11 +10841,11 @@
         <v/>
       </c>
       <c r="D359" s="85" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E359" s="133"/>
       <c r="F359" s="106" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G359" s="130"/>
       <c r="H359" s="131"/>
@@ -11130,7 +10867,7 @@
       <c r="D360" s="86"/>
       <c r="E360" s="132"/>
       <c r="F360" s="106" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G360" s="106"/>
       <c r="H360" s="131"/>
@@ -11152,7 +10889,7 @@
       <c r="D361" s="86"/>
       <c r="E361" s="132"/>
       <c r="F361" s="106" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G361" s="106"/>
       <c r="H361" s="131"/>
@@ -11172,11 +10909,11 @@
         <v/>
       </c>
       <c r="D362" s="85" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E362" s="133"/>
       <c r="F362" s="106" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G362" s="130"/>
       <c r="H362" s="131"/>
@@ -11198,7 +10935,7 @@
       <c r="D363" s="86"/>
       <c r="E363" s="132"/>
       <c r="F363" s="106" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G363" s="106"/>
       <c r="H363" s="131"/>
@@ -11220,7 +10957,7 @@
       <c r="D364" s="86"/>
       <c r="E364" s="132"/>
       <c r="F364" s="106" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G364" s="106"/>
       <c r="H364" s="131"/>
@@ -11240,11 +10977,11 @@
         <v/>
       </c>
       <c r="D365" s="75" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E365" s="134"/>
       <c r="F365" s="106" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G365" s="130"/>
       <c r="H365" s="131"/>
@@ -11264,11 +11001,11 @@
         <v/>
       </c>
       <c r="D366" s="75" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E366" s="135"/>
       <c r="F366" s="106" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G366" s="112"/>
       <c r="H366" s="131"/>
@@ -11290,7 +11027,7 @@
       <c r="D367" s="83"/>
       <c r="E367" s="135"/>
       <c r="F367" s="106" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G367" s="130"/>
       <c r="H367" s="131"/>
@@ -11312,7 +11049,7 @@
       <c r="D368" s="83"/>
       <c r="E368" s="135"/>
       <c r="F368" s="106" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G368" s="130"/>
       <c r="H368" s="131"/>
@@ -11335,7 +11072,7 @@
       <c r="E369" s="80"/>
       <c r="F369" s="30"/>
       <c r="G369" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H369" s="51">
         <f>SUM($H$353:$H$355)-SUM($H$356:$H$366)+SUM($H$367:$H$368)</f>
@@ -11393,7 +11130,7 @@
         <v>1</v>
       </c>
       <c r="D372" s="87" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="E372" s="136"/>
       <c r="F372" s="118"/>
@@ -11539,7 +11276,7 @@
       </c>
       <c r="D378" s="73"/>
       <c r="E378" s="138" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="F378" s="121"/>
       <c r="G378" s="122"/>
@@ -11591,7 +11328,7 @@
       </c>
       <c r="D380" s="73"/>
       <c r="E380" s="139" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F380" s="124"/>
       <c r="G380" s="124"/>
@@ -11616,7 +11353,7 @@
       </c>
       <c r="D381" s="73"/>
       <c r="E381" s="81" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F381" s="30"/>
       <c r="H381" s="47">
@@ -11647,6 +11384,12 @@
   <autoFilter ref="A6:J381" xr:uid="{00000000-0009-0000-0000-000009000000}"/>
   <dataConsolidate/>
   <mergeCells count="21">
+    <mergeCell ref="D311:K311"/>
+    <mergeCell ref="D312:J312"/>
+    <mergeCell ref="D314:E314"/>
+    <mergeCell ref="D237:K237"/>
+    <mergeCell ref="D238:J238"/>
+    <mergeCell ref="D240:E240"/>
     <mergeCell ref="E230:F230"/>
     <mergeCell ref="E231:F231"/>
     <mergeCell ref="E232:F232"/>
@@ -11662,12 +11405,6 @@
     <mergeCell ref="H224:I224"/>
     <mergeCell ref="H225:I225"/>
     <mergeCell ref="H226:I226"/>
-    <mergeCell ref="D311:K311"/>
-    <mergeCell ref="D312:J312"/>
-    <mergeCell ref="D314:E314"/>
-    <mergeCell ref="D237:K237"/>
-    <mergeCell ref="D238:J238"/>
-    <mergeCell ref="D240:E240"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.70866141732283472" right="0" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.15748031496062992"/>

--- a/01_kidsweb/home/kids2/tmp/inv/aggregate.xlsx
+++ b/01_kidsweb/home/kids2/tmp/inv/aggregate.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22730"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\solcom\Desktop\Git\KIDS\01_kidsweb\home\kids2\tmp\inv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED8993E6-8742-4180-8E43-D4597E126F14}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{349D49FF-3C34-4451-898A-9EDA42B9FAB5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="813" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="853" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="851" uniqueCount="60">
   <si>
     <t>請求書№</t>
     <rPh sb="0" eb="3">
@@ -371,24 +371,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>39-B06026</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>5000/ボーイズトイ事業部</t>
-    <rPh sb="11" eb="13">
-      <t>ジギョウ</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>ブ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>8/15回収予定</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>xxx</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -430,16 +412,6 @@
       </rPr>
       <t>+BNE）</t>
     </r>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>　　　　/　　　　　事業部</t>
-    <rPh sb="10" eb="12">
-      <t>ジギョウ</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>ブ</t>
-    </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -516,25 +488,21 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <r>
-      <t>K</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>WG No</t>
-    </r>
+    <t>　　　　/　　　　　事業部</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>顧客No</t>
-    <rPh sb="0" eb="2">
-      <t>コキャク</t>
+    <t>　　　　/　　　　　事業部</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>KWGNo.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>納品書No.</t>
+    <rPh sb="0" eb="3">
+      <t>ノウヒンショ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1052,20 +1020,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="181" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="180" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" shrinkToFit="1"/>
@@ -1083,6 +1046,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1094,15 +1064,13 @@
     <xf numFmtId="178" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="181" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="180" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1543,8 +1511,8 @@
   <dimension ref="A1:M383"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A316" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N338" sqref="N338"/>
+      <pane ySplit="6" topLeftCell="A300" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P307" sqref="P307"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" outlineLevelRow="1" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
@@ -1564,32 +1532,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D1" s="159">
+      <c r="D1" s="158">
         <v>43738</v>
       </c>
-      <c r="E1" s="159"/>
-      <c r="F1" s="159"/>
-      <c r="G1" s="159"/>
-      <c r="H1" s="159"/>
-      <c r="I1" s="159"/>
-      <c r="J1" s="159"/>
-      <c r="K1" s="159"/>
-      <c r="L1" s="159"/>
-      <c r="M1" s="159"/>
+      <c r="E1" s="158"/>
+      <c r="F1" s="158"/>
+      <c r="G1" s="158"/>
+      <c r="H1" s="158"/>
+      <c r="I1" s="158"/>
+      <c r="J1" s="158"/>
+      <c r="K1" s="158"/>
+      <c r="L1" s="158"/>
+      <c r="M1" s="158"/>
     </row>
     <row r="2" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D2" s="153">
+      <c r="D2" s="162">
         <f>$D1+15</f>
         <v>43753</v>
       </c>
-      <c r="E2" s="154"/>
-      <c r="F2" s="154"/>
-      <c r="G2" s="154"/>
-      <c r="H2" s="154"/>
-      <c r="I2" s="154"/>
-      <c r="J2" s="154"/>
-      <c r="K2" s="154"/>
-      <c r="L2" s="154"/>
+      <c r="E2" s="163"/>
+      <c r="F2" s="163"/>
+      <c r="G2" s="163"/>
+      <c r="H2" s="163"/>
+      <c r="I2" s="163"/>
+      <c r="J2" s="163"/>
+      <c r="K2" s="163"/>
+      <c r="L2" s="163"/>
     </row>
     <row r="3" spans="1:13" s="77" customFormat="1" ht="12.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A3" s="77" t="s">
@@ -1599,7 +1567,7 @@
         <v>4</v>
       </c>
       <c r="C3" s="79" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D3" s="78" t="s">
         <v>5</v>
@@ -1617,19 +1585,19 @@
         <v>9</v>
       </c>
       <c r="I3" s="151" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J3" s="151" t="s">
+        <v>43</v>
+      </c>
+      <c r="K3" s="151" t="s">
         <v>46</v>
       </c>
-      <c r="K3" s="151" t="s">
-        <v>50</v>
-      </c>
       <c r="L3" s="77" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="M3" s="77" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:13" s="77" customFormat="1" ht="12.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1676,18 +1644,18 @@
     <row r="5" spans="1:13" s="77" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="140"/>
       <c r="C5" s="79"/>
-      <c r="D5" s="155" t="s">
+      <c r="D5" s="161" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="155"/>
+      <c r="E5" s="161"/>
       <c r="G5" s="79" t="s">
         <v>0</v>
       </c>
-      <c r="H5" s="170" t="s">
-        <v>60</v>
-      </c>
-      <c r="I5" s="170" t="s">
-        <v>61</v>
+      <c r="H5" s="155" t="s">
+        <v>58</v>
+      </c>
+      <c r="I5" s="155" t="s">
+        <v>59</v>
       </c>
       <c r="J5" s="77" t="s">
         <v>10</v>
@@ -1704,10 +1672,10 @@
       <c r="A6" s="140"/>
       <c r="C6" s="79"/>
       <c r="D6" s="143" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E6" s="143" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F6" s="78"/>
       <c r="G6" s="76"/>
@@ -2526,20 +2494,20 @@
         <v>1</v>
       </c>
       <c r="D43" s="146" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E43" s="146"/>
       <c r="F43" s="15"/>
       <c r="G43" s="31" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="H43" s="31"/>
       <c r="I43" s="31"/>
       <c r="J43" s="58" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="K43" s="58" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="L43" s="58" t="str">
         <f t="shared" si="0"/>
@@ -2556,20 +2524,20 @@
         <v/>
       </c>
       <c r="D44" s="146" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E44" s="146"/>
       <c r="F44" s="15"/>
       <c r="G44" s="31" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="H44" s="31"/>
       <c r="I44" s="31"/>
       <c r="J44" s="58" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="K44" s="58" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="L44" s="58" t="str">
         <f t="shared" si="0"/>
@@ -2586,20 +2554,20 @@
         <v/>
       </c>
       <c r="D45" s="146" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E45" s="146"/>
       <c r="F45" s="15"/>
       <c r="G45" s="31" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="H45" s="31"/>
       <c r="I45" s="31"/>
       <c r="J45" s="58" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="K45" s="58" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="L45" s="58" t="str">
         <f t="shared" si="0"/>
@@ -2616,20 +2584,20 @@
         <v/>
       </c>
       <c r="D46" s="146" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E46" s="146"/>
       <c r="F46" s="15"/>
       <c r="G46" s="31" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="H46" s="31"/>
       <c r="I46" s="31"/>
       <c r="J46" s="58" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="K46" s="58" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="L46" s="58" t="str">
         <f t="shared" si="0"/>
@@ -2646,20 +2614,20 @@
         <v/>
       </c>
       <c r="D47" s="146" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E47" s="146"/>
       <c r="F47" s="15"/>
       <c r="G47" s="31" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="H47" s="31"/>
       <c r="I47" s="31"/>
       <c r="J47" s="58" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="K47" s="58" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="L47" s="58" t="str">
         <f t="shared" si="0"/>
@@ -2676,20 +2644,20 @@
         <v/>
       </c>
       <c r="D48" s="146" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E48" s="146"/>
       <c r="F48" s="15"/>
       <c r="G48" s="31" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="H48" s="31"/>
       <c r="I48" s="31"/>
       <c r="J48" s="58" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="K48" s="58" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="L48" s="58" t="str">
         <f t="shared" si="0"/>
@@ -2706,20 +2674,20 @@
         <v/>
       </c>
       <c r="D49" s="146" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E49" s="146"/>
       <c r="F49" s="15"/>
       <c r="G49" s="31" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="H49" s="31"/>
       <c r="I49" s="31"/>
       <c r="J49" s="58" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="K49" s="58" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="L49" s="58" t="str">
         <f t="shared" si="0"/>
@@ -2736,20 +2704,20 @@
         <v/>
       </c>
       <c r="D50" s="146" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E50" s="146"/>
       <c r="F50" s="15"/>
       <c r="G50" s="31" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="H50" s="31"/>
       <c r="I50" s="31"/>
       <c r="J50" s="58" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="K50" s="58" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="L50" s="58" t="str">
         <f t="shared" si="0"/>
@@ -2766,20 +2734,20 @@
         <v/>
       </c>
       <c r="D51" s="146" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E51" s="146"/>
       <c r="F51" s="15"/>
       <c r="G51" s="31" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="H51" s="31"/>
       <c r="I51" s="31"/>
       <c r="J51" s="58" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="K51" s="58" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="L51" s="58" t="str">
         <f t="shared" si="0"/>
@@ -2796,20 +2764,20 @@
         <v/>
       </c>
       <c r="D52" s="146" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E52" s="146"/>
       <c r="F52" s="15"/>
       <c r="G52" s="31" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="H52" s="31"/>
       <c r="I52" s="31"/>
       <c r="J52" s="58" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="K52" s="58" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="L52" s="58" t="str">
         <f t="shared" si="0"/>
@@ -2826,20 +2794,20 @@
         <v/>
       </c>
       <c r="D53" s="146" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E53" s="146"/>
       <c r="F53" s="15"/>
       <c r="G53" s="31" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="H53" s="31"/>
       <c r="I53" s="31"/>
       <c r="J53" s="58" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="K53" s="58" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="L53" s="58" t="str">
         <f t="shared" si="0"/>
@@ -2856,20 +2824,20 @@
         <v/>
       </c>
       <c r="D54" s="146" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E54" s="146"/>
       <c r="F54" s="15"/>
       <c r="G54" s="31" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="H54" s="31"/>
       <c r="I54" s="31"/>
       <c r="J54" s="58" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="K54" s="58" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="L54" s="58" t="str">
         <f t="shared" si="0"/>
@@ -2886,20 +2854,20 @@
         <v/>
       </c>
       <c r="D55" s="146" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E55" s="146"/>
       <c r="F55" s="15"/>
       <c r="G55" s="31" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="H55" s="31"/>
       <c r="I55" s="31"/>
       <c r="J55" s="58" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="K55" s="58" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="L55" s="58" t="str">
         <f t="shared" si="0"/>
@@ -2916,20 +2884,20 @@
         <v/>
       </c>
       <c r="D56" s="146" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E56" s="146"/>
       <c r="F56" s="15"/>
       <c r="G56" s="31" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="H56" s="31"/>
       <c r="I56" s="31"/>
       <c r="J56" s="58" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="K56" s="58" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="L56" s="58" t="str">
         <f t="shared" si="0"/>
@@ -2946,20 +2914,20 @@
         <v/>
       </c>
       <c r="D57" s="146" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E57" s="146"/>
       <c r="F57" s="15"/>
       <c r="G57" s="31" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="H57" s="31"/>
       <c r="I57" s="31"/>
       <c r="J57" s="58" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="K57" s="58" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="L57" s="58" t="str">
         <f t="shared" si="0"/>
@@ -2976,20 +2944,20 @@
         <v/>
       </c>
       <c r="D58" s="146" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E58" s="146"/>
       <c r="F58" s="15"/>
       <c r="G58" s="31" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="H58" s="31"/>
       <c r="I58" s="31"/>
       <c r="J58" s="58" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="K58" s="58" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="L58" s="58" t="str">
         <f t="shared" si="0"/>
@@ -3006,20 +2974,20 @@
         <v/>
       </c>
       <c r="D59" s="146" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E59" s="146"/>
       <c r="F59" s="15"/>
       <c r="G59" s="31" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="H59" s="31"/>
       <c r="I59" s="31"/>
       <c r="J59" s="58" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="K59" s="58" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="L59" s="58" t="str">
         <f t="shared" si="0"/>
@@ -3036,20 +3004,20 @@
         <v/>
       </c>
       <c r="D60" s="146" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E60" s="146"/>
       <c r="F60" s="15"/>
       <c r="G60" s="31" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="H60" s="31"/>
       <c r="I60" s="31"/>
       <c r="J60" s="58" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="K60" s="58" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="L60" s="58" t="str">
         <f t="shared" si="0"/>
@@ -3067,20 +3035,20 @@
       </c>
       <c r="C61" s="4"/>
       <c r="D61" s="146" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E61" s="146"/>
       <c r="F61" s="15"/>
       <c r="G61" s="31" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="H61" s="31"/>
       <c r="I61" s="31"/>
       <c r="J61" s="58" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="K61" s="58" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="L61" s="58" t="str">
         <f t="shared" si="0"/>
@@ -3097,20 +3065,20 @@
         <v/>
       </c>
       <c r="D62" s="146" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E62" s="146"/>
       <c r="F62" s="15"/>
       <c r="G62" s="31" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="H62" s="31"/>
       <c r="I62" s="31"/>
       <c r="J62" s="58" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="K62" s="58" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="L62" s="58" t="str">
         <f t="shared" si="0"/>
@@ -3127,20 +3095,20 @@
         <v/>
       </c>
       <c r="D63" s="146" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E63" s="146"/>
       <c r="F63" s="15"/>
       <c r="G63" s="31" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="H63" s="31"/>
       <c r="I63" s="31"/>
       <c r="J63" s="58" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="K63" s="58" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="L63" s="58" t="str">
         <f t="shared" si="0"/>
@@ -3157,20 +3125,20 @@
         <v/>
       </c>
       <c r="D64" s="146" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E64" s="146"/>
       <c r="F64" s="15"/>
       <c r="G64" s="31" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="H64" s="31"/>
       <c r="I64" s="31"/>
       <c r="J64" s="58" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="K64" s="58" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="L64" s="58" t="str">
         <f t="shared" si="0"/>
@@ -3188,20 +3156,20 @@
       </c>
       <c r="C65" s="4"/>
       <c r="D65" s="146" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E65" s="146"/>
       <c r="F65" s="15"/>
       <c r="G65" s="31" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="H65" s="31"/>
       <c r="I65" s="31"/>
       <c r="J65" s="58" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="K65" s="58" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="L65" s="58" t="str">
         <f t="shared" si="0"/>
@@ -3218,20 +3186,20 @@
         <v/>
       </c>
       <c r="D66" s="146" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E66" s="146"/>
       <c r="F66" s="15"/>
       <c r="G66" s="31" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="H66" s="31"/>
       <c r="I66" s="31"/>
       <c r="J66" s="58" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="K66" s="58" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="L66" s="58" t="str">
         <f t="shared" si="0"/>
@@ -3248,20 +3216,20 @@
         <v/>
       </c>
       <c r="D67" s="146" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E67" s="146"/>
       <c r="F67" s="15"/>
       <c r="G67" s="31" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="H67" s="31"/>
       <c r="I67" s="31"/>
       <c r="J67" s="58" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="K67" s="58" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="L67" s="58" t="str">
         <f t="shared" si="0"/>
@@ -3278,20 +3246,20 @@
         <v/>
       </c>
       <c r="D68" s="146" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E68" s="146"/>
       <c r="F68" s="15"/>
       <c r="G68" s="31" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="H68" s="31"/>
       <c r="I68" s="31"/>
       <c r="J68" s="58" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="K68" s="58" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="L68" s="58" t="str">
         <f t="shared" si="0"/>
@@ -3309,20 +3277,20 @@
       </c>
       <c r="C69" s="4"/>
       <c r="D69" s="146" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E69" s="146"/>
       <c r="F69" s="15"/>
       <c r="G69" s="31" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="H69" s="31"/>
       <c r="I69" s="31"/>
       <c r="J69" s="58" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="K69" s="58" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="L69" s="58" t="str">
         <f t="shared" si="0"/>
@@ -3340,20 +3308,20 @@
       </c>
       <c r="C70" s="4"/>
       <c r="D70" s="146" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E70" s="146"/>
       <c r="F70" s="15"/>
       <c r="G70" s="31" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="H70" s="31"/>
       <c r="I70" s="31"/>
       <c r="J70" s="58" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="K70" s="58" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="L70" s="58" t="str">
         <f t="shared" si="0"/>
@@ -3371,20 +3339,20 @@
       </c>
       <c r="C71" s="4"/>
       <c r="D71" s="146" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E71" s="146"/>
       <c r="F71" s="15"/>
       <c r="G71" s="31" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="H71" s="31"/>
       <c r="I71" s="31"/>
       <c r="J71" s="58" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="K71" s="58" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="L71" s="58" t="str">
         <f t="shared" ref="L71:L134" si="2">IFERROR(J71+K71,"")</f>
@@ -3401,20 +3369,20 @@
         <v/>
       </c>
       <c r="D72" s="146" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E72" s="146"/>
       <c r="F72" s="15"/>
       <c r="G72" s="31" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="H72" s="31"/>
       <c r="I72" s="31"/>
       <c r="J72" s="58" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="K72" s="58" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="L72" s="58" t="str">
         <f t="shared" si="2"/>
@@ -3431,20 +3399,20 @@
         <v/>
       </c>
       <c r="D73" s="146" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E73" s="146"/>
       <c r="F73" s="15"/>
       <c r="G73" s="31" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="H73" s="31"/>
       <c r="I73" s="31"/>
       <c r="J73" s="58" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="K73" s="58" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="L73" s="58" t="str">
         <f t="shared" si="2"/>
@@ -3461,20 +3429,20 @@
         <v/>
       </c>
       <c r="D74" s="146" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E74" s="146"/>
       <c r="F74" s="15"/>
       <c r="G74" s="31" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="H74" s="31"/>
       <c r="I74" s="31"/>
       <c r="J74" s="58" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="K74" s="58" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="L74" s="58" t="str">
         <f t="shared" si="2"/>
@@ -3491,20 +3459,20 @@
         <v/>
       </c>
       <c r="D75" s="146" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E75" s="146"/>
       <c r="F75" s="15"/>
       <c r="G75" s="31" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="H75" s="31"/>
       <c r="I75" s="31"/>
       <c r="J75" s="58" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="K75" s="58" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="L75" s="58" t="str">
         <f t="shared" si="2"/>
@@ -3521,20 +3489,20 @@
         <v/>
       </c>
       <c r="D76" s="146" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E76" s="146"/>
       <c r="F76" s="15"/>
       <c r="G76" s="31" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="H76" s="31"/>
       <c r="I76" s="31"/>
       <c r="J76" s="58" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="K76" s="58" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="L76" s="58" t="str">
         <f t="shared" si="2"/>
@@ -3551,20 +3519,20 @@
         <v/>
       </c>
       <c r="D77" s="146" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E77" s="146"/>
       <c r="F77" s="15"/>
       <c r="G77" s="31" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="H77" s="31"/>
       <c r="I77" s="31"/>
       <c r="J77" s="58" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="K77" s="58" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="L77" s="58" t="str">
         <f t="shared" si="2"/>
@@ -3581,20 +3549,20 @@
         <v/>
       </c>
       <c r="D78" s="146" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E78" s="146"/>
       <c r="F78" s="15"/>
       <c r="G78" s="31" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="H78" s="31"/>
       <c r="I78" s="31"/>
       <c r="J78" s="58" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="K78" s="58" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="L78" s="58" t="str">
         <f t="shared" si="2"/>
@@ -3611,20 +3579,20 @@
         <v/>
       </c>
       <c r="D79" s="146" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E79" s="146"/>
       <c r="F79" s="15"/>
       <c r="G79" s="31" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="H79" s="31"/>
       <c r="I79" s="31"/>
       <c r="J79" s="58" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="K79" s="58" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="L79" s="58" t="str">
         <f t="shared" si="2"/>
@@ -3641,20 +3609,20 @@
         <v/>
       </c>
       <c r="D80" s="146" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E80" s="146"/>
       <c r="F80" s="15"/>
       <c r="G80" s="31" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="H80" s="31"/>
       <c r="I80" s="31"/>
       <c r="J80" s="58" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="K80" s="58" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="L80" s="58" t="str">
         <f t="shared" si="2"/>
@@ -3671,20 +3639,20 @@
         <v/>
       </c>
       <c r="D81" s="146" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E81" s="146"/>
       <c r="F81" s="15"/>
       <c r="G81" s="31" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="H81" s="31"/>
       <c r="I81" s="31"/>
       <c r="J81" s="58" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="K81" s="58" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="L81" s="58" t="str">
         <f t="shared" si="2"/>
@@ -3701,20 +3669,20 @@
         <v/>
       </c>
       <c r="D82" s="146" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E82" s="146"/>
       <c r="F82" s="15"/>
       <c r="G82" s="31" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="H82" s="31"/>
       <c r="I82" s="31"/>
       <c r="J82" s="58" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="K82" s="58" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="L82" s="58" t="str">
         <f t="shared" si="2"/>
@@ -3731,20 +3699,20 @@
         <v/>
       </c>
       <c r="D83" s="146" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E83" s="146"/>
       <c r="F83" s="15"/>
       <c r="G83" s="31" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="H83" s="31"/>
       <c r="I83" s="31"/>
       <c r="J83" s="58" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="K83" s="58" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="L83" s="58" t="str">
         <f t="shared" si="2"/>
@@ -3761,20 +3729,20 @@
         <v/>
       </c>
       <c r="D84" s="146" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E84" s="146"/>
       <c r="F84" s="15"/>
       <c r="G84" s="31" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="H84" s="31"/>
       <c r="I84" s="31"/>
       <c r="J84" s="58" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="K84" s="58" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="L84" s="58" t="str">
         <f t="shared" si="2"/>
@@ -3791,20 +3759,20 @@
         <v/>
       </c>
       <c r="D85" s="146" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E85" s="146"/>
       <c r="F85" s="15"/>
       <c r="G85" s="31" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="H85" s="31"/>
       <c r="I85" s="31"/>
       <c r="J85" s="58" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="K85" s="58" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="L85" s="58" t="str">
         <f t="shared" si="2"/>
@@ -3821,20 +3789,20 @@
         <v/>
       </c>
       <c r="D86" s="146" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E86" s="146"/>
       <c r="F86" s="15"/>
       <c r="G86" s="31" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="H86" s="31"/>
       <c r="I86" s="31"/>
       <c r="J86" s="58" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="K86" s="58" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="L86" s="58" t="str">
         <f t="shared" si="2"/>
@@ -3851,20 +3819,20 @@
         <v/>
       </c>
       <c r="D87" s="146" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E87" s="146"/>
       <c r="F87" s="15"/>
       <c r="G87" s="31" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="H87" s="31"/>
       <c r="I87" s="31"/>
       <c r="J87" s="58" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="K87" s="58" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="L87" s="58" t="str">
         <f t="shared" si="2"/>
@@ -3881,20 +3849,20 @@
         <v/>
       </c>
       <c r="D88" s="146" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E88" s="146"/>
       <c r="F88" s="15"/>
       <c r="G88" s="31" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="H88" s="31"/>
       <c r="I88" s="31"/>
       <c r="J88" s="58" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="K88" s="58" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="L88" s="58" t="str">
         <f t="shared" si="2"/>
@@ -3911,20 +3879,20 @@
         <v/>
       </c>
       <c r="D89" s="146" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E89" s="146"/>
       <c r="F89" s="15"/>
       <c r="G89" s="31" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="H89" s="31"/>
       <c r="I89" s="31"/>
       <c r="J89" s="58" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="K89" s="58" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="L89" s="58" t="str">
         <f t="shared" si="2"/>
@@ -3941,20 +3909,20 @@
         <v/>
       </c>
       <c r="D90" s="146" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E90" s="146"/>
       <c r="F90" s="15"/>
       <c r="G90" s="31" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="H90" s="31"/>
       <c r="I90" s="31"/>
       <c r="J90" s="58" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="K90" s="58" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="L90" s="58" t="str">
         <f t="shared" si="2"/>
@@ -3971,20 +3939,20 @@
         <v/>
       </c>
       <c r="D91" s="146" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E91" s="146"/>
       <c r="F91" s="15"/>
       <c r="G91" s="31" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="H91" s="31"/>
       <c r="I91" s="31"/>
       <c r="J91" s="58" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="K91" s="58" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="L91" s="58" t="str">
         <f t="shared" si="2"/>
@@ -4001,20 +3969,20 @@
         <v/>
       </c>
       <c r="D92" s="146" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E92" s="146"/>
       <c r="F92" s="15"/>
       <c r="G92" s="31" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="H92" s="31"/>
       <c r="I92" s="31"/>
       <c r="J92" s="58" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="K92" s="58" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="L92" s="58" t="str">
         <f t="shared" si="2"/>
@@ -4031,20 +3999,20 @@
         <v/>
       </c>
       <c r="D93" s="146" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E93" s="146"/>
       <c r="F93" s="15"/>
       <c r="G93" s="31" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="H93" s="31"/>
       <c r="I93" s="31"/>
       <c r="J93" s="58" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="K93" s="58" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="L93" s="58" t="str">
         <f t="shared" si="2"/>
@@ -4061,20 +4029,20 @@
         <v/>
       </c>
       <c r="D94" s="146" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E94" s="146"/>
       <c r="F94" s="15"/>
       <c r="G94" s="31" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="H94" s="31"/>
       <c r="I94" s="31"/>
       <c r="J94" s="58" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="K94" s="58" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="L94" s="58" t="str">
         <f t="shared" si="2"/>
@@ -4091,20 +4059,20 @@
         <v/>
       </c>
       <c r="D95" s="146" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E95" s="146"/>
       <c r="F95" s="15"/>
       <c r="G95" s="31" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="H95" s="31"/>
       <c r="I95" s="31"/>
       <c r="J95" s="58" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="K95" s="58" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="L95" s="58" t="str">
         <f t="shared" si="2"/>
@@ -4121,20 +4089,20 @@
         <v/>
       </c>
       <c r="D96" s="146" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E96" s="146"/>
       <c r="F96" s="15"/>
       <c r="G96" s="31" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="H96" s="31"/>
       <c r="I96" s="31"/>
       <c r="J96" s="58" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="K96" s="58" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="L96" s="58" t="str">
         <f t="shared" si="2"/>
@@ -4151,20 +4119,20 @@
         <v/>
       </c>
       <c r="D97" s="146" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E97" s="146"/>
       <c r="F97" s="15"/>
       <c r="G97" s="31" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="H97" s="31"/>
       <c r="I97" s="31"/>
       <c r="J97" s="58" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="K97" s="58" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="L97" s="58" t="str">
         <f t="shared" si="2"/>
@@ -4181,20 +4149,20 @@
         <v/>
       </c>
       <c r="D98" s="146" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E98" s="146"/>
       <c r="F98" s="15"/>
       <c r="G98" s="31" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="H98" s="31"/>
       <c r="I98" s="31"/>
       <c r="J98" s="58" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="K98" s="58" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="L98" s="58" t="str">
         <f t="shared" si="2"/>
@@ -4211,20 +4179,20 @@
         <v/>
       </c>
       <c r="D99" s="146" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E99" s="146"/>
       <c r="F99" s="15"/>
       <c r="G99" s="31" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="H99" s="31"/>
       <c r="I99" s="31"/>
       <c r="J99" s="58" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="K99" s="58" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="L99" s="58" t="str">
         <f t="shared" si="2"/>
@@ -4241,20 +4209,20 @@
         <v/>
       </c>
       <c r="D100" s="146" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E100" s="146"/>
       <c r="F100" s="15"/>
       <c r="G100" s="31" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="H100" s="31"/>
       <c r="I100" s="31"/>
       <c r="J100" s="58" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="K100" s="58" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="L100" s="58" t="str">
         <f t="shared" si="2"/>
@@ -4271,20 +4239,20 @@
         <v/>
       </c>
       <c r="D101" s="146" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E101" s="146"/>
       <c r="F101" s="15"/>
       <c r="G101" s="31" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="H101" s="31"/>
       <c r="I101" s="31"/>
       <c r="J101" s="58" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="K101" s="58" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="L101" s="58" t="str">
         <f t="shared" si="2"/>
@@ -4301,20 +4269,20 @@
         <v/>
       </c>
       <c r="D102" s="146" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E102" s="146"/>
       <c r="F102" s="15"/>
       <c r="G102" s="31" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="H102" s="31"/>
       <c r="I102" s="31"/>
       <c r="J102" s="58" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="K102" s="58" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="L102" s="58" t="str">
         <f t="shared" si="2"/>
@@ -4331,20 +4299,20 @@
         <v/>
       </c>
       <c r="D103" s="146" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E103" s="146"/>
       <c r="F103" s="15"/>
       <c r="G103" s="31" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="H103" s="31"/>
       <c r="I103" s="31"/>
       <c r="J103" s="58" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="K103" s="58" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="L103" s="58" t="str">
         <f t="shared" si="2"/>
@@ -4361,20 +4329,20 @@
         <v/>
       </c>
       <c r="D104" s="146" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E104" s="146"/>
       <c r="F104" s="15"/>
       <c r="G104" s="31" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="H104" s="31"/>
       <c r="I104" s="31"/>
       <c r="J104" s="58" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="K104" s="58" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="L104" s="58" t="str">
         <f t="shared" si="2"/>
@@ -4391,20 +4359,20 @@
         <v/>
       </c>
       <c r="D105" s="146" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E105" s="146"/>
       <c r="F105" s="15"/>
       <c r="G105" s="31" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="H105" s="31"/>
       <c r="I105" s="31"/>
       <c r="J105" s="58" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="K105" s="58" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="L105" s="58" t="str">
         <f t="shared" si="2"/>
@@ -4421,20 +4389,20 @@
         <v/>
       </c>
       <c r="D106" s="146" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E106" s="146"/>
       <c r="F106" s="15"/>
       <c r="G106" s="31" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="H106" s="31"/>
       <c r="I106" s="31"/>
       <c r="J106" s="58" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="K106" s="58" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="L106" s="58" t="str">
         <f t="shared" si="2"/>
@@ -4451,20 +4419,20 @@
         <v/>
       </c>
       <c r="D107" s="146" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E107" s="146"/>
       <c r="F107" s="15"/>
       <c r="G107" s="31" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="H107" s="31"/>
       <c r="I107" s="31"/>
       <c r="J107" s="58" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="K107" s="58" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="L107" s="58" t="str">
         <f t="shared" si="2"/>
@@ -4481,20 +4449,20 @@
         <v/>
       </c>
       <c r="D108" s="146" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E108" s="146"/>
       <c r="F108" s="15"/>
       <c r="G108" s="31" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="H108" s="31"/>
       <c r="I108" s="31"/>
       <c r="J108" s="58" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="K108" s="58" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="L108" s="58" t="str">
         <f t="shared" si="2"/>
@@ -4511,20 +4479,20 @@
         <v/>
       </c>
       <c r="D109" s="146" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E109" s="146"/>
       <c r="F109" s="15"/>
       <c r="G109" s="31" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="H109" s="31"/>
       <c r="I109" s="31"/>
       <c r="J109" s="58" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="K109" s="58" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="L109" s="58" t="str">
         <f t="shared" si="2"/>
@@ -4541,20 +4509,20 @@
         <v/>
       </c>
       <c r="D110" s="146" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E110" s="146"/>
       <c r="F110" s="15"/>
       <c r="G110" s="31" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="H110" s="31"/>
       <c r="I110" s="31"/>
       <c r="J110" s="58" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="K110" s="58" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="L110" s="58" t="str">
         <f t="shared" si="2"/>
@@ -4571,20 +4539,20 @@
         <v/>
       </c>
       <c r="D111" s="146" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E111" s="146"/>
       <c r="F111" s="15"/>
       <c r="G111" s="31" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="H111" s="31"/>
       <c r="I111" s="31"/>
       <c r="J111" s="58" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="K111" s="58" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="L111" s="58" t="str">
         <f t="shared" si="2"/>
@@ -4601,20 +4569,20 @@
         <v/>
       </c>
       <c r="D112" s="146" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E112" s="146"/>
       <c r="F112" s="15"/>
       <c r="G112" s="31" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="H112" s="31"/>
       <c r="I112" s="31"/>
       <c r="J112" s="58" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="K112" s="58" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="L112" s="58" t="str">
         <f t="shared" si="2"/>
@@ -4631,20 +4599,20 @@
         <v/>
       </c>
       <c r="D113" s="146" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E113" s="146"/>
       <c r="F113" s="15"/>
       <c r="G113" s="31" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="H113" s="31"/>
       <c r="I113" s="31"/>
       <c r="J113" s="58" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="K113" s="58" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="L113" s="58" t="str">
         <f t="shared" si="2"/>
@@ -4661,20 +4629,20 @@
         <v/>
       </c>
       <c r="D114" s="146" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E114" s="146"/>
       <c r="F114" s="15"/>
       <c r="G114" s="31" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="H114" s="31"/>
       <c r="I114" s="31"/>
       <c r="J114" s="58" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="K114" s="58" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="L114" s="58" t="str">
         <f t="shared" si="2"/>
@@ -4691,20 +4659,20 @@
         <v/>
       </c>
       <c r="D115" s="146" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E115" s="146"/>
       <c r="F115" s="15"/>
       <c r="G115" s="31" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="H115" s="31"/>
       <c r="I115" s="31"/>
       <c r="J115" s="58" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="K115" s="58" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="L115" s="58" t="str">
         <f t="shared" si="2"/>
@@ -4721,20 +4689,20 @@
         <v/>
       </c>
       <c r="D116" s="146" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E116" s="146"/>
       <c r="F116" s="15"/>
       <c r="G116" s="31" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="H116" s="31"/>
       <c r="I116" s="31"/>
       <c r="J116" s="58" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="K116" s="58" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="L116" s="58" t="str">
         <f t="shared" si="2"/>
@@ -4751,20 +4719,20 @@
         <v/>
       </c>
       <c r="D117" s="146" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E117" s="146"/>
       <c r="F117" s="15"/>
       <c r="G117" s="31" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="H117" s="31"/>
       <c r="I117" s="31"/>
       <c r="J117" s="58" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="K117" s="58" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="L117" s="58" t="str">
         <f t="shared" si="2"/>
@@ -4781,20 +4749,20 @@
         <v/>
       </c>
       <c r="D118" s="146" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E118" s="146"/>
       <c r="F118" s="15"/>
       <c r="G118" s="31" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="H118" s="31"/>
       <c r="I118" s="31"/>
       <c r="J118" s="58" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="K118" s="58" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="L118" s="58" t="str">
         <f t="shared" si="2"/>
@@ -4811,20 +4779,20 @@
         <v/>
       </c>
       <c r="D119" s="146" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E119" s="146"/>
       <c r="F119" s="15"/>
       <c r="G119" s="31" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="H119" s="31"/>
       <c r="I119" s="31"/>
       <c r="J119" s="58" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="K119" s="58" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="L119" s="58" t="str">
         <f t="shared" si="2"/>
@@ -4841,20 +4809,20 @@
         <v/>
       </c>
       <c r="D120" s="146" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E120" s="146"/>
       <c r="F120" s="15"/>
       <c r="G120" s="31" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="H120" s="31"/>
       <c r="I120" s="31"/>
       <c r="J120" s="58" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="K120" s="58" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="L120" s="58" t="str">
         <f t="shared" si="2"/>
@@ -4871,20 +4839,20 @@
         <v/>
       </c>
       <c r="D121" s="146" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E121" s="146"/>
       <c r="F121" s="15"/>
       <c r="G121" s="31" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="H121" s="31"/>
       <c r="I121" s="31"/>
       <c r="J121" s="58" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="K121" s="58" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="L121" s="58" t="str">
         <f t="shared" si="2"/>
@@ -4901,20 +4869,20 @@
         <v/>
       </c>
       <c r="D122" s="146" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E122" s="146"/>
       <c r="F122" s="15"/>
       <c r="G122" s="31" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="H122" s="31"/>
       <c r="I122" s="31"/>
       <c r="J122" s="58" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="K122" s="58" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="L122" s="58" t="str">
         <f t="shared" si="2"/>
@@ -4931,20 +4899,20 @@
         <v/>
       </c>
       <c r="D123" s="146" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E123" s="146"/>
       <c r="F123" s="15"/>
       <c r="G123" s="31" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="H123" s="31"/>
       <c r="I123" s="31"/>
       <c r="J123" s="58" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="K123" s="58" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="L123" s="58" t="str">
         <f t="shared" si="2"/>
@@ -4961,20 +4929,20 @@
         <v/>
       </c>
       <c r="D124" s="146" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E124" s="146"/>
       <c r="F124" s="15"/>
       <c r="G124" s="31" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="H124" s="31"/>
       <c r="I124" s="31"/>
       <c r="J124" s="58" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="K124" s="58" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="L124" s="58" t="str">
         <f t="shared" si="2"/>
@@ -4991,20 +4959,20 @@
         <v/>
       </c>
       <c r="D125" s="146" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E125" s="146"/>
       <c r="F125" s="15"/>
       <c r="G125" s="31" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="H125" s="31"/>
       <c r="I125" s="31"/>
       <c r="J125" s="58" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="K125" s="58" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="L125" s="58" t="str">
         <f t="shared" si="2"/>
@@ -5021,20 +4989,20 @@
         <v/>
       </c>
       <c r="D126" s="146" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E126" s="146"/>
       <c r="F126" s="15"/>
       <c r="G126" s="31" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="H126" s="31"/>
       <c r="I126" s="31"/>
       <c r="J126" s="58" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="K126" s="58" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="L126" s="58" t="str">
         <f t="shared" si="2"/>
@@ -5051,20 +5019,20 @@
         <v/>
       </c>
       <c r="D127" s="146" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E127" s="146"/>
       <c r="F127" s="15"/>
       <c r="G127" s="31" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="H127" s="31"/>
       <c r="I127" s="31"/>
       <c r="J127" s="58" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="K127" s="58" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="L127" s="58" t="str">
         <f t="shared" si="2"/>
@@ -5081,20 +5049,20 @@
         <v/>
       </c>
       <c r="D128" s="146" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E128" s="146"/>
       <c r="F128" s="15"/>
       <c r="G128" s="31" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="H128" s="31"/>
       <c r="I128" s="31"/>
       <c r="J128" s="58" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="K128" s="58" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="L128" s="58" t="str">
         <f t="shared" si="2"/>
@@ -5111,20 +5079,20 @@
         <v/>
       </c>
       <c r="D129" s="146" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E129" s="146"/>
       <c r="F129" s="15"/>
       <c r="G129" s="31" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="H129" s="31"/>
       <c r="I129" s="31"/>
       <c r="J129" s="58" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="K129" s="58" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="L129" s="58" t="str">
         <f t="shared" si="2"/>
@@ -5141,20 +5109,20 @@
         <v/>
       </c>
       <c r="D130" s="146" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E130" s="146"/>
       <c r="F130" s="15"/>
       <c r="G130" s="31" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="H130" s="31"/>
       <c r="I130" s="31"/>
       <c r="J130" s="58" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="K130" s="58" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="L130" s="58" t="str">
         <f t="shared" si="2"/>
@@ -5171,20 +5139,20 @@
         <v/>
       </c>
       <c r="D131" s="146" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E131" s="146"/>
       <c r="F131" s="15"/>
       <c r="G131" s="31" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="H131" s="31"/>
       <c r="I131" s="31"/>
       <c r="J131" s="58" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="K131" s="58" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="L131" s="58" t="str">
         <f t="shared" si="2"/>
@@ -5201,20 +5169,20 @@
         <v/>
       </c>
       <c r="D132" s="146" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E132" s="146"/>
       <c r="F132" s="15"/>
       <c r="G132" s="31" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="H132" s="31"/>
       <c r="I132" s="31"/>
       <c r="J132" s="58" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="K132" s="58" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="L132" s="58" t="str">
         <f t="shared" si="2"/>
@@ -5231,20 +5199,20 @@
         <v/>
       </c>
       <c r="D133" s="146" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E133" s="146"/>
       <c r="F133" s="15"/>
       <c r="G133" s="31" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="H133" s="31"/>
       <c r="I133" s="31"/>
       <c r="J133" s="58" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="K133" s="58" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="L133" s="58" t="str">
         <f t="shared" si="2"/>
@@ -5261,20 +5229,20 @@
         <v/>
       </c>
       <c r="D134" s="146" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E134" s="146"/>
       <c r="F134" s="15"/>
       <c r="G134" s="31" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="H134" s="31"/>
       <c r="I134" s="31"/>
       <c r="J134" s="58" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="K134" s="58" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="L134" s="58" t="str">
         <f t="shared" si="2"/>
@@ -5291,20 +5259,20 @@
         <v/>
       </c>
       <c r="D135" s="146" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E135" s="146"/>
       <c r="F135" s="15"/>
       <c r="G135" s="31" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="H135" s="31"/>
       <c r="I135" s="31"/>
       <c r="J135" s="58" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="K135" s="58" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="L135" s="58" t="str">
         <f t="shared" ref="L135:L163" si="4">IFERROR(J135+K135,"")</f>
@@ -5321,20 +5289,20 @@
         <v/>
       </c>
       <c r="D136" s="146" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E136" s="146"/>
       <c r="F136" s="15"/>
       <c r="G136" s="31" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="H136" s="31"/>
       <c r="I136" s="31"/>
       <c r="J136" s="58" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="K136" s="58" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="L136" s="58" t="str">
         <f t="shared" si="4"/>
@@ -5351,20 +5319,20 @@
         <v/>
       </c>
       <c r="D137" s="146" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E137" s="146"/>
       <c r="F137" s="15"/>
       <c r="G137" s="31" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="H137" s="31"/>
       <c r="I137" s="31"/>
       <c r="J137" s="58" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="K137" s="58" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="L137" s="58" t="str">
         <f t="shared" si="4"/>
@@ -5381,20 +5349,20 @@
         <v/>
       </c>
       <c r="D138" s="146" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E138" s="146"/>
       <c r="F138" s="15"/>
       <c r="G138" s="31" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="H138" s="31"/>
       <c r="I138" s="31"/>
       <c r="J138" s="58" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="K138" s="58" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="L138" s="58" t="str">
         <f t="shared" si="4"/>
@@ -5411,20 +5379,20 @@
         <v/>
       </c>
       <c r="D139" s="146" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E139" s="146"/>
       <c r="F139" s="15"/>
       <c r="G139" s="31" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="H139" s="31"/>
       <c r="I139" s="31"/>
       <c r="J139" s="58" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="K139" s="58" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="L139" s="58" t="str">
         <f t="shared" si="4"/>
@@ -5441,20 +5409,20 @@
         <v/>
       </c>
       <c r="D140" s="146" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E140" s="146"/>
       <c r="F140" s="15"/>
       <c r="G140" s="31" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="H140" s="31"/>
       <c r="I140" s="31"/>
       <c r="J140" s="58" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="K140" s="58" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="L140" s="58" t="str">
         <f t="shared" si="4"/>
@@ -5471,20 +5439,20 @@
         <v/>
       </c>
       <c r="D141" s="146" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E141" s="146"/>
       <c r="F141" s="15"/>
       <c r="G141" s="31" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="H141" s="31"/>
       <c r="I141" s="31"/>
       <c r="J141" s="58" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="K141" s="58" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="L141" s="58" t="str">
         <f t="shared" si="4"/>
@@ -5501,20 +5469,20 @@
         <v/>
       </c>
       <c r="D142" s="146" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E142" s="146"/>
       <c r="F142" s="15"/>
       <c r="G142" s="31" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="H142" s="31"/>
       <c r="I142" s="31"/>
       <c r="J142" s="58" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="K142" s="58" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="L142" s="58" t="str">
         <f t="shared" si="4"/>
@@ -5531,20 +5499,20 @@
         <v/>
       </c>
       <c r="D143" s="146" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E143" s="146"/>
       <c r="F143" s="15"/>
       <c r="G143" s="31" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="H143" s="31"/>
       <c r="I143" s="31"/>
       <c r="J143" s="58" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="K143" s="58" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="L143" s="58" t="str">
         <f t="shared" si="4"/>
@@ -5561,20 +5529,20 @@
         <v/>
       </c>
       <c r="D144" s="146" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E144" s="146"/>
       <c r="F144" s="15"/>
       <c r="G144" s="31" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="H144" s="31"/>
       <c r="I144" s="31"/>
       <c r="J144" s="58" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="K144" s="58" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="L144" s="58" t="str">
         <f t="shared" si="4"/>
@@ -5591,20 +5559,20 @@
         <v/>
       </c>
       <c r="D145" s="146" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E145" s="146"/>
       <c r="F145" s="15"/>
       <c r="G145" s="31" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="H145" s="31"/>
       <c r="I145" s="31"/>
       <c r="J145" s="58" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="K145" s="58" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="L145" s="58" t="str">
         <f t="shared" si="4"/>
@@ -5621,20 +5589,20 @@
         <v/>
       </c>
       <c r="D146" s="146" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E146" s="146"/>
       <c r="F146" s="15"/>
       <c r="G146" s="31" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="H146" s="31"/>
       <c r="I146" s="31"/>
       <c r="J146" s="58" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="K146" s="58" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="L146" s="58" t="str">
         <f t="shared" si="4"/>
@@ -5651,20 +5619,20 @@
         <v/>
       </c>
       <c r="D147" s="146" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E147" s="146"/>
       <c r="F147" s="15"/>
       <c r="G147" s="31" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="H147" s="31"/>
       <c r="I147" s="31"/>
       <c r="J147" s="58" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="K147" s="58" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="L147" s="58" t="str">
         <f t="shared" si="4"/>
@@ -5681,20 +5649,20 @@
         <v/>
       </c>
       <c r="D148" s="146" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E148" s="146"/>
       <c r="F148" s="15"/>
       <c r="G148" s="31" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="H148" s="31"/>
       <c r="I148" s="31"/>
       <c r="J148" s="58" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="K148" s="58" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="L148" s="58" t="str">
         <f t="shared" si="4"/>
@@ -5711,20 +5679,20 @@
         <v/>
       </c>
       <c r="D149" s="146" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E149" s="146"/>
       <c r="F149" s="15"/>
       <c r="G149" s="31" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="H149" s="31"/>
       <c r="I149" s="31"/>
       <c r="J149" s="58" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="K149" s="58" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="L149" s="58" t="str">
         <f t="shared" si="4"/>
@@ -5741,20 +5709,20 @@
         <v/>
       </c>
       <c r="D150" s="146" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E150" s="146"/>
       <c r="F150" s="15"/>
       <c r="G150" s="31" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="H150" s="31"/>
       <c r="I150" s="31"/>
       <c r="J150" s="58" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="K150" s="58" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="L150" s="58" t="str">
         <f t="shared" si="4"/>
@@ -5771,20 +5739,20 @@
         <v/>
       </c>
       <c r="D151" s="146" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E151" s="146"/>
       <c r="F151" s="15"/>
       <c r="G151" s="31" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="H151" s="31"/>
       <c r="I151" s="31"/>
       <c r="J151" s="58" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="K151" s="58" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="L151" s="58" t="str">
         <f t="shared" si="4"/>
@@ -5801,20 +5769,20 @@
         <v/>
       </c>
       <c r="D152" s="146" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E152" s="146"/>
       <c r="F152" s="15"/>
       <c r="G152" s="31" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="H152" s="31"/>
       <c r="I152" s="31"/>
       <c r="J152" s="58" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="K152" s="58" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="L152" s="58" t="str">
         <f t="shared" si="4"/>
@@ -5831,20 +5799,20 @@
         <v/>
       </c>
       <c r="D153" s="146" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E153" s="146"/>
       <c r="F153" s="15"/>
       <c r="G153" s="31" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="H153" s="31"/>
       <c r="I153" s="31"/>
       <c r="J153" s="58" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="K153" s="58" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="L153" s="58" t="str">
         <f t="shared" si="4"/>
@@ -5861,20 +5829,20 @@
         <v/>
       </c>
       <c r="D154" s="146" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E154" s="146"/>
       <c r="F154" s="15"/>
       <c r="G154" s="31" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="H154" s="31"/>
       <c r="I154" s="31"/>
       <c r="J154" s="58" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="K154" s="58" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="L154" s="58" t="str">
         <f t="shared" si="4"/>
@@ -5891,20 +5859,20 @@
         <v/>
       </c>
       <c r="D155" s="146" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E155" s="146"/>
       <c r="F155" s="15"/>
       <c r="G155" s="31" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="H155" s="31"/>
       <c r="I155" s="31"/>
       <c r="J155" s="58" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="K155" s="58" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="L155" s="58" t="str">
         <f t="shared" si="4"/>
@@ -5921,20 +5889,20 @@
         <v/>
       </c>
       <c r="D156" s="146" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E156" s="146"/>
       <c r="F156" s="15"/>
       <c r="G156" s="31" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="H156" s="31"/>
       <c r="I156" s="31"/>
       <c r="J156" s="58" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="K156" s="58" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="L156" s="58" t="str">
         <f t="shared" si="4"/>
@@ -5951,20 +5919,20 @@
         <v/>
       </c>
       <c r="D157" s="146" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E157" s="146"/>
       <c r="F157" s="15"/>
       <c r="G157" s="31" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="H157" s="31"/>
       <c r="I157" s="31"/>
       <c r="J157" s="58" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="K157" s="58" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="L157" s="58" t="str">
         <f t="shared" si="4"/>
@@ -5981,20 +5949,20 @@
         <v/>
       </c>
       <c r="D158" s="146" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E158" s="146"/>
       <c r="F158" s="15"/>
       <c r="G158" s="31" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="H158" s="31"/>
       <c r="I158" s="31"/>
       <c r="J158" s="58" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="K158" s="58" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="L158" s="58" t="str">
         <f t="shared" si="4"/>
@@ -6011,20 +5979,20 @@
         <v/>
       </c>
       <c r="D159" s="146" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E159" s="146"/>
       <c r="F159" s="15"/>
       <c r="G159" s="31" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="H159" s="31"/>
       <c r="I159" s="31"/>
       <c r="J159" s="58" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="K159" s="58" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="L159" s="58" t="str">
         <f t="shared" si="4"/>
@@ -6041,20 +6009,20 @@
         <v/>
       </c>
       <c r="D160" s="146" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E160" s="146"/>
       <c r="F160" s="15"/>
       <c r="G160" s="31" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="H160" s="31"/>
       <c r="I160" s="31"/>
       <c r="J160" s="58" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="K160" s="58" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="L160" s="58" t="str">
         <f t="shared" si="4"/>
@@ -6071,20 +6039,20 @@
         <v/>
       </c>
       <c r="D161" s="146" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E161" s="146"/>
       <c r="F161" s="15"/>
       <c r="G161" s="31" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="H161" s="31"/>
       <c r="I161" s="31"/>
       <c r="J161" s="58" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="K161" s="58" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="L161" s="58" t="str">
         <f t="shared" si="4"/>
@@ -6102,20 +6070,20 @@
       </c>
       <c r="C162" s="4"/>
       <c r="D162" s="146" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E162" s="146"/>
       <c r="F162" s="15"/>
       <c r="G162" s="31" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="H162" s="31"/>
       <c r="I162" s="31"/>
       <c r="J162" s="58" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="K162" s="58" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="L162" s="58" t="str">
         <f t="shared" si="4"/>
@@ -6132,20 +6100,20 @@
         <v/>
       </c>
       <c r="D163" s="146" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E163" s="146"/>
       <c r="F163" s="15"/>
       <c r="G163" s="31" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="H163" s="31"/>
       <c r="I163" s="31"/>
       <c r="J163" s="58" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="K163" s="58" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="L163" s="58" t="str">
         <f t="shared" si="4"/>
@@ -6526,7 +6494,7 @@
       </c>
       <c r="F180" s="57"/>
       <c r="G180" s="6" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="H180" s="6"/>
       <c r="I180" s="6"/>
@@ -6554,14 +6522,12 @@
       <c r="D181" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="E181" s="112" t="s">
-        <v>40</v>
-      </c>
+      <c r="E181" s="112"/>
       <c r="F181" s="106" t="s">
         <v>32</v>
       </c>
       <c r="G181" s="112" t="s">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="H181" s="112"/>
       <c r="I181" s="112"/>
@@ -6571,9 +6537,7 @@
         <f t="shared" ref="L181:L196" si="7">$J181+$K181</f>
         <v>0</v>
       </c>
-      <c r="M181" s="3" t="s">
-        <v>42</v>
-      </c>
+      <c r="M181" s="3"/>
     </row>
     <row r="182" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A182" s="102">
@@ -6612,10 +6576,10 @@
       </c>
       <c r="E183" s="112"/>
       <c r="F183" s="106" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="G183" s="112" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="H183" s="112"/>
       <c r="I183" s="112"/>
@@ -7215,7 +7179,7 @@
         <v>1</v>
       </c>
       <c r="D209" s="33" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E209" s="117"/>
       <c r="F209" s="118"/>
@@ -7373,7 +7337,7 @@
       </c>
       <c r="D215" s="2"/>
       <c r="E215" s="120" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F215" s="121"/>
       <c r="G215" s="122"/>
@@ -7537,16 +7501,16 @@
       <c r="E223" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="F223" s="160" t="s">
+      <c r="F223" s="159" t="s">
         <v>37</v>
       </c>
-      <c r="G223" s="161"/>
-      <c r="H223" s="167"/>
-      <c r="I223" s="167"/>
-      <c r="J223" s="160" t="s">
+      <c r="G223" s="160"/>
+      <c r="H223" s="152"/>
+      <c r="I223" s="152"/>
+      <c r="J223" s="159" t="s">
         <v>38</v>
       </c>
-      <c r="K223" s="164"/>
+      <c r="K223" s="166"/>
       <c r="L223" s="93" t="s">
         <v>39</v>
       </c>
@@ -7559,12 +7523,12 @@
         <v>1</v>
       </c>
       <c r="E224" s="94"/>
-      <c r="F224" s="162"/>
-      <c r="G224" s="163"/>
-      <c r="H224" s="168"/>
-      <c r="I224" s="168"/>
-      <c r="J224" s="165"/>
-      <c r="K224" s="166"/>
+      <c r="F224" s="164"/>
+      <c r="G224" s="165"/>
+      <c r="H224" s="153"/>
+      <c r="I224" s="153"/>
+      <c r="J224" s="167"/>
+      <c r="K224" s="168"/>
       <c r="L224" s="20"/>
     </row>
     <row r="225" spans="1:13" x14ac:dyDescent="0.2">
@@ -7575,12 +7539,12 @@
         <v>1</v>
       </c>
       <c r="E225" s="94"/>
-      <c r="F225" s="160"/>
-      <c r="G225" s="164"/>
-      <c r="H225" s="169"/>
-      <c r="I225" s="169"/>
-      <c r="J225" s="165"/>
-      <c r="K225" s="166"/>
+      <c r="F225" s="159"/>
+      <c r="G225" s="166"/>
+      <c r="H225" s="154"/>
+      <c r="I225" s="154"/>
+      <c r="J225" s="167"/>
+      <c r="K225" s="168"/>
       <c r="L225" s="20"/>
     </row>
     <row r="226" spans="1:13" x14ac:dyDescent="0.2">
@@ -7591,12 +7555,12 @@
         <v>1</v>
       </c>
       <c r="E226" s="94"/>
-      <c r="F226" s="160"/>
-      <c r="G226" s="164"/>
-      <c r="H226" s="169"/>
-      <c r="I226" s="169"/>
-      <c r="J226" s="165"/>
-      <c r="K226" s="166"/>
+      <c r="F226" s="159"/>
+      <c r="G226" s="166"/>
+      <c r="H226" s="154"/>
+      <c r="I226" s="154"/>
+      <c r="J226" s="167"/>
+      <c r="K226" s="168"/>
       <c r="L226" s="20"/>
     </row>
     <row r="227" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7624,7 +7588,7 @@
         <v>1</v>
       </c>
       <c r="E228" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="G228" s="9"/>
       <c r="H228" s="9"/>
@@ -7641,8 +7605,8 @@
         <f>IF(OR($J229="",$J229=0),"",1)</f>
         <v/>
       </c>
-      <c r="E229" s="157"/>
-      <c r="F229" s="158"/>
+      <c r="E229" s="156"/>
+      <c r="F229" s="157"/>
       <c r="G229" s="125"/>
       <c r="H229" s="125"/>
       <c r="I229" s="125"/>
@@ -7664,8 +7628,8 @@
         <f>IF(OR($J230="",$J230=0),"",1)</f>
         <v/>
       </c>
-      <c r="E230" s="157"/>
-      <c r="F230" s="158"/>
+      <c r="E230" s="156"/>
+      <c r="F230" s="157"/>
       <c r="G230" s="125"/>
       <c r="H230" s="125"/>
       <c r="I230" s="125"/>
@@ -7687,8 +7651,8 @@
         <f>IF(OR($J231="",$J231=0),"",1)</f>
         <v/>
       </c>
-      <c r="E231" s="157"/>
-      <c r="F231" s="158"/>
+      <c r="E231" s="156"/>
+      <c r="F231" s="157"/>
       <c r="G231" s="125"/>
       <c r="H231" s="125"/>
       <c r="I231" s="125"/>
@@ -7710,8 +7674,8 @@
         <f>IF(OR($J232="",$J232=0),"",1)</f>
         <v/>
       </c>
-      <c r="E232" s="157"/>
-      <c r="F232" s="158"/>
+      <c r="E232" s="156"/>
+      <c r="F232" s="157"/>
       <c r="G232" s="125"/>
       <c r="H232" s="125"/>
       <c r="I232" s="125"/>
@@ -7758,7 +7722,7 @@
     </row>
     <row r="234" spans="1:13" s="73" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A234" s="103" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B234" s="98"/>
       <c r="C234" s="84"/>
@@ -7771,7 +7735,7 @@
     </row>
     <row r="235" spans="1:13" s="73" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A235" s="103" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B235" s="98"/>
       <c r="C235" s="84"/>
@@ -7784,7 +7748,7 @@
     </row>
     <row r="236" spans="1:13" s="73" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A236" s="103" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B236" s="98"/>
       <c r="C236" s="84"/>
@@ -7796,49 +7760,49 @@
     </row>
     <row r="237" spans="1:13" ht="19.2" x14ac:dyDescent="0.2">
       <c r="A237" s="103" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B237" s="99">
         <v>9</v>
       </c>
-      <c r="D237" s="156">
+      <c r="D237" s="170">
         <f>$D$1</f>
         <v>43738</v>
       </c>
-      <c r="E237" s="156"/>
-      <c r="F237" s="156"/>
-      <c r="G237" s="156"/>
-      <c r="H237" s="156"/>
-      <c r="I237" s="156"/>
-      <c r="J237" s="156"/>
-      <c r="K237" s="156"/>
-      <c r="L237" s="156"/>
-      <c r="M237" s="156"/>
+      <c r="E237" s="170"/>
+      <c r="F237" s="170"/>
+      <c r="G237" s="170"/>
+      <c r="H237" s="170"/>
+      <c r="I237" s="170"/>
+      <c r="J237" s="170"/>
+      <c r="K237" s="170"/>
+      <c r="L237" s="170"/>
+      <c r="M237" s="170"/>
     </row>
     <row r="238" spans="1:13" ht="19.2" x14ac:dyDescent="0.25">
       <c r="A238" s="103" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B238" s="99">
         <v>9</v>
       </c>
-      <c r="D238" s="153">
+      <c r="D238" s="162">
         <f>$D237+15</f>
         <v>43753</v>
       </c>
-      <c r="E238" s="154"/>
-      <c r="F238" s="154"/>
-      <c r="G238" s="154"/>
-      <c r="H238" s="154"/>
-      <c r="I238" s="154"/>
-      <c r="J238" s="154"/>
-      <c r="K238" s="154"/>
-      <c r="L238" s="154"/>
+      <c r="E238" s="163"/>
+      <c r="F238" s="163"/>
+      <c r="G238" s="163"/>
+      <c r="H238" s="163"/>
+      <c r="I238" s="163"/>
+      <c r="J238" s="163"/>
+      <c r="K238" s="163"/>
+      <c r="L238" s="163"/>
       <c r="M238" s="26"/>
     </row>
     <row r="239" spans="1:13" s="73" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A239" s="103" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B239" s="101">
         <v>9</v>
@@ -7853,25 +7817,25 @@
     </row>
     <row r="240" spans="1:13" s="73" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A240" s="103" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B240" s="101">
         <v>9</v>
       </c>
       <c r="C240" s="79"/>
-      <c r="D240" s="155" t="s">
+      <c r="D240" s="161" t="s">
         <v>23</v>
       </c>
-      <c r="E240" s="155"/>
+      <c r="E240" s="161"/>
       <c r="F240" s="77"/>
       <c r="G240" s="79" t="s">
         <v>0</v>
       </c>
-      <c r="H240" s="170" t="s">
-        <v>60</v>
-      </c>
-      <c r="I240" s="170" t="s">
-        <v>61</v>
+      <c r="H240" s="155" t="s">
+        <v>58</v>
+      </c>
+      <c r="I240" s="155" t="s">
+        <v>59</v>
       </c>
       <c r="J240" s="77" t="s">
         <v>10</v>
@@ -7886,7 +7850,7 @@
     </row>
     <row r="241" spans="1:13" s="73" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A241" s="103" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B241" s="101">
         <v>9</v>
@@ -8119,20 +8083,20 @@
         <v>1</v>
       </c>
       <c r="D250" s="146" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E250" s="146"/>
       <c r="F250" s="15"/>
       <c r="G250" s="31" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="H250" s="31"/>
       <c r="I250" s="31"/>
       <c r="J250" s="61" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="K250" s="61" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="L250" s="58" t="str">
         <f t="shared" si="12"/>
@@ -8152,20 +8116,20 @@
         <v/>
       </c>
       <c r="D251" s="146" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E251" s="146"/>
       <c r="F251" s="15"/>
       <c r="G251" s="31" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="H251" s="31"/>
       <c r="I251" s="31"/>
       <c r="J251" s="61" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="K251" s="61" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="L251" s="58" t="str">
         <f t="shared" si="12"/>
@@ -8185,20 +8149,20 @@
         <v/>
       </c>
       <c r="D252" s="146" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E252" s="146"/>
       <c r="F252" s="15"/>
       <c r="G252" s="31" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="H252" s="31"/>
       <c r="I252" s="31"/>
       <c r="J252" s="61" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="K252" s="61" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="L252" s="58" t="str">
         <f t="shared" si="12"/>
@@ -8218,20 +8182,20 @@
         <v/>
       </c>
       <c r="D253" s="146" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E253" s="146"/>
       <c r="F253" s="15"/>
       <c r="G253" s="31" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="H253" s="31"/>
       <c r="I253" s="31"/>
       <c r="J253" s="61" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="K253" s="61" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="L253" s="58" t="str">
         <f t="shared" si="12"/>
@@ -8251,20 +8215,20 @@
         <v/>
       </c>
       <c r="D254" s="146" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E254" s="146"/>
       <c r="F254" s="15"/>
       <c r="G254" s="31" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="H254" s="31"/>
       <c r="I254" s="31"/>
       <c r="J254" s="61" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="K254" s="61" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="L254" s="58" t="str">
         <f t="shared" si="12"/>
@@ -8284,20 +8248,20 @@
         <v/>
       </c>
       <c r="D255" s="146" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E255" s="146"/>
       <c r="F255" s="15"/>
       <c r="G255" s="31" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="H255" s="31"/>
       <c r="I255" s="31"/>
       <c r="J255" s="61" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="K255" s="61" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="L255" s="58" t="str">
         <f t="shared" si="12"/>
@@ -8317,20 +8281,20 @@
         <v/>
       </c>
       <c r="D256" s="146" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E256" s="146"/>
       <c r="F256" s="15"/>
       <c r="G256" s="31" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="H256" s="31"/>
       <c r="I256" s="31"/>
       <c r="J256" s="61" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="K256" s="61" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="L256" s="58" t="str">
         <f t="shared" si="12"/>
@@ -8350,20 +8314,20 @@
         <v/>
       </c>
       <c r="D257" s="146" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E257" s="146"/>
       <c r="F257" s="15"/>
       <c r="G257" s="31" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="H257" s="31"/>
       <c r="I257" s="31"/>
       <c r="J257" s="61" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="K257" s="61" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="L257" s="58" t="str">
         <f t="shared" si="12"/>
@@ -8383,20 +8347,20 @@
         <v/>
       </c>
       <c r="D258" s="146" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E258" s="146"/>
       <c r="F258" s="15"/>
       <c r="G258" s="31" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="H258" s="31"/>
       <c r="I258" s="31"/>
       <c r="J258" s="61" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="K258" s="61" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="L258" s="58" t="str">
         <f t="shared" si="12"/>
@@ -8416,20 +8380,20 @@
         <v/>
       </c>
       <c r="D259" s="146" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E259" s="146"/>
       <c r="F259" s="15"/>
       <c r="G259" s="31" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="H259" s="31"/>
       <c r="I259" s="31"/>
       <c r="J259" s="61" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="K259" s="61" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="L259" s="58" t="str">
         <f t="shared" si="12"/>
@@ -8449,20 +8413,20 @@
         <v/>
       </c>
       <c r="D260" s="146" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E260" s="146"/>
       <c r="F260" s="15"/>
       <c r="G260" s="31" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="H260" s="31"/>
       <c r="I260" s="31"/>
       <c r="J260" s="61" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="K260" s="61" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="L260" s="58" t="str">
         <f t="shared" si="12"/>
@@ -8482,20 +8446,20 @@
         <v/>
       </c>
       <c r="D261" s="146" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E261" s="146"/>
       <c r="F261" s="15"/>
       <c r="G261" s="31" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="H261" s="31"/>
       <c r="I261" s="31"/>
       <c r="J261" s="61" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="K261" s="61" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="L261" s="58" t="str">
         <f t="shared" si="12"/>
@@ -8515,20 +8479,20 @@
         <v/>
       </c>
       <c r="D262" s="146" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E262" s="146"/>
       <c r="F262" s="15"/>
       <c r="G262" s="31" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="H262" s="31"/>
       <c r="I262" s="31"/>
       <c r="J262" s="61" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="K262" s="61" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="L262" s="58" t="str">
         <f t="shared" si="12"/>
@@ -8548,20 +8512,20 @@
         <v/>
       </c>
       <c r="D263" s="146" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E263" s="146"/>
       <c r="F263" s="15"/>
       <c r="G263" s="31" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="H263" s="31"/>
       <c r="I263" s="31"/>
       <c r="J263" s="61" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="K263" s="61" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="L263" s="58" t="str">
         <f t="shared" si="12"/>
@@ -8581,20 +8545,20 @@
         <v/>
       </c>
       <c r="D264" s="146" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E264" s="146"/>
       <c r="F264" s="15"/>
       <c r="G264" s="31" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="H264" s="31"/>
       <c r="I264" s="31"/>
       <c r="J264" s="61" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="K264" s="61" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="L264" s="58" t="str">
         <f t="shared" si="12"/>
@@ -8614,20 +8578,20 @@
         <v/>
       </c>
       <c r="D265" s="146" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E265" s="146"/>
       <c r="F265" s="15"/>
       <c r="G265" s="31" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="H265" s="31"/>
       <c r="I265" s="31"/>
       <c r="J265" s="61" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="K265" s="61" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="L265" s="58" t="str">
         <f t="shared" si="12"/>
@@ -8647,20 +8611,20 @@
         <v/>
       </c>
       <c r="D266" s="146" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E266" s="146"/>
       <c r="F266" s="15"/>
       <c r="G266" s="31" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="H266" s="31"/>
       <c r="I266" s="31"/>
       <c r="J266" s="61" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="K266" s="61" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="L266" s="58" t="str">
         <f t="shared" si="12"/>
@@ -8680,20 +8644,20 @@
         <v/>
       </c>
       <c r="D267" s="146" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E267" s="146"/>
       <c r="F267" s="15"/>
       <c r="G267" s="31" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="H267" s="31"/>
       <c r="I267" s="31"/>
       <c r="J267" s="61" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="K267" s="61" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="L267" s="58" t="str">
         <f t="shared" si="12"/>
@@ -8713,20 +8677,20 @@
         <v/>
       </c>
       <c r="D268" s="146" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E268" s="146"/>
       <c r="F268" s="15"/>
       <c r="G268" s="31" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="H268" s="31"/>
       <c r="I268" s="31"/>
       <c r="J268" s="61" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="K268" s="61" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="L268" s="58" t="str">
         <f t="shared" si="12"/>
@@ -8746,20 +8710,20 @@
         <v/>
       </c>
       <c r="D269" s="146" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E269" s="146"/>
       <c r="F269" s="15"/>
       <c r="G269" s="31" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="H269" s="31"/>
       <c r="I269" s="31"/>
       <c r="J269" s="61" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="K269" s="61" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="L269" s="58" t="str">
         <f t="shared" si="12"/>
@@ -8779,20 +8743,20 @@
         <v/>
       </c>
       <c r="D270" s="146" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E270" s="146"/>
       <c r="F270" s="15"/>
       <c r="G270" s="31" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="H270" s="31"/>
       <c r="I270" s="31"/>
       <c r="J270" s="61" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="K270" s="61" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="L270" s="58" t="str">
         <f t="shared" si="12"/>
@@ -8812,20 +8776,20 @@
         <v/>
       </c>
       <c r="D271" s="146" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E271" s="146"/>
       <c r="F271" s="15"/>
       <c r="G271" s="31" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="H271" s="31"/>
       <c r="I271" s="31"/>
       <c r="J271" s="61" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="K271" s="61" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="L271" s="58" t="str">
         <f t="shared" si="12"/>
@@ -8845,20 +8809,20 @@
         <v/>
       </c>
       <c r="D272" s="146" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E272" s="146"/>
       <c r="F272" s="15"/>
       <c r="G272" s="31" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="H272" s="31"/>
       <c r="I272" s="31"/>
       <c r="J272" s="61" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="K272" s="61" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="L272" s="58" t="str">
         <f t="shared" si="12"/>
@@ -9006,7 +8970,7 @@
       <c r="E279" s="30"/>
       <c r="F279" s="30"/>
       <c r="G279" s="6" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="H279" s="6"/>
       <c r="I279" s="6"/>
@@ -9470,7 +9434,7 @@
         <v>1</v>
       </c>
       <c r="D298" s="33" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E298" s="117"/>
       <c r="F298" s="118"/>
@@ -9622,7 +9586,7 @@
         <v>1</v>
       </c>
       <c r="E304" s="120" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F304" s="121"/>
       <c r="G304" s="122"/>
@@ -9721,7 +9685,7 @@
     </row>
     <row r="308" spans="1:13" s="73" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A308" s="103" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B308" s="98"/>
       <c r="C308" s="84"/>
@@ -9733,7 +9697,7 @@
     </row>
     <row r="309" spans="1:13" s="73" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A309" s="103" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B309" s="98"/>
       <c r="C309" s="84"/>
@@ -9745,7 +9709,7 @@
     </row>
     <row r="310" spans="1:13" s="73" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A310" s="103" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B310" s="98"/>
       <c r="C310" s="84"/>
@@ -9757,49 +9721,49 @@
     </row>
     <row r="311" spans="1:13" ht="19.2" x14ac:dyDescent="0.2">
       <c r="A311" s="103" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B311" s="99">
         <v>9</v>
       </c>
-      <c r="D311" s="152">
+      <c r="D311" s="169">
         <f>$D$1</f>
         <v>43738</v>
       </c>
-      <c r="E311" s="152"/>
-      <c r="F311" s="152"/>
-      <c r="G311" s="152"/>
-      <c r="H311" s="152"/>
-      <c r="I311" s="152"/>
-      <c r="J311" s="152"/>
-      <c r="K311" s="152"/>
-      <c r="L311" s="152"/>
-      <c r="M311" s="152"/>
+      <c r="E311" s="169"/>
+      <c r="F311" s="169"/>
+      <c r="G311" s="169"/>
+      <c r="H311" s="169"/>
+      <c r="I311" s="169"/>
+      <c r="J311" s="169"/>
+      <c r="K311" s="169"/>
+      <c r="L311" s="169"/>
+      <c r="M311" s="169"/>
     </row>
     <row r="312" spans="1:13" ht="19.2" x14ac:dyDescent="0.25">
       <c r="A312" s="103" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B312" s="99">
         <v>9</v>
       </c>
-      <c r="D312" s="153">
+      <c r="D312" s="162">
         <f>$D311+15</f>
         <v>43753</v>
       </c>
-      <c r="E312" s="154"/>
-      <c r="F312" s="154"/>
-      <c r="G312" s="154"/>
-      <c r="H312" s="154"/>
-      <c r="I312" s="154"/>
-      <c r="J312" s="154"/>
-      <c r="K312" s="154"/>
-      <c r="L312" s="154"/>
+      <c r="E312" s="163"/>
+      <c r="F312" s="163"/>
+      <c r="G312" s="163"/>
+      <c r="H312" s="163"/>
+      <c r="I312" s="163"/>
+      <c r="J312" s="163"/>
+      <c r="K312" s="163"/>
+      <c r="L312" s="163"/>
       <c r="M312" s="26"/>
     </row>
     <row r="313" spans="1:13" s="73" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A313" s="103" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B313" s="101">
         <v>9</v>
@@ -9814,25 +9778,25 @@
     </row>
     <row r="314" spans="1:13" s="73" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A314" s="103" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B314" s="101">
         <v>9</v>
       </c>
       <c r="C314" s="79"/>
-      <c r="D314" s="155" t="s">
+      <c r="D314" s="161" t="s">
         <v>23</v>
       </c>
-      <c r="E314" s="155"/>
+      <c r="E314" s="161"/>
       <c r="F314" s="77"/>
       <c r="G314" s="79" t="s">
         <v>0</v>
       </c>
-      <c r="H314" s="170" t="s">
-        <v>60</v>
-      </c>
-      <c r="I314" s="170" t="s">
-        <v>61</v>
+      <c r="H314" s="155" t="s">
+        <v>58</v>
+      </c>
+      <c r="I314" s="155" t="s">
+        <v>59</v>
       </c>
       <c r="J314" s="77" t="s">
         <v>10</v>
@@ -9847,7 +9811,7 @@
     </row>
     <row r="315" spans="1:13" s="73" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A315" s="103" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B315" s="101">
         <v>9</v>
@@ -9971,7 +9935,7 @@
         <v>1</v>
       </c>
       <c r="D320" s="146" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E320" s="146"/>
       <c r="F320" s="15"/>
@@ -9995,7 +9959,7 @@
         <v>1</v>
       </c>
       <c r="D321" s="146" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E321" s="146"/>
       <c r="F321" s="15"/>
@@ -10019,20 +9983,20 @@
         <v>1</v>
       </c>
       <c r="D322" s="146" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E322" s="146"/>
       <c r="F322" s="15"/>
       <c r="G322" s="31" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="H322" s="31"/>
       <c r="I322" s="31"/>
       <c r="J322" s="61" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="K322" s="61" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="L322" s="58" t="str">
         <f t="shared" si="19"/>
@@ -10049,20 +10013,20 @@
         <v/>
       </c>
       <c r="D323" s="146" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E323" s="146"/>
       <c r="F323" s="15"/>
       <c r="G323" s="31" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="H323" s="31"/>
       <c r="I323" s="31"/>
       <c r="J323" s="61" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="K323" s="61" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="L323" s="58" t="str">
         <f t="shared" si="19"/>
@@ -10079,20 +10043,20 @@
         <v/>
       </c>
       <c r="D324" s="146" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E324" s="146"/>
       <c r="F324" s="15"/>
       <c r="G324" s="31" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="H324" s="31"/>
       <c r="I324" s="31"/>
       <c r="J324" s="61" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="K324" s="61" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="L324" s="58" t="str">
         <f t="shared" si="19"/>
@@ -10109,20 +10073,20 @@
         <v/>
       </c>
       <c r="D325" s="146" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E325" s="146"/>
       <c r="F325" s="15"/>
       <c r="G325" s="31" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="H325" s="31"/>
       <c r="I325" s="31"/>
       <c r="J325" s="61" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="K325" s="61" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="L325" s="58" t="str">
         <f t="shared" si="19"/>
@@ -10139,20 +10103,20 @@
         <v/>
       </c>
       <c r="D326" s="146" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E326" s="146"/>
       <c r="F326" s="15"/>
       <c r="G326" s="31" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="H326" s="31"/>
       <c r="I326" s="31"/>
       <c r="J326" s="61" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="K326" s="61" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="L326" s="58" t="str">
         <f t="shared" si="19"/>
@@ -10169,20 +10133,20 @@
         <v/>
       </c>
       <c r="D327" s="146" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E327" s="146"/>
       <c r="F327" s="15"/>
       <c r="G327" s="31" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="H327" s="31"/>
       <c r="I327" s="31"/>
       <c r="J327" s="61" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="K327" s="61" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="L327" s="58" t="str">
         <f t="shared" si="19"/>
@@ -10199,20 +10163,20 @@
         <v/>
       </c>
       <c r="D328" s="146" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E328" s="146"/>
       <c r="F328" s="15"/>
       <c r="G328" s="31" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="H328" s="31"/>
       <c r="I328" s="31"/>
       <c r="J328" s="61" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="K328" s="61" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="L328" s="58" t="str">
         <f t="shared" si="19"/>
@@ -10229,20 +10193,20 @@
         <v/>
       </c>
       <c r="D329" s="146" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E329" s="146"/>
       <c r="F329" s="15"/>
       <c r="G329" s="31" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="H329" s="31"/>
       <c r="I329" s="31"/>
       <c r="J329" s="61" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="K329" s="61" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="L329" s="58" t="str">
         <f t="shared" si="19"/>
@@ -10259,20 +10223,20 @@
         <v/>
       </c>
       <c r="D330" s="146" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E330" s="146"/>
       <c r="F330" s="15"/>
       <c r="G330" s="31" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="H330" s="31"/>
       <c r="I330" s="31"/>
       <c r="J330" s="61" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="K330" s="61" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="L330" s="58" t="str">
         <f t="shared" si="19"/>
@@ -10289,20 +10253,20 @@
         <v/>
       </c>
       <c r="D331" s="146" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E331" s="146"/>
       <c r="F331" s="15"/>
       <c r="G331" s="31" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="H331" s="31"/>
       <c r="I331" s="31"/>
       <c r="J331" s="61" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="K331" s="61" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="L331" s="58" t="str">
         <f t="shared" si="19"/>
@@ -10319,20 +10283,20 @@
         <v/>
       </c>
       <c r="D332" s="146" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E332" s="146"/>
       <c r="F332" s="15"/>
       <c r="G332" s="31" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="H332" s="31"/>
       <c r="I332" s="31"/>
       <c r="J332" s="61" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="K332" s="61" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="L332" s="58" t="str">
         <f t="shared" si="19"/>
@@ -10349,20 +10313,20 @@
         <v/>
       </c>
       <c r="D333" s="146" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E333" s="146"/>
       <c r="F333" s="15"/>
       <c r="G333" s="31" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="H333" s="31"/>
       <c r="I333" s="31"/>
       <c r="J333" s="61" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="K333" s="61" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="L333" s="58" t="str">
         <f t="shared" si="19"/>
@@ -10379,20 +10343,20 @@
         <v/>
       </c>
       <c r="D334" s="146" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E334" s="146"/>
       <c r="F334" s="15"/>
       <c r="G334" s="31" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="H334" s="31"/>
       <c r="I334" s="31"/>
       <c r="J334" s="61" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="K334" s="61" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="L334" s="58" t="str">
         <f t="shared" si="19"/>
@@ -10409,20 +10373,20 @@
         <v/>
       </c>
       <c r="D335" s="146" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E335" s="146"/>
       <c r="F335" s="15"/>
       <c r="G335" s="31" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="H335" s="31"/>
       <c r="I335" s="31"/>
       <c r="J335" s="61" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="K335" s="61" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="L335" s="58" t="str">
         <f t="shared" si="19"/>
@@ -10439,20 +10403,20 @@
         <v/>
       </c>
       <c r="D336" s="146" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E336" s="146"/>
       <c r="F336" s="15"/>
       <c r="G336" s="31" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="H336" s="31"/>
       <c r="I336" s="31"/>
       <c r="J336" s="61" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="K336" s="61" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="L336" s="58" t="str">
         <f t="shared" si="19"/>
@@ -10469,20 +10433,20 @@
         <v/>
       </c>
       <c r="D337" s="146" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E337" s="146"/>
       <c r="F337" s="15"/>
       <c r="G337" s="31" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="H337" s="31"/>
       <c r="I337" s="31"/>
       <c r="J337" s="61" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="K337" s="61" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="L337" s="58" t="str">
         <f t="shared" si="19"/>
@@ -10499,20 +10463,20 @@
         <v/>
       </c>
       <c r="D338" s="146" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E338" s="146"/>
       <c r="F338" s="15"/>
       <c r="G338" s="31" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="H338" s="31"/>
       <c r="I338" s="31"/>
       <c r="J338" s="61" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="K338" s="61" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="L338" s="58" t="str">
         <f t="shared" si="19"/>
@@ -10529,20 +10493,20 @@
         <v/>
       </c>
       <c r="D339" s="146" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E339" s="146"/>
       <c r="F339" s="15"/>
       <c r="G339" s="31" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="H339" s="31"/>
       <c r="I339" s="31"/>
       <c r="J339" s="61" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="K339" s="61" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="L339" s="58" t="str">
         <f t="shared" si="19"/>
@@ -10559,20 +10523,20 @@
         <v/>
       </c>
       <c r="D340" s="146" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E340" s="146"/>
       <c r="F340" s="15"/>
       <c r="G340" s="31" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="H340" s="31"/>
       <c r="I340" s="31"/>
       <c r="J340" s="61" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="K340" s="61" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="L340" s="58" t="str">
         <f t="shared" si="19"/>
@@ -10589,20 +10553,20 @@
         <v/>
       </c>
       <c r="D341" s="146" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E341" s="146"/>
       <c r="F341" s="15"/>
       <c r="G341" s="31" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="H341" s="31"/>
       <c r="I341" s="31"/>
       <c r="J341" s="61" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="K341" s="61" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="L341" s="58" t="str">
         <f t="shared" si="19"/>
@@ -10619,20 +10583,20 @@
         <v/>
       </c>
       <c r="D342" s="146" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E342" s="146"/>
       <c r="F342" s="15"/>
       <c r="G342" s="31" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="H342" s="31"/>
       <c r="I342" s="31"/>
       <c r="J342" s="61" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="K342" s="61" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="L342" s="58" t="str">
         <f t="shared" si="19"/>
@@ -10649,20 +10613,20 @@
         <v/>
       </c>
       <c r="D343" s="146" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E343" s="146"/>
       <c r="F343" s="15"/>
       <c r="G343" s="31" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="H343" s="31"/>
       <c r="I343" s="31"/>
       <c r="J343" s="61" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="K343" s="61" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="L343" s="58" t="str">
         <f t="shared" si="19"/>
@@ -10679,20 +10643,20 @@
         <v/>
       </c>
       <c r="D344" s="146" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E344" s="146"/>
       <c r="F344" s="15"/>
       <c r="G344" s="31" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="H344" s="31"/>
       <c r="I344" s="31"/>
       <c r="J344" s="61" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="K344" s="61" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="L344" s="58" t="str">
         <f t="shared" si="19"/>
@@ -10709,20 +10673,20 @@
         <v/>
       </c>
       <c r="D345" s="146" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E345" s="146"/>
       <c r="F345" s="15"/>
       <c r="G345" s="31" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="H345" s="31"/>
       <c r="I345" s="31"/>
       <c r="J345" s="61" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="K345" s="61" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="L345" s="58" t="str">
         <f t="shared" si="19"/>
@@ -10739,20 +10703,20 @@
         <v/>
       </c>
       <c r="D346" s="146" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E346" s="146"/>
       <c r="F346" s="15"/>
       <c r="G346" s="31" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="H346" s="31"/>
       <c r="I346" s="31"/>
       <c r="J346" s="61" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="K346" s="61" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="L346" s="58" t="str">
         <f t="shared" si="19"/>
@@ -10901,7 +10865,7 @@
       <c r="E353" s="80"/>
       <c r="F353" s="30"/>
       <c r="G353" s="6" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="H353" s="6"/>
       <c r="I353" s="6"/>
@@ -11367,7 +11331,7 @@
         <v>1</v>
       </c>
       <c r="D372" s="87" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E372" s="136"/>
       <c r="F372" s="118"/>
@@ -11525,7 +11489,7 @@
       </c>
       <c r="D378" s="73"/>
       <c r="E378" s="138" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F378" s="121"/>
       <c r="G378" s="122"/>
@@ -11639,6 +11603,12 @@
   <autoFilter ref="A6:L381" xr:uid="{00000000-0009-0000-0000-000009000000}"/>
   <dataConsolidate/>
   <mergeCells count="21">
+    <mergeCell ref="D311:M311"/>
+    <mergeCell ref="D312:L312"/>
+    <mergeCell ref="D314:E314"/>
+    <mergeCell ref="D237:M237"/>
+    <mergeCell ref="D238:L238"/>
+    <mergeCell ref="D240:E240"/>
     <mergeCell ref="E230:F230"/>
     <mergeCell ref="E231:F231"/>
     <mergeCell ref="E232:F232"/>
@@ -11654,12 +11624,6 @@
     <mergeCell ref="J224:K224"/>
     <mergeCell ref="J225:K225"/>
     <mergeCell ref="J226:K226"/>
-    <mergeCell ref="D311:M311"/>
-    <mergeCell ref="D312:L312"/>
-    <mergeCell ref="D314:E314"/>
-    <mergeCell ref="D237:M237"/>
-    <mergeCell ref="D238:L238"/>
-    <mergeCell ref="D240:E240"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.70866141732283472" right="0" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.15748031496062992"/>

--- a/01_kidsweb/home/kids2/tmp/inv/aggregate.xlsx
+++ b/01_kidsweb/home/kids2/tmp/inv/aggregate.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22827"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\solcom\Desktop\Git\KIDS\01_kidsweb\home\kids2\tmp\inv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E557EAB-DC4E-448E-9883-E9515B271945}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E22601FE-4F6C-416C-A7A0-1D98133DC1B1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="813" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -208,10 +208,6 @@
     <rPh sb="6" eb="7">
       <t>サキ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ＦＵＪＩ　ＴＯＹ　Ｈ．Ｋ．</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -504,6 +500,10 @@
     <rPh sb="0" eb="3">
       <t>ノウヒンショ</t>
     </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>株式会社　エムアイシー</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1031,6 +1031,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="181" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" shrinkToFit="1"/>
     </xf>
@@ -1047,13 +1062,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1067,14 +1075,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="181" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="180" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1536,32 +1536,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D1" s="157">
+      <c r="D1" s="162">
         <v>43738</v>
       </c>
-      <c r="E1" s="157"/>
-      <c r="F1" s="157"/>
-      <c r="G1" s="157"/>
-      <c r="H1" s="157"/>
-      <c r="I1" s="157"/>
-      <c r="J1" s="157"/>
-      <c r="K1" s="157"/>
-      <c r="L1" s="157"/>
-      <c r="M1" s="157"/>
+      <c r="E1" s="162"/>
+      <c r="F1" s="162"/>
+      <c r="G1" s="162"/>
+      <c r="H1" s="162"/>
+      <c r="I1" s="162"/>
+      <c r="J1" s="162"/>
+      <c r="K1" s="162"/>
+      <c r="L1" s="162"/>
+      <c r="M1" s="162"/>
     </row>
     <row r="2" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D2" s="161">
+      <c r="D2" s="156">
         <f>$D1+15</f>
         <v>43753</v>
       </c>
-      <c r="E2" s="162"/>
-      <c r="F2" s="162"/>
-      <c r="G2" s="162"/>
-      <c r="H2" s="162"/>
-      <c r="I2" s="162"/>
-      <c r="J2" s="162"/>
-      <c r="K2" s="162"/>
-      <c r="L2" s="162"/>
+      <c r="E2" s="157"/>
+      <c r="F2" s="157"/>
+      <c r="G2" s="157"/>
+      <c r="H2" s="157"/>
+      <c r="I2" s="157"/>
+      <c r="J2" s="157"/>
+      <c r="K2" s="157"/>
+      <c r="L2" s="157"/>
     </row>
     <row r="3" spans="1:13" s="73" customFormat="1" ht="12.75" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A3" s="73" t="s">
@@ -1571,7 +1571,7 @@
         <v>4</v>
       </c>
       <c r="C3" s="75" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D3" s="74" t="s">
         <v>5</v>
@@ -1589,19 +1589,19 @@
         <v>9</v>
       </c>
       <c r="I3" s="144" t="s">
+        <v>41</v>
+      </c>
+      <c r="J3" s="144" t="s">
         <v>42</v>
       </c>
-      <c r="J3" s="144" t="s">
-        <v>43</v>
-      </c>
       <c r="K3" s="144" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L3" s="73" t="s">
+        <v>53</v>
+      </c>
+      <c r="M3" s="73" t="s">
         <v>54</v>
-      </c>
-      <c r="M3" s="73" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:13" s="73" customFormat="1" ht="12.75" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1648,18 +1648,18 @@
     <row r="5" spans="1:13" s="73" customFormat="1" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A5" s="133"/>
       <c r="C5" s="75"/>
-      <c r="D5" s="160" t="s">
+      <c r="D5" s="158" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="160"/>
+      <c r="E5" s="158"/>
       <c r="G5" s="75" t="s">
         <v>0</v>
       </c>
       <c r="H5" s="148" t="s">
+        <v>57</v>
+      </c>
+      <c r="I5" s="148" t="s">
         <v>58</v>
-      </c>
-      <c r="I5" s="148" t="s">
-        <v>59</v>
       </c>
       <c r="J5" s="73" t="s">
         <v>10</v>
@@ -1676,10 +1676,10 @@
       <c r="A6" s="133"/>
       <c r="C6" s="75"/>
       <c r="D6" s="136" t="s">
+        <v>50</v>
+      </c>
+      <c r="E6" s="136" t="s">
         <v>51</v>
-      </c>
-      <c r="E6" s="136" t="s">
-        <v>52</v>
       </c>
       <c r="F6" s="74"/>
       <c r="G6" s="72"/>
@@ -2498,20 +2498,20 @@
         <v>1</v>
       </c>
       <c r="D43" s="139" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E43" s="139"/>
       <c r="F43" s="12"/>
       <c r="G43" s="149" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H43" s="149"/>
       <c r="I43" s="149"/>
       <c r="J43" s="54" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K43" s="54" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L43" s="54" t="str">
         <f t="shared" si="0"/>
@@ -2528,20 +2528,20 @@
         <v/>
       </c>
       <c r="D44" s="139" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E44" s="139"/>
       <c r="F44" s="12"/>
       <c r="G44" s="149" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H44" s="149"/>
       <c r="I44" s="149"/>
       <c r="J44" s="54" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K44" s="54" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L44" s="54" t="str">
         <f t="shared" si="0"/>
@@ -2558,20 +2558,20 @@
         <v/>
       </c>
       <c r="D45" s="139" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E45" s="139"/>
       <c r="F45" s="12"/>
       <c r="G45" s="149" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H45" s="149"/>
       <c r="I45" s="149"/>
       <c r="J45" s="54" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K45" s="54" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L45" s="54" t="str">
         <f t="shared" si="0"/>
@@ -2588,20 +2588,20 @@
         <v/>
       </c>
       <c r="D46" s="139" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E46" s="139"/>
       <c r="F46" s="12"/>
       <c r="G46" s="149" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H46" s="149"/>
       <c r="I46" s="149"/>
       <c r="J46" s="54" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K46" s="54" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L46" s="54" t="str">
         <f t="shared" si="0"/>
@@ -2618,20 +2618,20 @@
         <v/>
       </c>
       <c r="D47" s="139" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E47" s="139"/>
       <c r="F47" s="12"/>
       <c r="G47" s="149" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H47" s="149"/>
       <c r="I47" s="149"/>
       <c r="J47" s="54" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K47" s="54" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L47" s="54" t="str">
         <f t="shared" si="0"/>
@@ -2648,20 +2648,20 @@
         <v/>
       </c>
       <c r="D48" s="139" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E48" s="139"/>
       <c r="F48" s="12"/>
       <c r="G48" s="149" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H48" s="149"/>
       <c r="I48" s="149"/>
       <c r="J48" s="54" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K48" s="54" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L48" s="54" t="str">
         <f t="shared" si="0"/>
@@ -2678,20 +2678,20 @@
         <v/>
       </c>
       <c r="D49" s="139" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E49" s="139"/>
       <c r="F49" s="12"/>
       <c r="G49" s="149" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H49" s="149"/>
       <c r="I49" s="149"/>
       <c r="J49" s="54" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K49" s="54" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L49" s="54" t="str">
         <f t="shared" si="0"/>
@@ -2708,20 +2708,20 @@
         <v/>
       </c>
       <c r="D50" s="139" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E50" s="139"/>
       <c r="F50" s="12"/>
       <c r="G50" s="149" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H50" s="149"/>
       <c r="I50" s="149"/>
       <c r="J50" s="54" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K50" s="54" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L50" s="54" t="str">
         <f t="shared" si="0"/>
@@ -2738,20 +2738,20 @@
         <v/>
       </c>
       <c r="D51" s="139" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E51" s="139"/>
       <c r="F51" s="12"/>
       <c r="G51" s="149" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H51" s="149"/>
       <c r="I51" s="149"/>
       <c r="J51" s="54" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K51" s="54" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L51" s="54" t="str">
         <f t="shared" si="0"/>
@@ -2768,20 +2768,20 @@
         <v/>
       </c>
       <c r="D52" s="139" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E52" s="139"/>
       <c r="F52" s="12"/>
       <c r="G52" s="149" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H52" s="149"/>
       <c r="I52" s="149"/>
       <c r="J52" s="54" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K52" s="54" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L52" s="54" t="str">
         <f t="shared" si="0"/>
@@ -2798,20 +2798,20 @@
         <v/>
       </c>
       <c r="D53" s="139" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E53" s="139"/>
       <c r="F53" s="12"/>
       <c r="G53" s="149" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H53" s="149"/>
       <c r="I53" s="149"/>
       <c r="J53" s="54" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K53" s="54" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L53" s="54" t="str">
         <f t="shared" si="0"/>
@@ -2828,20 +2828,20 @@
         <v/>
       </c>
       <c r="D54" s="139" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E54" s="139"/>
       <c r="F54" s="12"/>
       <c r="G54" s="149" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H54" s="149"/>
       <c r="I54" s="149"/>
       <c r="J54" s="54" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K54" s="54" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L54" s="54" t="str">
         <f t="shared" si="0"/>
@@ -2858,20 +2858,20 @@
         <v/>
       </c>
       <c r="D55" s="139" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E55" s="139"/>
       <c r="F55" s="12"/>
       <c r="G55" s="149" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H55" s="149"/>
       <c r="I55" s="149"/>
       <c r="J55" s="54" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K55" s="54" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L55" s="54" t="str">
         <f t="shared" si="0"/>
@@ -2888,20 +2888,20 @@
         <v/>
       </c>
       <c r="D56" s="139" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E56" s="139"/>
       <c r="F56" s="12"/>
       <c r="G56" s="149" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H56" s="149"/>
       <c r="I56" s="149"/>
       <c r="J56" s="54" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K56" s="54" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L56" s="54" t="str">
         <f t="shared" si="0"/>
@@ -2918,20 +2918,20 @@
         <v/>
       </c>
       <c r="D57" s="139" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E57" s="139"/>
       <c r="F57" s="12"/>
       <c r="G57" s="149" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H57" s="149"/>
       <c r="I57" s="149"/>
       <c r="J57" s="54" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K57" s="54" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L57" s="54" t="str">
         <f t="shared" si="0"/>
@@ -2948,20 +2948,20 @@
         <v/>
       </c>
       <c r="D58" s="139" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E58" s="139"/>
       <c r="F58" s="12"/>
       <c r="G58" s="149" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H58" s="149"/>
       <c r="I58" s="149"/>
       <c r="J58" s="54" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K58" s="54" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L58" s="54" t="str">
         <f t="shared" si="0"/>
@@ -2978,20 +2978,20 @@
         <v/>
       </c>
       <c r="D59" s="139" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E59" s="139"/>
       <c r="F59" s="12"/>
       <c r="G59" s="149" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H59" s="149"/>
       <c r="I59" s="149"/>
       <c r="J59" s="54" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K59" s="54" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L59" s="54" t="str">
         <f t="shared" si="0"/>
@@ -3008,20 +3008,20 @@
         <v/>
       </c>
       <c r="D60" s="139" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E60" s="139"/>
       <c r="F60" s="12"/>
       <c r="G60" s="149" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H60" s="149"/>
       <c r="I60" s="149"/>
       <c r="J60" s="54" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K60" s="54" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L60" s="54" t="str">
         <f t="shared" si="0"/>
@@ -3039,20 +3039,20 @@
       </c>
       <c r="C61" s="4"/>
       <c r="D61" s="139" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E61" s="139"/>
       <c r="F61" s="12"/>
       <c r="G61" s="149" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H61" s="149"/>
       <c r="I61" s="149"/>
       <c r="J61" s="54" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K61" s="54" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L61" s="54" t="str">
         <f t="shared" si="0"/>
@@ -3069,20 +3069,20 @@
         <v/>
       </c>
       <c r="D62" s="139" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E62" s="139"/>
       <c r="F62" s="12"/>
       <c r="G62" s="149" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H62" s="149"/>
       <c r="I62" s="149"/>
       <c r="J62" s="54" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K62" s="54" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L62" s="54" t="str">
         <f t="shared" si="0"/>
@@ -3099,20 +3099,20 @@
         <v/>
       </c>
       <c r="D63" s="139" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E63" s="139"/>
       <c r="F63" s="12"/>
       <c r="G63" s="149" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H63" s="149"/>
       <c r="I63" s="149"/>
       <c r="J63" s="54" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K63" s="54" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L63" s="54" t="str">
         <f t="shared" si="0"/>
@@ -3129,20 +3129,20 @@
         <v/>
       </c>
       <c r="D64" s="139" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E64" s="139"/>
       <c r="F64" s="12"/>
       <c r="G64" s="149" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H64" s="149"/>
       <c r="I64" s="149"/>
       <c r="J64" s="54" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K64" s="54" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L64" s="54" t="str">
         <f t="shared" si="0"/>
@@ -3160,20 +3160,20 @@
       </c>
       <c r="C65" s="4"/>
       <c r="D65" s="139" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E65" s="139"/>
       <c r="F65" s="12"/>
       <c r="G65" s="149" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H65" s="149"/>
       <c r="I65" s="149"/>
       <c r="J65" s="54" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K65" s="54" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L65" s="54" t="str">
         <f t="shared" si="0"/>
@@ -3190,20 +3190,20 @@
         <v/>
       </c>
       <c r="D66" s="139" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E66" s="139"/>
       <c r="F66" s="12"/>
       <c r="G66" s="149" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H66" s="149"/>
       <c r="I66" s="149"/>
       <c r="J66" s="54" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K66" s="54" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L66" s="54" t="str">
         <f t="shared" si="0"/>
@@ -3220,20 +3220,20 @@
         <v/>
       </c>
       <c r="D67" s="139" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E67" s="139"/>
       <c r="F67" s="12"/>
       <c r="G67" s="149" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H67" s="149"/>
       <c r="I67" s="149"/>
       <c r="J67" s="54" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K67" s="54" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L67" s="54" t="str">
         <f t="shared" si="0"/>
@@ -3250,20 +3250,20 @@
         <v/>
       </c>
       <c r="D68" s="139" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E68" s="139"/>
       <c r="F68" s="12"/>
       <c r="G68" s="149" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H68" s="149"/>
       <c r="I68" s="149"/>
       <c r="J68" s="54" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K68" s="54" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L68" s="54" t="str">
         <f t="shared" si="0"/>
@@ -3281,20 +3281,20 @@
       </c>
       <c r="C69" s="4"/>
       <c r="D69" s="139" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E69" s="139"/>
       <c r="F69" s="12"/>
       <c r="G69" s="149" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H69" s="149"/>
       <c r="I69" s="149"/>
       <c r="J69" s="54" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K69" s="54" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L69" s="54" t="str">
         <f t="shared" si="0"/>
@@ -3312,20 +3312,20 @@
       </c>
       <c r="C70" s="4"/>
       <c r="D70" s="139" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E70" s="139"/>
       <c r="F70" s="12"/>
       <c r="G70" s="149" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H70" s="149"/>
       <c r="I70" s="149"/>
       <c r="J70" s="54" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K70" s="54" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L70" s="54" t="str">
         <f t="shared" si="0"/>
@@ -3343,20 +3343,20 @@
       </c>
       <c r="C71" s="4"/>
       <c r="D71" s="139" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E71" s="139"/>
       <c r="F71" s="12"/>
       <c r="G71" s="149" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H71" s="149"/>
       <c r="I71" s="149"/>
       <c r="J71" s="54" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K71" s="54" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L71" s="54" t="str">
         <f t="shared" ref="L71:L134" si="2">IFERROR(J71+K71,"")</f>
@@ -3373,20 +3373,20 @@
         <v/>
       </c>
       <c r="D72" s="139" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E72" s="139"/>
       <c r="F72" s="12"/>
       <c r="G72" s="149" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H72" s="149"/>
       <c r="I72" s="149"/>
       <c r="J72" s="54" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K72" s="54" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L72" s="54" t="str">
         <f t="shared" si="2"/>
@@ -3403,20 +3403,20 @@
         <v/>
       </c>
       <c r="D73" s="139" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E73" s="139"/>
       <c r="F73" s="12"/>
       <c r="G73" s="149" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H73" s="149"/>
       <c r="I73" s="149"/>
       <c r="J73" s="54" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K73" s="54" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L73" s="54" t="str">
         <f t="shared" si="2"/>
@@ -3433,20 +3433,20 @@
         <v/>
       </c>
       <c r="D74" s="139" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E74" s="139"/>
       <c r="F74" s="12"/>
       <c r="G74" s="149" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H74" s="149"/>
       <c r="I74" s="149"/>
       <c r="J74" s="54" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K74" s="54" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L74" s="54" t="str">
         <f t="shared" si="2"/>
@@ -3463,20 +3463,20 @@
         <v/>
       </c>
       <c r="D75" s="139" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E75" s="139"/>
       <c r="F75" s="12"/>
       <c r="G75" s="149" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H75" s="149"/>
       <c r="I75" s="149"/>
       <c r="J75" s="54" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K75" s="54" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L75" s="54" t="str">
         <f t="shared" si="2"/>
@@ -3493,20 +3493,20 @@
         <v/>
       </c>
       <c r="D76" s="139" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E76" s="139"/>
       <c r="F76" s="12"/>
       <c r="G76" s="149" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H76" s="149"/>
       <c r="I76" s="149"/>
       <c r="J76" s="54" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K76" s="54" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L76" s="54" t="str">
         <f t="shared" si="2"/>
@@ -3523,20 +3523,20 @@
         <v/>
       </c>
       <c r="D77" s="139" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E77" s="139"/>
       <c r="F77" s="12"/>
       <c r="G77" s="149" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H77" s="149"/>
       <c r="I77" s="149"/>
       <c r="J77" s="54" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K77" s="54" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L77" s="54" t="str">
         <f t="shared" si="2"/>
@@ -3553,20 +3553,20 @@
         <v/>
       </c>
       <c r="D78" s="139" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E78" s="139"/>
       <c r="F78" s="12"/>
       <c r="G78" s="149" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H78" s="149"/>
       <c r="I78" s="149"/>
       <c r="J78" s="54" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K78" s="54" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L78" s="54" t="str">
         <f t="shared" si="2"/>
@@ -3583,20 +3583,20 @@
         <v/>
       </c>
       <c r="D79" s="139" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E79" s="139"/>
       <c r="F79" s="12"/>
       <c r="G79" s="149" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H79" s="149"/>
       <c r="I79" s="149"/>
       <c r="J79" s="54" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K79" s="54" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L79" s="54" t="str">
         <f t="shared" si="2"/>
@@ -3613,20 +3613,20 @@
         <v/>
       </c>
       <c r="D80" s="139" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E80" s="139"/>
       <c r="F80" s="12"/>
       <c r="G80" s="149" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H80" s="149"/>
       <c r="I80" s="149"/>
       <c r="J80" s="54" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K80" s="54" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L80" s="54" t="str">
         <f t="shared" si="2"/>
@@ -3643,20 +3643,20 @@
         <v/>
       </c>
       <c r="D81" s="139" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E81" s="139"/>
       <c r="F81" s="12"/>
       <c r="G81" s="149" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H81" s="149"/>
       <c r="I81" s="149"/>
       <c r="J81" s="54" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K81" s="54" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L81" s="54" t="str">
         <f t="shared" si="2"/>
@@ -3673,20 +3673,20 @@
         <v/>
       </c>
       <c r="D82" s="139" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E82" s="139"/>
       <c r="F82" s="12"/>
       <c r="G82" s="149" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H82" s="149"/>
       <c r="I82" s="149"/>
       <c r="J82" s="54" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K82" s="54" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L82" s="54" t="str">
         <f t="shared" si="2"/>
@@ -3703,20 +3703,20 @@
         <v/>
       </c>
       <c r="D83" s="139" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E83" s="139"/>
       <c r="F83" s="12"/>
       <c r="G83" s="149" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H83" s="149"/>
       <c r="I83" s="149"/>
       <c r="J83" s="54" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K83" s="54" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L83" s="54" t="str">
         <f t="shared" si="2"/>
@@ -3733,20 +3733,20 @@
         <v/>
       </c>
       <c r="D84" s="139" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E84" s="139"/>
       <c r="F84" s="12"/>
       <c r="G84" s="149" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H84" s="149"/>
       <c r="I84" s="149"/>
       <c r="J84" s="54" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K84" s="54" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L84" s="54" t="str">
         <f t="shared" si="2"/>
@@ -3763,20 +3763,20 @@
         <v/>
       </c>
       <c r="D85" s="139" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E85" s="139"/>
       <c r="F85" s="12"/>
       <c r="G85" s="149" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H85" s="149"/>
       <c r="I85" s="149"/>
       <c r="J85" s="54" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K85" s="54" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L85" s="54" t="str">
         <f t="shared" si="2"/>
@@ -3793,20 +3793,20 @@
         <v/>
       </c>
       <c r="D86" s="139" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E86" s="139"/>
       <c r="F86" s="12"/>
       <c r="G86" s="149" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H86" s="149"/>
       <c r="I86" s="149"/>
       <c r="J86" s="54" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K86" s="54" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L86" s="54" t="str">
         <f t="shared" si="2"/>
@@ -3823,20 +3823,20 @@
         <v/>
       </c>
       <c r="D87" s="139" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E87" s="139"/>
       <c r="F87" s="12"/>
       <c r="G87" s="149" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H87" s="149"/>
       <c r="I87" s="149"/>
       <c r="J87" s="54" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K87" s="54" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L87" s="54" t="str">
         <f t="shared" si="2"/>
@@ -3853,20 +3853,20 @@
         <v/>
       </c>
       <c r="D88" s="139" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E88" s="139"/>
       <c r="F88" s="12"/>
       <c r="G88" s="149" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H88" s="149"/>
       <c r="I88" s="149"/>
       <c r="J88" s="54" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K88" s="54" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L88" s="54" t="str">
         <f t="shared" si="2"/>
@@ -3883,20 +3883,20 @@
         <v/>
       </c>
       <c r="D89" s="139" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E89" s="139"/>
       <c r="F89" s="12"/>
       <c r="G89" s="149" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H89" s="149"/>
       <c r="I89" s="149"/>
       <c r="J89" s="54" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K89" s="54" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L89" s="54" t="str">
         <f t="shared" si="2"/>
@@ -3913,20 +3913,20 @@
         <v/>
       </c>
       <c r="D90" s="139" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E90" s="139"/>
       <c r="F90" s="12"/>
       <c r="G90" s="149" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H90" s="149"/>
       <c r="I90" s="149"/>
       <c r="J90" s="54" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K90" s="54" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L90" s="54" t="str">
         <f t="shared" si="2"/>
@@ -3943,20 +3943,20 @@
         <v/>
       </c>
       <c r="D91" s="139" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E91" s="139"/>
       <c r="F91" s="12"/>
       <c r="G91" s="149" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H91" s="149"/>
       <c r="I91" s="149"/>
       <c r="J91" s="54" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K91" s="54" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L91" s="54" t="str">
         <f t="shared" si="2"/>
@@ -3973,20 +3973,20 @@
         <v/>
       </c>
       <c r="D92" s="139" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E92" s="139"/>
       <c r="F92" s="12"/>
       <c r="G92" s="149" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H92" s="149"/>
       <c r="I92" s="149"/>
       <c r="J92" s="54" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K92" s="54" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L92" s="54" t="str">
         <f t="shared" si="2"/>
@@ -4003,20 +4003,20 @@
         <v/>
       </c>
       <c r="D93" s="139" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E93" s="139"/>
       <c r="F93" s="12"/>
       <c r="G93" s="149" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H93" s="149"/>
       <c r="I93" s="149"/>
       <c r="J93" s="54" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K93" s="54" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L93" s="54" t="str">
         <f t="shared" si="2"/>
@@ -4033,20 +4033,20 @@
         <v/>
       </c>
       <c r="D94" s="139" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E94" s="139"/>
       <c r="F94" s="12"/>
       <c r="G94" s="149" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H94" s="149"/>
       <c r="I94" s="149"/>
       <c r="J94" s="54" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K94" s="54" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L94" s="54" t="str">
         <f t="shared" si="2"/>
@@ -4063,20 +4063,20 @@
         <v/>
       </c>
       <c r="D95" s="139" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E95" s="139"/>
       <c r="F95" s="12"/>
       <c r="G95" s="149" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H95" s="149"/>
       <c r="I95" s="149"/>
       <c r="J95" s="54" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K95" s="54" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L95" s="54" t="str">
         <f t="shared" si="2"/>
@@ -4093,20 +4093,20 @@
         <v/>
       </c>
       <c r="D96" s="139" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E96" s="139"/>
       <c r="F96" s="12"/>
       <c r="G96" s="149" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H96" s="149"/>
       <c r="I96" s="149"/>
       <c r="J96" s="54" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K96" s="54" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L96" s="54" t="str">
         <f t="shared" si="2"/>
@@ -4123,20 +4123,20 @@
         <v/>
       </c>
       <c r="D97" s="139" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E97" s="139"/>
       <c r="F97" s="12"/>
       <c r="G97" s="149" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H97" s="149"/>
       <c r="I97" s="149"/>
       <c r="J97" s="54" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K97" s="54" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L97" s="54" t="str">
         <f t="shared" si="2"/>
@@ -4153,20 +4153,20 @@
         <v/>
       </c>
       <c r="D98" s="139" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E98" s="139"/>
       <c r="F98" s="12"/>
       <c r="G98" s="149" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H98" s="149"/>
       <c r="I98" s="149"/>
       <c r="J98" s="54" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K98" s="54" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L98" s="54" t="str">
         <f t="shared" si="2"/>
@@ -4183,20 +4183,20 @@
         <v/>
       </c>
       <c r="D99" s="139" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E99" s="139"/>
       <c r="F99" s="12"/>
       <c r="G99" s="149" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H99" s="149"/>
       <c r="I99" s="149"/>
       <c r="J99" s="54" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K99" s="54" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L99" s="54" t="str">
         <f t="shared" si="2"/>
@@ -4213,20 +4213,20 @@
         <v/>
       </c>
       <c r="D100" s="139" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E100" s="139"/>
       <c r="F100" s="12"/>
       <c r="G100" s="149" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H100" s="149"/>
       <c r="I100" s="149"/>
       <c r="J100" s="54" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K100" s="54" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L100" s="54" t="str">
         <f t="shared" si="2"/>
@@ -4243,20 +4243,20 @@
         <v/>
       </c>
       <c r="D101" s="139" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E101" s="139"/>
       <c r="F101" s="12"/>
       <c r="G101" s="149" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H101" s="149"/>
       <c r="I101" s="149"/>
       <c r="J101" s="54" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K101" s="54" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L101" s="54" t="str">
         <f t="shared" si="2"/>
@@ -4273,20 +4273,20 @@
         <v/>
       </c>
       <c r="D102" s="139" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E102" s="139"/>
       <c r="F102" s="12"/>
       <c r="G102" s="149" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H102" s="149"/>
       <c r="I102" s="149"/>
       <c r="J102" s="54" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K102" s="54" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L102" s="54" t="str">
         <f t="shared" si="2"/>
@@ -4303,20 +4303,20 @@
         <v/>
       </c>
       <c r="D103" s="139" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E103" s="139"/>
       <c r="F103" s="12"/>
       <c r="G103" s="149" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H103" s="149"/>
       <c r="I103" s="149"/>
       <c r="J103" s="54" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K103" s="54" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L103" s="54" t="str">
         <f t="shared" si="2"/>
@@ -4333,20 +4333,20 @@
         <v/>
       </c>
       <c r="D104" s="139" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E104" s="139"/>
       <c r="F104" s="12"/>
       <c r="G104" s="149" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H104" s="149"/>
       <c r="I104" s="149"/>
       <c r="J104" s="54" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K104" s="54" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L104" s="54" t="str">
         <f t="shared" si="2"/>
@@ -4363,20 +4363,20 @@
         <v/>
       </c>
       <c r="D105" s="139" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E105" s="139"/>
       <c r="F105" s="12"/>
       <c r="G105" s="149" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H105" s="149"/>
       <c r="I105" s="149"/>
       <c r="J105" s="54" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K105" s="54" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L105" s="54" t="str">
         <f t="shared" si="2"/>
@@ -4393,20 +4393,20 @@
         <v/>
       </c>
       <c r="D106" s="139" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E106" s="139"/>
       <c r="F106" s="12"/>
       <c r="G106" s="149" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H106" s="149"/>
       <c r="I106" s="149"/>
       <c r="J106" s="54" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K106" s="54" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L106" s="54" t="str">
         <f t="shared" si="2"/>
@@ -4423,20 +4423,20 @@
         <v/>
       </c>
       <c r="D107" s="139" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E107" s="139"/>
       <c r="F107" s="12"/>
       <c r="G107" s="149" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H107" s="149"/>
       <c r="I107" s="149"/>
       <c r="J107" s="54" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K107" s="54" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L107" s="54" t="str">
         <f t="shared" si="2"/>
@@ -4453,20 +4453,20 @@
         <v/>
       </c>
       <c r="D108" s="139" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E108" s="139"/>
       <c r="F108" s="12"/>
       <c r="G108" s="149" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H108" s="149"/>
       <c r="I108" s="149"/>
       <c r="J108" s="54" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K108" s="54" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L108" s="54" t="str">
         <f t="shared" si="2"/>
@@ -4483,20 +4483,20 @@
         <v/>
       </c>
       <c r="D109" s="139" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E109" s="139"/>
       <c r="F109" s="12"/>
       <c r="G109" s="149" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H109" s="149"/>
       <c r="I109" s="149"/>
       <c r="J109" s="54" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K109" s="54" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L109" s="54" t="str">
         <f t="shared" si="2"/>
@@ -4513,20 +4513,20 @@
         <v/>
       </c>
       <c r="D110" s="139" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E110" s="139"/>
       <c r="F110" s="12"/>
       <c r="G110" s="149" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H110" s="149"/>
       <c r="I110" s="149"/>
       <c r="J110" s="54" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K110" s="54" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L110" s="54" t="str">
         <f t="shared" si="2"/>
@@ -4543,20 +4543,20 @@
         <v/>
       </c>
       <c r="D111" s="139" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E111" s="139"/>
       <c r="F111" s="12"/>
       <c r="G111" s="149" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H111" s="149"/>
       <c r="I111" s="149"/>
       <c r="J111" s="54" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K111" s="54" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L111" s="54" t="str">
         <f t="shared" si="2"/>
@@ -4573,20 +4573,20 @@
         <v/>
       </c>
       <c r="D112" s="139" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E112" s="139"/>
       <c r="F112" s="12"/>
       <c r="G112" s="149" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H112" s="149"/>
       <c r="I112" s="149"/>
       <c r="J112" s="54" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K112" s="54" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L112" s="54" t="str">
         <f t="shared" si="2"/>
@@ -4603,20 +4603,20 @@
         <v/>
       </c>
       <c r="D113" s="139" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E113" s="139"/>
       <c r="F113" s="12"/>
       <c r="G113" s="149" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H113" s="149"/>
       <c r="I113" s="149"/>
       <c r="J113" s="54" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K113" s="54" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L113" s="54" t="str">
         <f t="shared" si="2"/>
@@ -4633,20 +4633,20 @@
         <v/>
       </c>
       <c r="D114" s="139" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E114" s="139"/>
       <c r="F114" s="12"/>
       <c r="G114" s="149" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H114" s="149"/>
       <c r="I114" s="149"/>
       <c r="J114" s="54" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K114" s="54" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L114" s="54" t="str">
         <f t="shared" si="2"/>
@@ -4663,20 +4663,20 @@
         <v/>
       </c>
       <c r="D115" s="139" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E115" s="139"/>
       <c r="F115" s="12"/>
       <c r="G115" s="149" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H115" s="149"/>
       <c r="I115" s="149"/>
       <c r="J115" s="54" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K115" s="54" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L115" s="54" t="str">
         <f t="shared" si="2"/>
@@ -4693,20 +4693,20 @@
         <v/>
       </c>
       <c r="D116" s="139" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E116" s="139"/>
       <c r="F116" s="12"/>
       <c r="G116" s="149" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H116" s="149"/>
       <c r="I116" s="149"/>
       <c r="J116" s="54" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K116" s="54" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L116" s="54" t="str">
         <f t="shared" si="2"/>
@@ -4723,20 +4723,20 @@
         <v/>
       </c>
       <c r="D117" s="139" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E117" s="139"/>
       <c r="F117" s="12"/>
       <c r="G117" s="149" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H117" s="149"/>
       <c r="I117" s="149"/>
       <c r="J117" s="54" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K117" s="54" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L117" s="54" t="str">
         <f t="shared" si="2"/>
@@ -4753,20 +4753,20 @@
         <v/>
       </c>
       <c r="D118" s="139" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E118" s="139"/>
       <c r="F118" s="12"/>
       <c r="G118" s="149" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H118" s="149"/>
       <c r="I118" s="149"/>
       <c r="J118" s="54" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K118" s="54" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L118" s="54" t="str">
         <f t="shared" si="2"/>
@@ -4783,20 +4783,20 @@
         <v/>
       </c>
       <c r="D119" s="139" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E119" s="139"/>
       <c r="F119" s="12"/>
       <c r="G119" s="149" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H119" s="149"/>
       <c r="I119" s="149"/>
       <c r="J119" s="54" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K119" s="54" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L119" s="54" t="str">
         <f t="shared" si="2"/>
@@ -4813,20 +4813,20 @@
         <v/>
       </c>
       <c r="D120" s="139" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E120" s="139"/>
       <c r="F120" s="12"/>
       <c r="G120" s="149" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H120" s="149"/>
       <c r="I120" s="149"/>
       <c r="J120" s="54" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K120" s="54" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L120" s="54" t="str">
         <f t="shared" si="2"/>
@@ -4843,20 +4843,20 @@
         <v/>
       </c>
       <c r="D121" s="139" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E121" s="139"/>
       <c r="F121" s="12"/>
       <c r="G121" s="149" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H121" s="149"/>
       <c r="I121" s="149"/>
       <c r="J121" s="54" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K121" s="54" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L121" s="54" t="str">
         <f t="shared" si="2"/>
@@ -4873,20 +4873,20 @@
         <v/>
       </c>
       <c r="D122" s="139" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E122" s="139"/>
       <c r="F122" s="12"/>
       <c r="G122" s="149" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H122" s="149"/>
       <c r="I122" s="149"/>
       <c r="J122" s="54" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K122" s="54" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L122" s="54" t="str">
         <f t="shared" si="2"/>
@@ -4903,20 +4903,20 @@
         <v/>
       </c>
       <c r="D123" s="139" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E123" s="139"/>
       <c r="F123" s="12"/>
       <c r="G123" s="149" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H123" s="149"/>
       <c r="I123" s="149"/>
       <c r="J123" s="54" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K123" s="54" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L123" s="54" t="str">
         <f t="shared" si="2"/>
@@ -4933,20 +4933,20 @@
         <v/>
       </c>
       <c r="D124" s="139" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E124" s="139"/>
       <c r="F124" s="12"/>
       <c r="G124" s="149" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H124" s="149"/>
       <c r="I124" s="149"/>
       <c r="J124" s="54" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K124" s="54" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L124" s="54" t="str">
         <f t="shared" si="2"/>
@@ -4963,20 +4963,20 @@
         <v/>
       </c>
       <c r="D125" s="139" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E125" s="139"/>
       <c r="F125" s="12"/>
       <c r="G125" s="149" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H125" s="149"/>
       <c r="I125" s="149"/>
       <c r="J125" s="54" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K125" s="54" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L125" s="54" t="str">
         <f t="shared" si="2"/>
@@ -4993,20 +4993,20 @@
         <v/>
       </c>
       <c r="D126" s="139" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E126" s="139"/>
       <c r="F126" s="12"/>
       <c r="G126" s="149" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H126" s="149"/>
       <c r="I126" s="149"/>
       <c r="J126" s="54" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K126" s="54" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L126" s="54" t="str">
         <f t="shared" si="2"/>
@@ -5023,20 +5023,20 @@
         <v/>
       </c>
       <c r="D127" s="139" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E127" s="139"/>
       <c r="F127" s="12"/>
       <c r="G127" s="149" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H127" s="149"/>
       <c r="I127" s="149"/>
       <c r="J127" s="54" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K127" s="54" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L127" s="54" t="str">
         <f t="shared" si="2"/>
@@ -5053,20 +5053,20 @@
         <v/>
       </c>
       <c r="D128" s="139" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E128" s="139"/>
       <c r="F128" s="12"/>
       <c r="G128" s="149" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H128" s="149"/>
       <c r="I128" s="149"/>
       <c r="J128" s="54" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K128" s="54" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L128" s="54" t="str">
         <f t="shared" si="2"/>
@@ -5083,20 +5083,20 @@
         <v/>
       </c>
       <c r="D129" s="139" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E129" s="139"/>
       <c r="F129" s="12"/>
       <c r="G129" s="149" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H129" s="149"/>
       <c r="I129" s="149"/>
       <c r="J129" s="54" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K129" s="54" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L129" s="54" t="str">
         <f t="shared" si="2"/>
@@ -5113,20 +5113,20 @@
         <v/>
       </c>
       <c r="D130" s="139" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E130" s="139"/>
       <c r="F130" s="12"/>
       <c r="G130" s="149" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H130" s="149"/>
       <c r="I130" s="149"/>
       <c r="J130" s="54" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K130" s="54" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L130" s="54" t="str">
         <f t="shared" si="2"/>
@@ -5143,20 +5143,20 @@
         <v/>
       </c>
       <c r="D131" s="139" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E131" s="139"/>
       <c r="F131" s="12"/>
       <c r="G131" s="149" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H131" s="149"/>
       <c r="I131" s="149"/>
       <c r="J131" s="54" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K131" s="54" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L131" s="54" t="str">
         <f t="shared" si="2"/>
@@ -5173,20 +5173,20 @@
         <v/>
       </c>
       <c r="D132" s="139" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E132" s="139"/>
       <c r="F132" s="12"/>
       <c r="G132" s="149" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H132" s="149"/>
       <c r="I132" s="149"/>
       <c r="J132" s="54" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K132" s="54" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L132" s="54" t="str">
         <f t="shared" si="2"/>
@@ -5203,20 +5203,20 @@
         <v/>
       </c>
       <c r="D133" s="139" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E133" s="139"/>
       <c r="F133" s="12"/>
       <c r="G133" s="149" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H133" s="149"/>
       <c r="I133" s="149"/>
       <c r="J133" s="54" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K133" s="54" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L133" s="54" t="str">
         <f t="shared" si="2"/>
@@ -5233,20 +5233,20 @@
         <v/>
       </c>
       <c r="D134" s="139" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E134" s="139"/>
       <c r="F134" s="12"/>
       <c r="G134" s="149" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H134" s="149"/>
       <c r="I134" s="149"/>
       <c r="J134" s="54" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K134" s="54" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L134" s="54" t="str">
         <f t="shared" si="2"/>
@@ -5263,20 +5263,20 @@
         <v/>
       </c>
       <c r="D135" s="139" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E135" s="139"/>
       <c r="F135" s="12"/>
       <c r="G135" s="149" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H135" s="149"/>
       <c r="I135" s="149"/>
       <c r="J135" s="54" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K135" s="54" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L135" s="54" t="str">
         <f t="shared" ref="L135:L163" si="4">IFERROR(J135+K135,"")</f>
@@ -5293,20 +5293,20 @@
         <v/>
       </c>
       <c r="D136" s="139" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E136" s="139"/>
       <c r="F136" s="12"/>
       <c r="G136" s="149" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H136" s="149"/>
       <c r="I136" s="149"/>
       <c r="J136" s="54" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K136" s="54" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L136" s="54" t="str">
         <f t="shared" si="4"/>
@@ -5323,20 +5323,20 @@
         <v/>
       </c>
       <c r="D137" s="139" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E137" s="139"/>
       <c r="F137" s="12"/>
       <c r="G137" s="149" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H137" s="149"/>
       <c r="I137" s="149"/>
       <c r="J137" s="54" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K137" s="54" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L137" s="54" t="str">
         <f t="shared" si="4"/>
@@ -5353,20 +5353,20 @@
         <v/>
       </c>
       <c r="D138" s="139" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E138" s="139"/>
       <c r="F138" s="12"/>
       <c r="G138" s="149" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H138" s="149"/>
       <c r="I138" s="149"/>
       <c r="J138" s="54" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K138" s="54" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L138" s="54" t="str">
         <f t="shared" si="4"/>
@@ -5383,20 +5383,20 @@
         <v/>
       </c>
       <c r="D139" s="139" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E139" s="139"/>
       <c r="F139" s="12"/>
       <c r="G139" s="149" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H139" s="149"/>
       <c r="I139" s="149"/>
       <c r="J139" s="54" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K139" s="54" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L139" s="54" t="str">
         <f t="shared" si="4"/>
@@ -5413,20 +5413,20 @@
         <v/>
       </c>
       <c r="D140" s="139" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E140" s="139"/>
       <c r="F140" s="12"/>
       <c r="G140" s="149" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H140" s="149"/>
       <c r="I140" s="149"/>
       <c r="J140" s="54" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K140" s="54" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L140" s="54" t="str">
         <f t="shared" si="4"/>
@@ -5443,20 +5443,20 @@
         <v/>
       </c>
       <c r="D141" s="139" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E141" s="139"/>
       <c r="F141" s="12"/>
       <c r="G141" s="149" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H141" s="149"/>
       <c r="I141" s="149"/>
       <c r="J141" s="54" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K141" s="54" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L141" s="54" t="str">
         <f t="shared" si="4"/>
@@ -5473,20 +5473,20 @@
         <v/>
       </c>
       <c r="D142" s="139" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E142" s="139"/>
       <c r="F142" s="12"/>
       <c r="G142" s="149" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H142" s="149"/>
       <c r="I142" s="149"/>
       <c r="J142" s="54" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K142" s="54" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L142" s="54" t="str">
         <f t="shared" si="4"/>
@@ -5503,20 +5503,20 @@
         <v/>
       </c>
       <c r="D143" s="139" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E143" s="139"/>
       <c r="F143" s="12"/>
       <c r="G143" s="149" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H143" s="149"/>
       <c r="I143" s="149"/>
       <c r="J143" s="54" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K143" s="54" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L143" s="54" t="str">
         <f t="shared" si="4"/>
@@ -5533,20 +5533,20 @@
         <v/>
       </c>
       <c r="D144" s="139" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E144" s="139"/>
       <c r="F144" s="12"/>
       <c r="G144" s="149" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H144" s="149"/>
       <c r="I144" s="149"/>
       <c r="J144" s="54" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K144" s="54" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L144" s="54" t="str">
         <f t="shared" si="4"/>
@@ -5563,20 +5563,20 @@
         <v/>
       </c>
       <c r="D145" s="139" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E145" s="139"/>
       <c r="F145" s="12"/>
       <c r="G145" s="149" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H145" s="149"/>
       <c r="I145" s="149"/>
       <c r="J145" s="54" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K145" s="54" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L145" s="54" t="str">
         <f t="shared" si="4"/>
@@ -5593,20 +5593,20 @@
         <v/>
       </c>
       <c r="D146" s="139" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E146" s="139"/>
       <c r="F146" s="12"/>
       <c r="G146" s="149" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H146" s="149"/>
       <c r="I146" s="149"/>
       <c r="J146" s="54" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K146" s="54" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L146" s="54" t="str">
         <f t="shared" si="4"/>
@@ -5623,20 +5623,20 @@
         <v/>
       </c>
       <c r="D147" s="139" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E147" s="139"/>
       <c r="F147" s="12"/>
       <c r="G147" s="149" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H147" s="149"/>
       <c r="I147" s="149"/>
       <c r="J147" s="54" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K147" s="54" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L147" s="54" t="str">
         <f t="shared" si="4"/>
@@ -5653,20 +5653,20 @@
         <v/>
       </c>
       <c r="D148" s="139" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E148" s="139"/>
       <c r="F148" s="12"/>
       <c r="G148" s="149" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H148" s="149"/>
       <c r="I148" s="149"/>
       <c r="J148" s="54" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K148" s="54" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L148" s="54" t="str">
         <f t="shared" si="4"/>
@@ -5683,20 +5683,20 @@
         <v/>
       </c>
       <c r="D149" s="139" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E149" s="139"/>
       <c r="F149" s="12"/>
       <c r="G149" s="149" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H149" s="149"/>
       <c r="I149" s="149"/>
       <c r="J149" s="54" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K149" s="54" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L149" s="54" t="str">
         <f t="shared" si="4"/>
@@ -5713,20 +5713,20 @@
         <v/>
       </c>
       <c r="D150" s="139" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E150" s="139"/>
       <c r="F150" s="12"/>
       <c r="G150" s="149" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H150" s="149"/>
       <c r="I150" s="149"/>
       <c r="J150" s="54" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K150" s="54" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L150" s="54" t="str">
         <f t="shared" si="4"/>
@@ -5743,20 +5743,20 @@
         <v/>
       </c>
       <c r="D151" s="139" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E151" s="139"/>
       <c r="F151" s="12"/>
       <c r="G151" s="149" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H151" s="149"/>
       <c r="I151" s="149"/>
       <c r="J151" s="54" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K151" s="54" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L151" s="54" t="str">
         <f t="shared" si="4"/>
@@ -5773,20 +5773,20 @@
         <v/>
       </c>
       <c r="D152" s="139" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E152" s="139"/>
       <c r="F152" s="12"/>
       <c r="G152" s="149" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H152" s="149"/>
       <c r="I152" s="149"/>
       <c r="J152" s="54" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K152" s="54" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L152" s="54" t="str">
         <f t="shared" si="4"/>
@@ -5803,20 +5803,20 @@
         <v/>
       </c>
       <c r="D153" s="139" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E153" s="139"/>
       <c r="F153" s="12"/>
       <c r="G153" s="149" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H153" s="149"/>
       <c r="I153" s="149"/>
       <c r="J153" s="54" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K153" s="54" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L153" s="54" t="str">
         <f t="shared" si="4"/>
@@ -5833,20 +5833,20 @@
         <v/>
       </c>
       <c r="D154" s="139" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E154" s="139"/>
       <c r="F154" s="12"/>
       <c r="G154" s="149" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H154" s="149"/>
       <c r="I154" s="149"/>
       <c r="J154" s="54" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K154" s="54" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L154" s="54" t="str">
         <f t="shared" si="4"/>
@@ -5863,20 +5863,20 @@
         <v/>
       </c>
       <c r="D155" s="139" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E155" s="139"/>
       <c r="F155" s="12"/>
       <c r="G155" s="149" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H155" s="149"/>
       <c r="I155" s="149"/>
       <c r="J155" s="54" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K155" s="54" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L155" s="54" t="str">
         <f t="shared" si="4"/>
@@ -5893,20 +5893,20 @@
         <v/>
       </c>
       <c r="D156" s="139" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E156" s="139"/>
       <c r="F156" s="12"/>
       <c r="G156" s="149" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H156" s="149"/>
       <c r="I156" s="149"/>
       <c r="J156" s="54" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K156" s="54" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L156" s="54" t="str">
         <f t="shared" si="4"/>
@@ -5923,20 +5923,20 @@
         <v/>
       </c>
       <c r="D157" s="139" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E157" s="139"/>
       <c r="F157" s="12"/>
       <c r="G157" s="149" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H157" s="149"/>
       <c r="I157" s="149"/>
       <c r="J157" s="54" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K157" s="54" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L157" s="54" t="str">
         <f t="shared" si="4"/>
@@ -5953,20 +5953,20 @@
         <v/>
       </c>
       <c r="D158" s="139" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E158" s="139"/>
       <c r="F158" s="12"/>
       <c r="G158" s="149" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H158" s="149"/>
       <c r="I158" s="149"/>
       <c r="J158" s="54" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K158" s="54" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L158" s="54" t="str">
         <f t="shared" si="4"/>
@@ -5983,20 +5983,20 @@
         <v/>
       </c>
       <c r="D159" s="139" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E159" s="139"/>
       <c r="F159" s="12"/>
       <c r="G159" s="149" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H159" s="149"/>
       <c r="I159" s="149"/>
       <c r="J159" s="54" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K159" s="54" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L159" s="54" t="str">
         <f t="shared" si="4"/>
@@ -6013,20 +6013,20 @@
         <v/>
       </c>
       <c r="D160" s="139" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E160" s="139"/>
       <c r="F160" s="12"/>
       <c r="G160" s="149" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H160" s="149"/>
       <c r="I160" s="149"/>
       <c r="J160" s="54" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K160" s="54" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L160" s="54" t="str">
         <f t="shared" si="4"/>
@@ -6043,20 +6043,20 @@
         <v/>
       </c>
       <c r="D161" s="139" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E161" s="139"/>
       <c r="F161" s="12"/>
       <c r="G161" s="149" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H161" s="149"/>
       <c r="I161" s="149"/>
       <c r="J161" s="54" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K161" s="54" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L161" s="54" t="str">
         <f t="shared" si="4"/>
@@ -6074,20 +6074,20 @@
       </c>
       <c r="C162" s="4"/>
       <c r="D162" s="139" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E162" s="139"/>
       <c r="F162" s="12"/>
       <c r="G162" s="149" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H162" s="149"/>
       <c r="I162" s="149"/>
       <c r="J162" s="54" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K162" s="54" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L162" s="54" t="str">
         <f t="shared" si="4"/>
@@ -6104,20 +6104,20 @@
         <v/>
       </c>
       <c r="D163" s="139" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E163" s="139"/>
       <c r="F163" s="12"/>
       <c r="G163" s="149" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H163" s="149"/>
       <c r="I163" s="149"/>
       <c r="J163" s="54" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K163" s="54" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L163" s="54" t="str">
         <f t="shared" si="4"/>
@@ -6134,7 +6134,7 @@
         <v/>
       </c>
       <c r="D164" s="100" t="s">
-        <v>24</v>
+        <v>59</v>
       </c>
       <c r="E164" s="101"/>
       <c r="F164" s="52"/>
@@ -6205,7 +6205,7 @@
       <c r="E167" s="2"/>
       <c r="F167" s="6"/>
       <c r="G167" s="150" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H167" s="150"/>
       <c r="I167" s="150"/>
@@ -6321,7 +6321,7 @@
       <c r="E172" s="2"/>
       <c r="F172" s="6"/>
       <c r="G172" s="150" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H172" s="150"/>
       <c r="I172" s="150"/>
@@ -6370,22 +6370,22 @@
       <c r="C174" s="4"/>
       <c r="D174" s="5"/>
       <c r="E174" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F174" s="6"/>
       <c r="G174" s="150"/>
       <c r="H174" s="150"/>
       <c r="I174" s="150"/>
       <c r="J174" s="55">
-        <f>SUM($J$7:$J$173)-SUMIF($G$7:$G$173,"小計",$J$7:$J$173)</f>
+        <f>SUMIF($G$7:$G$173,"小計",$J$7:$J$173)</f>
         <v>0</v>
       </c>
       <c r="K174" s="55">
-        <f>SUM($K$7:$K$173)-SUMIF($G$7:$G$173,"小計",$K$7:$K$173)</f>
+        <f>SUMIF($G$7:$G$173,"小計",$K$7:$K$173)</f>
         <v>0</v>
       </c>
       <c r="L174" s="55">
-        <f>SUM($L$7:$L$173)-SUMIF($G$7:$G$173,"小計",$L$7:$L$173)</f>
+        <f>SUMIF($G$7:$G$173,"小計",$L$7:$L$173)</f>
         <v>0</v>
       </c>
       <c r="M174" s="13"/>
@@ -6498,7 +6498,7 @@
       </c>
       <c r="F180" s="53"/>
       <c r="G180" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H180" s="6"/>
       <c r="I180" s="6"/>
@@ -6524,14 +6524,14 @@
         <v/>
       </c>
       <c r="D181" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E181" s="105"/>
       <c r="F181" s="100" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G181" s="105" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H181" s="105"/>
       <c r="I181" s="105"/>
@@ -6554,7 +6554,7 @@
       <c r="D182" s="29"/>
       <c r="E182" s="107"/>
       <c r="F182" s="100" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G182" s="105"/>
       <c r="H182" s="105"/>
@@ -6580,10 +6580,10 @@
       </c>
       <c r="E183" s="105"/>
       <c r="F183" s="100" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G183" s="105" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H183" s="105"/>
       <c r="I183" s="105"/>
@@ -6606,7 +6606,7 @@
       <c r="D184" s="2"/>
       <c r="E184" s="107"/>
       <c r="F184" s="100" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G184" s="105"/>
       <c r="H184" s="105"/>
@@ -6630,7 +6630,7 @@
       <c r="D185" s="29"/>
       <c r="E185" s="107"/>
       <c r="F185" s="100" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G185" s="105"/>
       <c r="H185" s="105"/>
@@ -6654,7 +6654,7 @@
       <c r="D186" s="29"/>
       <c r="E186" s="107"/>
       <c r="F186" s="100" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G186" s="105"/>
       <c r="H186" s="105"/>
@@ -6676,11 +6676,11 @@
         <v/>
       </c>
       <c r="D187" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E187" s="105"/>
       <c r="F187" s="100" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G187" s="105"/>
       <c r="H187" s="105"/>
@@ -6704,7 +6704,7 @@
       <c r="D188" s="29"/>
       <c r="E188" s="107"/>
       <c r="F188" s="100" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G188" s="105"/>
       <c r="H188" s="105"/>
@@ -6728,7 +6728,7 @@
       <c r="D189" s="29"/>
       <c r="E189" s="107"/>
       <c r="F189" s="100" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G189" s="105"/>
       <c r="H189" s="105"/>
@@ -6752,7 +6752,7 @@
       <c r="D190" s="29"/>
       <c r="E190" s="107"/>
       <c r="F190" s="100" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G190" s="105"/>
       <c r="H190" s="105"/>
@@ -6776,7 +6776,7 @@
       <c r="D191" s="29"/>
       <c r="E191" s="107"/>
       <c r="F191" s="100" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G191" s="105"/>
       <c r="H191" s="105"/>
@@ -6800,7 +6800,7 @@
       <c r="D192" s="8"/>
       <c r="E192" s="105"/>
       <c r="F192" s="100" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G192" s="105"/>
       <c r="H192" s="105"/>
@@ -6824,7 +6824,7 @@
       <c r="D193" s="29"/>
       <c r="E193" s="107"/>
       <c r="F193" s="100" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G193" s="105"/>
       <c r="H193" s="105"/>
@@ -6848,7 +6848,7 @@
       <c r="D194" s="29"/>
       <c r="E194" s="107"/>
       <c r="F194" s="100" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G194" s="105"/>
       <c r="H194" s="105"/>
@@ -6872,7 +6872,7 @@
       <c r="D195" s="29"/>
       <c r="E195" s="107"/>
       <c r="F195" s="100" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G195" s="105"/>
       <c r="H195" s="105"/>
@@ -6896,7 +6896,7 @@
       <c r="D196" s="29"/>
       <c r="E196" s="107"/>
       <c r="F196" s="100" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G196" s="105"/>
       <c r="H196" s="105"/>
@@ -7075,7 +7075,7 @@
       <c r="D204" s="91"/>
       <c r="E204" s="109"/>
       <c r="F204" s="100" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G204" s="105"/>
       <c r="H204" s="105"/>
@@ -7100,7 +7100,7 @@
       <c r="D205" s="91"/>
       <c r="E205" s="109"/>
       <c r="F205" s="100" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G205" s="105"/>
       <c r="H205" s="105"/>
@@ -7183,7 +7183,7 @@
         <v>1</v>
       </c>
       <c r="D209" s="29" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E209" s="110"/>
       <c r="F209" s="111"/>
@@ -7341,7 +7341,7 @@
       </c>
       <c r="D215" s="2"/>
       <c r="E215" s="113" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F215" s="114"/>
       <c r="G215" s="115"/>
@@ -7397,7 +7397,7 @@
       </c>
       <c r="D217" s="2"/>
       <c r="E217" s="112" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F217" s="117"/>
       <c r="G217" s="117"/>
@@ -7423,7 +7423,7 @@
       </c>
       <c r="D218" s="2"/>
       <c r="E218" s="28" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F218" s="27"/>
       <c r="J218" s="21">
@@ -7485,7 +7485,7 @@
         <v>1</v>
       </c>
       <c r="E222" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F222" s="25"/>
       <c r="G222" s="14"/>
@@ -7503,20 +7503,20 @@
         <v>1</v>
       </c>
       <c r="E223" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="F223" s="163" t="s">
         <v>36</v>
       </c>
-      <c r="F223" s="158" t="s">
-        <v>37</v>
-      </c>
-      <c r="G223" s="159"/>
+      <c r="G223" s="164"/>
       <c r="H223" s="145"/>
       <c r="I223" s="145"/>
-      <c r="J223" s="158" t="s">
+      <c r="J223" s="163" t="s">
+        <v>37</v>
+      </c>
+      <c r="K223" s="167"/>
+      <c r="L223" s="88" t="s">
         <v>38</v>
-      </c>
-      <c r="K223" s="165"/>
-      <c r="L223" s="88" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="224" spans="1:13" x14ac:dyDescent="0.2">
@@ -7527,12 +7527,12 @@
         <v>1</v>
       </c>
       <c r="E224" s="89"/>
-      <c r="F224" s="163"/>
-      <c r="G224" s="164"/>
+      <c r="F224" s="165"/>
+      <c r="G224" s="166"/>
       <c r="H224" s="146"/>
       <c r="I224" s="146"/>
-      <c r="J224" s="166"/>
-      <c r="K224" s="167"/>
+      <c r="J224" s="168"/>
+      <c r="K224" s="169"/>
       <c r="L224" s="17"/>
     </row>
     <row r="225" spans="1:13" x14ac:dyDescent="0.2">
@@ -7543,12 +7543,12 @@
         <v>1</v>
       </c>
       <c r="E225" s="89"/>
-      <c r="F225" s="158"/>
-      <c r="G225" s="165"/>
+      <c r="F225" s="163"/>
+      <c r="G225" s="167"/>
       <c r="H225" s="147"/>
       <c r="I225" s="147"/>
-      <c r="J225" s="166"/>
-      <c r="K225" s="167"/>
+      <c r="J225" s="168"/>
+      <c r="K225" s="169"/>
       <c r="L225" s="17"/>
     </row>
     <row r="226" spans="1:13" x14ac:dyDescent="0.2">
@@ -7559,12 +7559,12 @@
         <v>1</v>
       </c>
       <c r="E226" s="89"/>
-      <c r="F226" s="158"/>
-      <c r="G226" s="165"/>
+      <c r="F226" s="163"/>
+      <c r="G226" s="167"/>
       <c r="H226" s="147"/>
       <c r="I226" s="147"/>
-      <c r="J226" s="166"/>
-      <c r="K226" s="167"/>
+      <c r="J226" s="168"/>
+      <c r="K226" s="169"/>
       <c r="L226" s="17"/>
     </row>
     <row r="227" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7591,14 +7591,14 @@
       <c r="B228" s="93">
         <v>1</v>
       </c>
-      <c r="E228" s="168" t="s">
-        <v>49</v>
-      </c>
-      <c r="F228" s="168"/>
-      <c r="G228" s="168"/>
-      <c r="H228" s="168"/>
-      <c r="I228" s="168"/>
-      <c r="J228" s="168"/>
+      <c r="E228" s="170" t="s">
+        <v>48</v>
+      </c>
+      <c r="F228" s="170"/>
+      <c r="G228" s="170"/>
+      <c r="H228" s="170"/>
+      <c r="I228" s="170"/>
+      <c r="J228" s="170"/>
       <c r="K228" s="69"/>
       <c r="L228" s="69"/>
     </row>
@@ -7610,8 +7610,8 @@
         <f>IF(OR($J229="",$J229=0),"",1)</f>
         <v/>
       </c>
-      <c r="E229" s="155"/>
-      <c r="F229" s="156"/>
+      <c r="E229" s="160"/>
+      <c r="F229" s="161"/>
       <c r="G229" s="118"/>
       <c r="H229" s="118"/>
       <c r="I229" s="118"/>
@@ -7633,8 +7633,8 @@
         <f>IF(OR($J230="",$J230=0),"",1)</f>
         <v/>
       </c>
-      <c r="E230" s="155"/>
-      <c r="F230" s="156"/>
+      <c r="E230" s="160"/>
+      <c r="F230" s="161"/>
       <c r="G230" s="118"/>
       <c r="H230" s="118"/>
       <c r="I230" s="118"/>
@@ -7656,8 +7656,8 @@
         <f>IF(OR($J231="",$J231=0),"",1)</f>
         <v/>
       </c>
-      <c r="E231" s="155"/>
-      <c r="F231" s="156"/>
+      <c r="E231" s="160"/>
+      <c r="F231" s="161"/>
       <c r="G231" s="118"/>
       <c r="H231" s="118"/>
       <c r="I231" s="118"/>
@@ -7679,8 +7679,8 @@
         <f>IF(OR($J232="",$J232=0),"",1)</f>
         <v/>
       </c>
-      <c r="E232" s="155"/>
-      <c r="F232" s="156"/>
+      <c r="E232" s="160"/>
+      <c r="F232" s="161"/>
       <c r="G232" s="118"/>
       <c r="H232" s="118"/>
       <c r="I232" s="118"/>
@@ -7727,7 +7727,7 @@
     </row>
     <row r="234" spans="1:13" s="69" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A234" s="97" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B234" s="92"/>
       <c r="C234" s="80"/>
@@ -7740,7 +7740,7 @@
     </row>
     <row r="235" spans="1:13" s="69" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A235" s="97" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B235" s="92"/>
       <c r="C235" s="80"/>
@@ -7753,7 +7753,7 @@
     </row>
     <row r="236" spans="1:13" s="69" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A236" s="97" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B236" s="92"/>
       <c r="C236" s="80"/>
@@ -7765,49 +7765,49 @@
     </row>
     <row r="237" spans="1:13" ht="19.2" x14ac:dyDescent="0.2">
       <c r="A237" s="97" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B237" s="93">
         <v>9</v>
       </c>
-      <c r="D237" s="170">
+      <c r="D237" s="159">
         <f>$D$1</f>
         <v>43738</v>
       </c>
-      <c r="E237" s="170"/>
-      <c r="F237" s="170"/>
-      <c r="G237" s="170"/>
-      <c r="H237" s="170"/>
-      <c r="I237" s="170"/>
-      <c r="J237" s="170"/>
-      <c r="K237" s="170"/>
-      <c r="L237" s="170"/>
-      <c r="M237" s="170"/>
+      <c r="E237" s="159"/>
+      <c r="F237" s="159"/>
+      <c r="G237" s="159"/>
+      <c r="H237" s="159"/>
+      <c r="I237" s="159"/>
+      <c r="J237" s="159"/>
+      <c r="K237" s="159"/>
+      <c r="L237" s="159"/>
+      <c r="M237" s="159"/>
     </row>
     <row r="238" spans="1:13" ht="19.2" x14ac:dyDescent="0.25">
       <c r="A238" s="97" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B238" s="93">
         <v>9</v>
       </c>
-      <c r="D238" s="161">
+      <c r="D238" s="156">
         <f>$D237+15</f>
         <v>43753</v>
       </c>
-      <c r="E238" s="162"/>
-      <c r="F238" s="162"/>
-      <c r="G238" s="162"/>
-      <c r="H238" s="162"/>
-      <c r="I238" s="162"/>
-      <c r="J238" s="162"/>
-      <c r="K238" s="162"/>
-      <c r="L238" s="162"/>
+      <c r="E238" s="157"/>
+      <c r="F238" s="157"/>
+      <c r="G238" s="157"/>
+      <c r="H238" s="157"/>
+      <c r="I238" s="157"/>
+      <c r="J238" s="157"/>
+      <c r="K238" s="157"/>
+      <c r="L238" s="157"/>
       <c r="M238" s="23"/>
     </row>
     <row r="239" spans="1:13" s="69" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A239" s="97" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B239" s="95">
         <v>9</v>
@@ -7822,25 +7822,25 @@
     </row>
     <row r="240" spans="1:13" s="69" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A240" s="97" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B240" s="95">
         <v>9</v>
       </c>
       <c r="C240" s="75"/>
-      <c r="D240" s="160" t="s">
+      <c r="D240" s="158" t="s">
         <v>23</v>
       </c>
-      <c r="E240" s="160"/>
+      <c r="E240" s="158"/>
       <c r="F240" s="73"/>
       <c r="G240" s="75" t="s">
         <v>0</v>
       </c>
       <c r="H240" s="148" t="s">
+        <v>57</v>
+      </c>
+      <c r="I240" s="148" t="s">
         <v>58</v>
-      </c>
-      <c r="I240" s="148" t="s">
-        <v>59</v>
       </c>
       <c r="J240" s="73" t="s">
         <v>10</v>
@@ -7855,7 +7855,7 @@
     </row>
     <row r="241" spans="1:13" s="69" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A241" s="97" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B241" s="95">
         <v>9</v>
@@ -8088,20 +8088,20 @@
         <v>1</v>
       </c>
       <c r="D250" s="139" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E250" s="139"/>
       <c r="F250" s="12"/>
       <c r="G250" s="149" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H250" s="149"/>
       <c r="I250" s="149"/>
       <c r="J250" s="57" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K250" s="57" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L250" s="54" t="str">
         <f t="shared" si="12"/>
@@ -8121,20 +8121,20 @@
         <v/>
       </c>
       <c r="D251" s="139" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E251" s="139"/>
       <c r="F251" s="12"/>
       <c r="G251" s="149" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H251" s="149"/>
       <c r="I251" s="149"/>
       <c r="J251" s="57" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K251" s="57" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L251" s="54" t="str">
         <f t="shared" si="12"/>
@@ -8154,20 +8154,20 @@
         <v/>
       </c>
       <c r="D252" s="139" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E252" s="139"/>
       <c r="F252" s="12"/>
       <c r="G252" s="149" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H252" s="149"/>
       <c r="I252" s="149"/>
       <c r="J252" s="57" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K252" s="57" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L252" s="54" t="str">
         <f t="shared" si="12"/>
@@ -8187,20 +8187,20 @@
         <v/>
       </c>
       <c r="D253" s="139" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E253" s="139"/>
       <c r="F253" s="12"/>
       <c r="G253" s="149" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H253" s="149"/>
       <c r="I253" s="149"/>
       <c r="J253" s="57" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K253" s="57" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L253" s="54" t="str">
         <f t="shared" si="12"/>
@@ -8220,20 +8220,20 @@
         <v/>
       </c>
       <c r="D254" s="139" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E254" s="139"/>
       <c r="F254" s="12"/>
       <c r="G254" s="149" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H254" s="149"/>
       <c r="I254" s="149"/>
       <c r="J254" s="57" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K254" s="57" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L254" s="54" t="str">
         <f t="shared" si="12"/>
@@ -8253,20 +8253,20 @@
         <v/>
       </c>
       <c r="D255" s="139" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E255" s="139"/>
       <c r="F255" s="12"/>
       <c r="G255" s="149" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H255" s="149"/>
       <c r="I255" s="149"/>
       <c r="J255" s="57" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K255" s="57" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L255" s="54" t="str">
         <f t="shared" si="12"/>
@@ -8286,20 +8286,20 @@
         <v/>
       </c>
       <c r="D256" s="139" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E256" s="139"/>
       <c r="F256" s="12"/>
       <c r="G256" s="149" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H256" s="149"/>
       <c r="I256" s="149"/>
       <c r="J256" s="57" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K256" s="57" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L256" s="54" t="str">
         <f t="shared" si="12"/>
@@ -8319,20 +8319,20 @@
         <v/>
       </c>
       <c r="D257" s="139" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E257" s="139"/>
       <c r="F257" s="12"/>
       <c r="G257" s="149" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H257" s="149"/>
       <c r="I257" s="149"/>
       <c r="J257" s="57" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K257" s="57" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L257" s="54" t="str">
         <f t="shared" si="12"/>
@@ -8352,20 +8352,20 @@
         <v/>
       </c>
       <c r="D258" s="139" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E258" s="139"/>
       <c r="F258" s="12"/>
       <c r="G258" s="149" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H258" s="149"/>
       <c r="I258" s="149"/>
       <c r="J258" s="57" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K258" s="57" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L258" s="54" t="str">
         <f t="shared" si="12"/>
@@ -8385,20 +8385,20 @@
         <v/>
       </c>
       <c r="D259" s="139" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E259" s="139"/>
       <c r="F259" s="12"/>
       <c r="G259" s="149" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H259" s="149"/>
       <c r="I259" s="149"/>
       <c r="J259" s="57" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K259" s="57" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L259" s="54" t="str">
         <f t="shared" si="12"/>
@@ -8418,20 +8418,20 @@
         <v/>
       </c>
       <c r="D260" s="139" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E260" s="139"/>
       <c r="F260" s="12"/>
       <c r="G260" s="149" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H260" s="149"/>
       <c r="I260" s="149"/>
       <c r="J260" s="57" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K260" s="57" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L260" s="54" t="str">
         <f t="shared" si="12"/>
@@ -8451,20 +8451,20 @@
         <v/>
       </c>
       <c r="D261" s="139" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E261" s="139"/>
       <c r="F261" s="12"/>
       <c r="G261" s="149" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H261" s="149"/>
       <c r="I261" s="149"/>
       <c r="J261" s="57" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K261" s="57" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L261" s="54" t="str">
         <f t="shared" si="12"/>
@@ -8484,20 +8484,20 @@
         <v/>
       </c>
       <c r="D262" s="139" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E262" s="139"/>
       <c r="F262" s="12"/>
       <c r="G262" s="149" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H262" s="149"/>
       <c r="I262" s="149"/>
       <c r="J262" s="57" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K262" s="57" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L262" s="54" t="str">
         <f t="shared" si="12"/>
@@ -8517,20 +8517,20 @@
         <v/>
       </c>
       <c r="D263" s="139" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E263" s="139"/>
       <c r="F263" s="12"/>
       <c r="G263" s="149" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H263" s="149"/>
       <c r="I263" s="149"/>
       <c r="J263" s="57" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K263" s="57" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L263" s="54" t="str">
         <f t="shared" si="12"/>
@@ -8550,20 +8550,20 @@
         <v/>
       </c>
       <c r="D264" s="139" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E264" s="139"/>
       <c r="F264" s="12"/>
       <c r="G264" s="149" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H264" s="149"/>
       <c r="I264" s="149"/>
       <c r="J264" s="57" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K264" s="57" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L264" s="54" t="str">
         <f t="shared" si="12"/>
@@ -8583,20 +8583,20 @@
         <v/>
       </c>
       <c r="D265" s="139" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E265" s="139"/>
       <c r="F265" s="12"/>
       <c r="G265" s="149" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H265" s="149"/>
       <c r="I265" s="149"/>
       <c r="J265" s="57" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K265" s="57" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L265" s="54" t="str">
         <f t="shared" si="12"/>
@@ -8616,20 +8616,20 @@
         <v/>
       </c>
       <c r="D266" s="139" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E266" s="139"/>
       <c r="F266" s="12"/>
       <c r="G266" s="149" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H266" s="149"/>
       <c r="I266" s="149"/>
       <c r="J266" s="57" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K266" s="57" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L266" s="54" t="str">
         <f t="shared" si="12"/>
@@ -8649,20 +8649,20 @@
         <v/>
       </c>
       <c r="D267" s="139" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E267" s="139"/>
       <c r="F267" s="12"/>
       <c r="G267" s="149" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H267" s="149"/>
       <c r="I267" s="149"/>
       <c r="J267" s="57" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K267" s="57" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L267" s="54" t="str">
         <f t="shared" si="12"/>
@@ -8682,20 +8682,20 @@
         <v/>
       </c>
       <c r="D268" s="139" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E268" s="139"/>
       <c r="F268" s="12"/>
       <c r="G268" s="149" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H268" s="149"/>
       <c r="I268" s="149"/>
       <c r="J268" s="57" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K268" s="57" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L268" s="54" t="str">
         <f t="shared" si="12"/>
@@ -8715,20 +8715,20 @@
         <v/>
       </c>
       <c r="D269" s="139" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E269" s="139"/>
       <c r="F269" s="12"/>
       <c r="G269" s="149" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H269" s="149"/>
       <c r="I269" s="149"/>
       <c r="J269" s="57" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K269" s="57" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L269" s="54" t="str">
         <f t="shared" si="12"/>
@@ -8748,20 +8748,20 @@
         <v/>
       </c>
       <c r="D270" s="139" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E270" s="139"/>
       <c r="F270" s="12"/>
       <c r="G270" s="149" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H270" s="149"/>
       <c r="I270" s="149"/>
       <c r="J270" s="57" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K270" s="57" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L270" s="54" t="str">
         <f t="shared" si="12"/>
@@ -8781,20 +8781,20 @@
         <v/>
       </c>
       <c r="D271" s="139" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E271" s="139"/>
       <c r="F271" s="12"/>
       <c r="G271" s="149" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H271" s="149"/>
       <c r="I271" s="149"/>
       <c r="J271" s="57" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K271" s="57" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L271" s="54" t="str">
         <f t="shared" si="12"/>
@@ -8814,20 +8814,20 @@
         <v/>
       </c>
       <c r="D272" s="139" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E272" s="139"/>
       <c r="F272" s="12"/>
       <c r="G272" s="149" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H272" s="149"/>
       <c r="I272" s="149"/>
       <c r="J272" s="57" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K272" s="57" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L272" s="54" t="str">
         <f t="shared" si="12"/>
@@ -8848,7 +8848,7 @@
       </c>
       <c r="D273" s="5"/>
       <c r="E273" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F273" s="2"/>
       <c r="G273" s="150"/>
@@ -8975,7 +8975,7 @@
       <c r="E279" s="27"/>
       <c r="F279" s="27"/>
       <c r="G279" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H279" s="6"/>
       <c r="I279" s="6"/>
@@ -9002,11 +9002,11 @@
         <v/>
       </c>
       <c r="D280" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E280" s="122"/>
       <c r="F280" s="100" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G280" s="123"/>
       <c r="H280" s="123"/>
@@ -9030,7 +9030,7 @@
       <c r="D281" s="7"/>
       <c r="E281" s="125"/>
       <c r="F281" s="100" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G281" s="100"/>
       <c r="H281" s="100"/>
@@ -9056,7 +9056,7 @@
       </c>
       <c r="E282" s="126"/>
       <c r="F282" s="100" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G282" s="100"/>
       <c r="H282" s="100"/>
@@ -9079,7 +9079,7 @@
       </c>
       <c r="E283" s="125"/>
       <c r="F283" s="100" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G283" s="100"/>
       <c r="H283" s="100"/>
@@ -9103,7 +9103,7 @@
       <c r="D284" s="7"/>
       <c r="E284" s="125"/>
       <c r="F284" s="100" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G284" s="100"/>
       <c r="H284" s="100"/>
@@ -9125,11 +9125,11 @@
         <v/>
       </c>
       <c r="D285" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E285" s="126"/>
       <c r="F285" s="100" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G285" s="123"/>
       <c r="H285" s="123"/>
@@ -9153,7 +9153,7 @@
       <c r="D286" s="7"/>
       <c r="E286" s="125"/>
       <c r="F286" s="100" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G286" s="100"/>
       <c r="H286" s="100"/>
@@ -9177,7 +9177,7 @@
       <c r="D287" s="7"/>
       <c r="E287" s="125"/>
       <c r="F287" s="100" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G287" s="100"/>
       <c r="H287" s="100"/>
@@ -9199,11 +9199,11 @@
         <v/>
       </c>
       <c r="D288" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E288" s="126"/>
       <c r="F288" s="100" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G288" s="123"/>
       <c r="H288" s="123"/>
@@ -9227,7 +9227,7 @@
       <c r="D289" s="7"/>
       <c r="E289" s="125"/>
       <c r="F289" s="100" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G289" s="100"/>
       <c r="H289" s="100"/>
@@ -9251,7 +9251,7 @@
       <c r="D290" s="7"/>
       <c r="E290" s="125"/>
       <c r="F290" s="100" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G290" s="100"/>
       <c r="H290" s="100"/>
@@ -9273,11 +9273,11 @@
         <v/>
       </c>
       <c r="D291" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E291" s="127"/>
       <c r="F291" s="100" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G291" s="100"/>
       <c r="H291" s="100"/>
@@ -9299,11 +9299,11 @@
         <v/>
       </c>
       <c r="D292" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E292" s="127"/>
       <c r="F292" s="100" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G292" s="100"/>
       <c r="H292" s="100"/>
@@ -9327,7 +9327,7 @@
       <c r="D293" s="5"/>
       <c r="E293" s="128"/>
       <c r="F293" s="100" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G293" s="123"/>
       <c r="H293" s="123"/>
@@ -9351,7 +9351,7 @@
       <c r="D294" s="5"/>
       <c r="E294" s="128"/>
       <c r="F294" s="100" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G294" s="123"/>
       <c r="H294" s="123"/>
@@ -9439,7 +9439,7 @@
         <v>1</v>
       </c>
       <c r="D298" s="29" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E298" s="110"/>
       <c r="F298" s="111"/>
@@ -9591,7 +9591,7 @@
         <v>1</v>
       </c>
       <c r="E304" s="113" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F304" s="114"/>
       <c r="G304" s="115"/>
@@ -9645,7 +9645,7 @@
         <v>1</v>
       </c>
       <c r="E306" s="116" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F306" s="117"/>
       <c r="G306" s="117"/>
@@ -9671,7 +9671,7 @@
         <v>1</v>
       </c>
       <c r="E307" s="28" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F307" s="27"/>
       <c r="J307" s="42">
@@ -9690,7 +9690,7 @@
     </row>
     <row r="308" spans="1:13" s="69" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A308" s="97" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B308" s="92"/>
       <c r="C308" s="80"/>
@@ -9702,7 +9702,7 @@
     </row>
     <row r="309" spans="1:13" s="69" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A309" s="97" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B309" s="92"/>
       <c r="C309" s="80"/>
@@ -9714,7 +9714,7 @@
     </row>
     <row r="310" spans="1:13" s="69" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A310" s="97" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B310" s="92"/>
       <c r="C310" s="80"/>
@@ -9726,49 +9726,49 @@
     </row>
     <row r="311" spans="1:13" ht="19.2" x14ac:dyDescent="0.2">
       <c r="A311" s="97" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B311" s="93">
         <v>9</v>
       </c>
-      <c r="D311" s="169">
+      <c r="D311" s="155">
         <f>$D$1</f>
         <v>43738</v>
       </c>
-      <c r="E311" s="169"/>
-      <c r="F311" s="169"/>
-      <c r="G311" s="169"/>
-      <c r="H311" s="169"/>
-      <c r="I311" s="169"/>
-      <c r="J311" s="169"/>
-      <c r="K311" s="169"/>
-      <c r="L311" s="169"/>
-      <c r="M311" s="169"/>
+      <c r="E311" s="155"/>
+      <c r="F311" s="155"/>
+      <c r="G311" s="155"/>
+      <c r="H311" s="155"/>
+      <c r="I311" s="155"/>
+      <c r="J311" s="155"/>
+      <c r="K311" s="155"/>
+      <c r="L311" s="155"/>
+      <c r="M311" s="155"/>
     </row>
     <row r="312" spans="1:13" ht="19.2" x14ac:dyDescent="0.25">
       <c r="A312" s="97" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B312" s="93">
         <v>9</v>
       </c>
-      <c r="D312" s="161">
+      <c r="D312" s="156">
         <f>$D311+15</f>
         <v>43753</v>
       </c>
-      <c r="E312" s="162"/>
-      <c r="F312" s="162"/>
-      <c r="G312" s="162"/>
-      <c r="H312" s="162"/>
-      <c r="I312" s="162"/>
-      <c r="J312" s="162"/>
-      <c r="K312" s="162"/>
-      <c r="L312" s="162"/>
+      <c r="E312" s="157"/>
+      <c r="F312" s="157"/>
+      <c r="G312" s="157"/>
+      <c r="H312" s="157"/>
+      <c r="I312" s="157"/>
+      <c r="J312" s="157"/>
+      <c r="K312" s="157"/>
+      <c r="L312" s="157"/>
       <c r="M312" s="23"/>
     </row>
     <row r="313" spans="1:13" s="69" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A313" s="97" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B313" s="95">
         <v>9</v>
@@ -9783,25 +9783,25 @@
     </row>
     <row r="314" spans="1:13" s="69" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A314" s="97" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B314" s="95">
         <v>9</v>
       </c>
       <c r="C314" s="75"/>
-      <c r="D314" s="160" t="s">
+      <c r="D314" s="158" t="s">
         <v>23</v>
       </c>
-      <c r="E314" s="160"/>
+      <c r="E314" s="158"/>
       <c r="F314" s="73"/>
       <c r="G314" s="75" t="s">
         <v>0</v>
       </c>
       <c r="H314" s="148" t="s">
+        <v>57</v>
+      </c>
+      <c r="I314" s="148" t="s">
         <v>58</v>
-      </c>
-      <c r="I314" s="148" t="s">
-        <v>59</v>
       </c>
       <c r="J314" s="73" t="s">
         <v>10</v>
@@ -9816,7 +9816,7 @@
     </row>
     <row r="315" spans="1:13" s="69" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A315" s="97" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B315" s="95">
         <v>9</v>
@@ -9940,7 +9940,7 @@
         <v>1</v>
       </c>
       <c r="D320" s="139" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E320" s="139"/>
       <c r="F320" s="12"/>
@@ -9964,7 +9964,7 @@
         <v>1</v>
       </c>
       <c r="D321" s="139" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E321" s="139"/>
       <c r="F321" s="12"/>
@@ -9988,20 +9988,20 @@
         <v>1</v>
       </c>
       <c r="D322" s="139" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E322" s="139"/>
       <c r="F322" s="12"/>
       <c r="G322" s="149" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H322" s="149"/>
       <c r="I322" s="149"/>
       <c r="J322" s="57" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K322" s="57" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L322" s="54" t="str">
         <f t="shared" si="19"/>
@@ -10018,20 +10018,20 @@
         <v/>
       </c>
       <c r="D323" s="139" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E323" s="139"/>
       <c r="F323" s="12"/>
       <c r="G323" s="149" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H323" s="149"/>
       <c r="I323" s="149"/>
       <c r="J323" s="57" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K323" s="57" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L323" s="54" t="str">
         <f t="shared" si="19"/>
@@ -10048,20 +10048,20 @@
         <v/>
       </c>
       <c r="D324" s="139" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E324" s="139"/>
       <c r="F324" s="12"/>
       <c r="G324" s="149" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H324" s="149"/>
       <c r="I324" s="149"/>
       <c r="J324" s="57" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K324" s="57" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L324" s="54" t="str">
         <f t="shared" si="19"/>
@@ -10078,20 +10078,20 @@
         <v/>
       </c>
       <c r="D325" s="139" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E325" s="139"/>
       <c r="F325" s="12"/>
       <c r="G325" s="149" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H325" s="149"/>
       <c r="I325" s="149"/>
       <c r="J325" s="57" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K325" s="57" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L325" s="54" t="str">
         <f t="shared" si="19"/>
@@ -10108,20 +10108,20 @@
         <v/>
       </c>
       <c r="D326" s="139" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E326" s="139"/>
       <c r="F326" s="12"/>
       <c r="G326" s="149" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H326" s="149"/>
       <c r="I326" s="149"/>
       <c r="J326" s="57" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K326" s="57" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L326" s="54" t="str">
         <f t="shared" si="19"/>
@@ -10138,20 +10138,20 @@
         <v/>
       </c>
       <c r="D327" s="139" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E327" s="139"/>
       <c r="F327" s="12"/>
       <c r="G327" s="149" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H327" s="149"/>
       <c r="I327" s="149"/>
       <c r="J327" s="57" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K327" s="57" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L327" s="54" t="str">
         <f t="shared" si="19"/>
@@ -10168,20 +10168,20 @@
         <v/>
       </c>
       <c r="D328" s="139" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E328" s="139"/>
       <c r="F328" s="12"/>
       <c r="G328" s="149" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H328" s="149"/>
       <c r="I328" s="149"/>
       <c r="J328" s="57" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K328" s="57" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L328" s="54" t="str">
         <f t="shared" si="19"/>
@@ -10198,20 +10198,20 @@
         <v/>
       </c>
       <c r="D329" s="139" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E329" s="139"/>
       <c r="F329" s="12"/>
       <c r="G329" s="149" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H329" s="149"/>
       <c r="I329" s="149"/>
       <c r="J329" s="57" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K329" s="57" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L329" s="54" t="str">
         <f t="shared" si="19"/>
@@ -10228,20 +10228,20 @@
         <v/>
       </c>
       <c r="D330" s="139" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E330" s="139"/>
       <c r="F330" s="12"/>
       <c r="G330" s="149" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H330" s="149"/>
       <c r="I330" s="149"/>
       <c r="J330" s="57" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K330" s="57" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L330" s="54" t="str">
         <f t="shared" si="19"/>
@@ -10258,20 +10258,20 @@
         <v/>
       </c>
       <c r="D331" s="139" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E331" s="139"/>
       <c r="F331" s="12"/>
       <c r="G331" s="149" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H331" s="149"/>
       <c r="I331" s="149"/>
       <c r="J331" s="57" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K331" s="57" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L331" s="54" t="str">
         <f t="shared" si="19"/>
@@ -10288,20 +10288,20 @@
         <v/>
       </c>
       <c r="D332" s="139" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E332" s="139"/>
       <c r="F332" s="12"/>
       <c r="G332" s="149" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H332" s="149"/>
       <c r="I332" s="149"/>
       <c r="J332" s="57" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K332" s="57" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L332" s="54" t="str">
         <f t="shared" si="19"/>
@@ -10318,20 +10318,20 @@
         <v/>
       </c>
       <c r="D333" s="139" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E333" s="139"/>
       <c r="F333" s="12"/>
       <c r="G333" s="149" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H333" s="149"/>
       <c r="I333" s="149"/>
       <c r="J333" s="57" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K333" s="57" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L333" s="54" t="str">
         <f t="shared" si="19"/>
@@ -10348,20 +10348,20 @@
         <v/>
       </c>
       <c r="D334" s="139" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E334" s="139"/>
       <c r="F334" s="12"/>
       <c r="G334" s="149" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H334" s="149"/>
       <c r="I334" s="149"/>
       <c r="J334" s="57" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K334" s="57" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L334" s="54" t="str">
         <f t="shared" si="19"/>
@@ -10378,20 +10378,20 @@
         <v/>
       </c>
       <c r="D335" s="139" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E335" s="139"/>
       <c r="F335" s="12"/>
       <c r="G335" s="149" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H335" s="149"/>
       <c r="I335" s="149"/>
       <c r="J335" s="57" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K335" s="57" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L335" s="54" t="str">
         <f t="shared" si="19"/>
@@ -10408,20 +10408,20 @@
         <v/>
       </c>
       <c r="D336" s="139" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E336" s="139"/>
       <c r="F336" s="12"/>
       <c r="G336" s="149" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H336" s="149"/>
       <c r="I336" s="149"/>
       <c r="J336" s="57" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K336" s="57" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L336" s="54" t="str">
         <f t="shared" si="19"/>
@@ -10438,20 +10438,20 @@
         <v/>
       </c>
       <c r="D337" s="139" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E337" s="139"/>
       <c r="F337" s="12"/>
       <c r="G337" s="149" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H337" s="149"/>
       <c r="I337" s="149"/>
       <c r="J337" s="57" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K337" s="57" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L337" s="54" t="str">
         <f t="shared" si="19"/>
@@ -10468,20 +10468,20 @@
         <v/>
       </c>
       <c r="D338" s="139" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E338" s="139"/>
       <c r="F338" s="12"/>
       <c r="G338" s="149" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H338" s="149"/>
       <c r="I338" s="149"/>
       <c r="J338" s="57" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K338" s="57" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L338" s="54" t="str">
         <f t="shared" si="19"/>
@@ -10498,20 +10498,20 @@
         <v/>
       </c>
       <c r="D339" s="139" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E339" s="139"/>
       <c r="F339" s="12"/>
       <c r="G339" s="149" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H339" s="149"/>
       <c r="I339" s="149"/>
       <c r="J339" s="57" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K339" s="57" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L339" s="54" t="str">
         <f t="shared" si="19"/>
@@ -10528,20 +10528,20 @@
         <v/>
       </c>
       <c r="D340" s="139" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E340" s="139"/>
       <c r="F340" s="12"/>
       <c r="G340" s="149" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H340" s="149"/>
       <c r="I340" s="149"/>
       <c r="J340" s="57" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K340" s="57" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L340" s="54" t="str">
         <f t="shared" si="19"/>
@@ -10558,20 +10558,20 @@
         <v/>
       </c>
       <c r="D341" s="139" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E341" s="139"/>
       <c r="F341" s="12"/>
       <c r="G341" s="149" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H341" s="149"/>
       <c r="I341" s="149"/>
       <c r="J341" s="57" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K341" s="57" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L341" s="54" t="str">
         <f t="shared" si="19"/>
@@ -10588,20 +10588,20 @@
         <v/>
       </c>
       <c r="D342" s="139" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E342" s="139"/>
       <c r="F342" s="12"/>
       <c r="G342" s="149" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H342" s="149"/>
       <c r="I342" s="149"/>
       <c r="J342" s="57" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K342" s="57" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L342" s="54" t="str">
         <f t="shared" si="19"/>
@@ -10618,20 +10618,20 @@
         <v/>
       </c>
       <c r="D343" s="139" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E343" s="139"/>
       <c r="F343" s="12"/>
       <c r="G343" s="149" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H343" s="149"/>
       <c r="I343" s="149"/>
       <c r="J343" s="57" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K343" s="57" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L343" s="54" t="str">
         <f t="shared" si="19"/>
@@ -10648,20 +10648,20 @@
         <v/>
       </c>
       <c r="D344" s="139" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E344" s="139"/>
       <c r="F344" s="12"/>
       <c r="G344" s="149" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H344" s="149"/>
       <c r="I344" s="149"/>
       <c r="J344" s="57" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K344" s="57" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L344" s="54" t="str">
         <f t="shared" si="19"/>
@@ -10678,20 +10678,20 @@
         <v/>
       </c>
       <c r="D345" s="139" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E345" s="139"/>
       <c r="F345" s="12"/>
       <c r="G345" s="149" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H345" s="149"/>
       <c r="I345" s="149"/>
       <c r="J345" s="57" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K345" s="57" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L345" s="54" t="str">
         <f t="shared" si="19"/>
@@ -10708,20 +10708,20 @@
         <v/>
       </c>
       <c r="D346" s="139" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E346" s="139"/>
       <c r="F346" s="12"/>
       <c r="G346" s="149" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H346" s="149"/>
       <c r="I346" s="149"/>
       <c r="J346" s="57" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K346" s="57" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L346" s="54" t="str">
         <f t="shared" si="19"/>
@@ -10739,7 +10739,7 @@
       </c>
       <c r="D347" s="79"/>
       <c r="E347" s="71" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F347" s="2"/>
       <c r="G347" s="150"/>
@@ -10870,7 +10870,7 @@
       <c r="E353" s="76"/>
       <c r="F353" s="27"/>
       <c r="G353" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H353" s="6"/>
       <c r="I353" s="6"/>
@@ -10897,11 +10897,11 @@
         <v/>
       </c>
       <c r="D354" s="81" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E354" s="122"/>
       <c r="F354" s="100" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G354" s="123"/>
       <c r="H354" s="123"/>
@@ -10925,7 +10925,7 @@
       <c r="D355" s="82"/>
       <c r="E355" s="125"/>
       <c r="F355" s="100" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G355" s="100"/>
       <c r="H355" s="100"/>
@@ -10951,7 +10951,7 @@
       </c>
       <c r="E356" s="126"/>
       <c r="F356" s="100" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G356" s="100"/>
       <c r="H356" s="100"/>
@@ -10975,7 +10975,7 @@
       <c r="D357" s="69"/>
       <c r="E357" s="125"/>
       <c r="F357" s="100" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G357" s="100"/>
       <c r="H357" s="100"/>
@@ -10999,7 +10999,7 @@
       <c r="D358" s="82"/>
       <c r="E358" s="125"/>
       <c r="F358" s="100" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G358" s="100"/>
       <c r="H358" s="100"/>
@@ -11021,11 +11021,11 @@
         <v/>
       </c>
       <c r="D359" s="81" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E359" s="126"/>
       <c r="F359" s="100" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G359" s="123"/>
       <c r="H359" s="123"/>
@@ -11049,7 +11049,7 @@
       <c r="D360" s="82"/>
       <c r="E360" s="125"/>
       <c r="F360" s="100" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G360" s="100"/>
       <c r="H360" s="100"/>
@@ -11073,7 +11073,7 @@
       <c r="D361" s="82"/>
       <c r="E361" s="125"/>
       <c r="F361" s="100" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G361" s="100"/>
       <c r="H361" s="100"/>
@@ -11095,11 +11095,11 @@
         <v/>
       </c>
       <c r="D362" s="81" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E362" s="126"/>
       <c r="F362" s="100" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G362" s="123"/>
       <c r="H362" s="123"/>
@@ -11123,7 +11123,7 @@
       <c r="D363" s="82"/>
       <c r="E363" s="125"/>
       <c r="F363" s="100" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G363" s="100"/>
       <c r="H363" s="100"/>
@@ -11147,7 +11147,7 @@
       <c r="D364" s="82"/>
       <c r="E364" s="125"/>
       <c r="F364" s="100" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G364" s="100"/>
       <c r="H364" s="100"/>
@@ -11169,11 +11169,11 @@
         <v/>
       </c>
       <c r="D365" s="71" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E365" s="127"/>
       <c r="F365" s="100" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G365" s="123"/>
       <c r="H365" s="123"/>
@@ -11195,11 +11195,11 @@
         <v/>
       </c>
       <c r="D366" s="71" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E366" s="128"/>
       <c r="F366" s="100" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G366" s="105"/>
       <c r="H366" s="105"/>
@@ -11223,7 +11223,7 @@
       <c r="D367" s="79"/>
       <c r="E367" s="128"/>
       <c r="F367" s="100" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G367" s="123"/>
       <c r="H367" s="123"/>
@@ -11247,7 +11247,7 @@
       <c r="D368" s="79"/>
       <c r="E368" s="128"/>
       <c r="F368" s="100" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G368" s="123"/>
       <c r="H368" s="123"/>
@@ -11336,7 +11336,7 @@
         <v>1</v>
       </c>
       <c r="D372" s="83" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E372" s="129"/>
       <c r="F372" s="111"/>
@@ -11494,7 +11494,7 @@
       </c>
       <c r="D378" s="69"/>
       <c r="E378" s="131" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F378" s="114"/>
       <c r="G378" s="115"/>
@@ -11550,7 +11550,7 @@
       </c>
       <c r="D380" s="69"/>
       <c r="E380" s="132" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F380" s="117"/>
       <c r="G380" s="117"/>
@@ -11577,7 +11577,7 @@
       </c>
       <c r="D381" s="69"/>
       <c r="E381" s="77" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F381" s="27"/>
       <c r="J381" s="43">
@@ -11608,12 +11608,6 @@
   <autoFilter ref="A6:L381" xr:uid="{00000000-0009-0000-0000-000009000000}"/>
   <dataConsolidate/>
   <mergeCells count="22">
-    <mergeCell ref="D311:M311"/>
-    <mergeCell ref="D312:L312"/>
-    <mergeCell ref="D314:E314"/>
-    <mergeCell ref="D237:M237"/>
-    <mergeCell ref="D238:L238"/>
-    <mergeCell ref="D240:E240"/>
     <mergeCell ref="E230:F230"/>
     <mergeCell ref="E231:F231"/>
     <mergeCell ref="E232:F232"/>
@@ -11630,6 +11624,12 @@
     <mergeCell ref="J225:K225"/>
     <mergeCell ref="J226:K226"/>
     <mergeCell ref="E228:J228"/>
+    <mergeCell ref="D311:M311"/>
+    <mergeCell ref="D312:L312"/>
+    <mergeCell ref="D314:E314"/>
+    <mergeCell ref="D237:M237"/>
+    <mergeCell ref="D238:L238"/>
+    <mergeCell ref="D240:E240"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.70866141732283472" right="0" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.15748031496062992"/>
